--- a/config_12.22/shoping_config_xiaomi.xlsx
+++ b/config_12.22/shoping_config_xiaomi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.22\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -11214,10 +11214,10 @@
   <dimension ref="A1:AN492"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H467" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="Y368" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F494" sqref="F494"/>
+      <selection pane="bottomRight" activeCell="AA399" sqref="AA399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -35678,10 +35678,10 @@
         <v>9999999</v>
       </c>
       <c r="Y386" s="49">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="Z386" s="49">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="AA386" s="19">
         <v>44</v>
@@ -35747,10 +35747,10 @@
         <v>9999999</v>
       </c>
       <c r="Y387" s="49">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="Z387" s="49">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="AA387" s="19">
         <v>44</v>
@@ -35816,10 +35816,10 @@
         <v>9999999</v>
       </c>
       <c r="Y388" s="49">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="Z388" s="49">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="AA388" s="19">
         <v>44</v>
@@ -35884,11 +35884,11 @@
       <c r="X389" s="19">
         <v>9999999</v>
       </c>
-      <c r="Y389" s="65">
-        <v>1605571200</v>
-      </c>
-      <c r="Z389" s="65">
-        <v>1606147199</v>
+      <c r="Y389" s="49">
+        <v>1608595200</v>
+      </c>
+      <c r="Z389" s="49">
+        <v>1609171199</v>
       </c>
       <c r="AA389" s="19">
         <v>45</v>
@@ -35953,11 +35953,11 @@
       <c r="X390" s="19">
         <v>9999999</v>
       </c>
-      <c r="Y390" s="65">
-        <v>1605571200</v>
-      </c>
-      <c r="Z390" s="65">
-        <v>1606147199</v>
+      <c r="Y390" s="49">
+        <v>1608595200</v>
+      </c>
+      <c r="Z390" s="49">
+        <v>1609171199</v>
       </c>
       <c r="AA390" s="19">
         <v>45</v>
@@ -36022,11 +36022,11 @@
       <c r="X391" s="19">
         <v>9999999</v>
       </c>
-      <c r="Y391" s="65">
-        <v>1605571200</v>
-      </c>
-      <c r="Z391" s="65">
-        <v>1606147199</v>
+      <c r="Y391" s="49">
+        <v>1608595200</v>
+      </c>
+      <c r="Z391" s="49">
+        <v>1609171199</v>
       </c>
       <c r="AA391" s="19">
         <v>45</v>
@@ -36092,10 +36092,10 @@
         <v>9999999</v>
       </c>
       <c r="Y392" s="49">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="Z392" s="49">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="AA392" s="19">
         <v>46</v>
@@ -36161,10 +36161,10 @@
         <v>9999999</v>
       </c>
       <c r="Y393" s="49">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="Z393" s="49">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="AA393" s="19">
         <v>46</v>
@@ -36230,10 +36230,10 @@
         <v>9999999</v>
       </c>
       <c r="Y394" s="49">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="Z394" s="49">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="AA394" s="19">
         <v>46</v>

--- a/config_12.22/shoping_config_xiaomi.xlsx
+++ b/config_12.22/shoping_config_xiaomi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.22\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -11214,10 +11214,10 @@
   <dimension ref="A1:AN492"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="Y368" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="L60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA399" sqref="AA399"/>
+      <selection pane="bottomRight" activeCell="Q77" sqref="Q77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -15684,7 +15684,7 @@
         <v>100</v>
       </c>
       <c r="Q77" s="19" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="R77" s="39" t="s">
         <v>1728</v>

--- a/config_12.22/shoping_config_xiaomi.xlsx
+++ b/config_12.22/shoping_config_xiaomi.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -11213,7 +11213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN492"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="L60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -43588,8 +43588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC27"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:Q25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -43715,6 +43715,9 @@
       </c>
       <c r="C2" s="11" t="s">
         <v>41</v>
+      </c>
+      <c r="D2" s="11">
+        <v>10330</v>
       </c>
       <c r="E2" s="11">
         <v>1</v>

--- a/config_12.22/shoping_config_xiaomi.xlsx
+++ b/config_12.22/shoping_config_xiaomi.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4053" uniqueCount="1890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4053" uniqueCount="1889">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8027,10 +8027,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>首充加赠4308888</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>首充加赠21808888</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8051,46 +8047,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>24万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>加赠24万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>60万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>加赠60万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>120万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>加赠120万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>392万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>加赠392万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>6万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>加赠6万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>250万金币</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8115,26 +8071,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>6000万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3992万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>加赠3992万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9992万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>加赠9992万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>5万金币</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8147,30 +8083,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>100万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>加赠100万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>660万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.3万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>加赠3.3万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>10万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>5万金币</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8179,50 +8091,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>200万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>加赠200万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1992万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>加赠1992万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>加赠6000万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>335万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>加赠335万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>加赠660万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1020万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>加赠1020万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>加赠10万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>加赠250万金币</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8332,6 +8200,103 @@
   </si>
   <si>
     <t>99800000,3000000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>24万金币</t>
+  </si>
+  <si>
+    <t>加赠24万金币</t>
+  </si>
+  <si>
+    <t>60万金币</t>
+  </si>
+  <si>
+    <t>加赠60万金币</t>
+  </si>
+  <si>
+    <t>120万金币</t>
+  </si>
+  <si>
+    <t>加赠120万金币</t>
+  </si>
+  <si>
+    <t>200万金币</t>
+  </si>
+  <si>
+    <t>加赠200万金币</t>
+  </si>
+  <si>
+    <t>392万金币</t>
+  </si>
+  <si>
+    <t>加赠392万金币</t>
+  </si>
+  <si>
+    <t>1992万金币</t>
+  </si>
+  <si>
+    <t>加赠1992万金币</t>
+  </si>
+  <si>
+    <t>6万金币</t>
+  </si>
+  <si>
+    <t>加赠6万金币</t>
+  </si>
+  <si>
+    <t>6000万金币</t>
+  </si>
+  <si>
+    <t>加赠6000万金币</t>
+  </si>
+  <si>
+    <t>3992万金币</t>
+  </si>
+  <si>
+    <t>加赠3992万金币</t>
+  </si>
+  <si>
+    <t>9992万金币</t>
+  </si>
+  <si>
+    <t>加赠9992万金币</t>
+  </si>
+  <si>
+    <t>100万金币</t>
+  </si>
+  <si>
+    <t>加赠100万金币</t>
+  </si>
+  <si>
+    <t>335万金币</t>
+  </si>
+  <si>
+    <t>加赠335万金币</t>
+  </si>
+  <si>
+    <t>660万金币</t>
+  </si>
+  <si>
+    <t>加赠660万金币</t>
+  </si>
+  <si>
+    <t>1020万金币</t>
+  </si>
+  <si>
+    <t>加赠1020万金币</t>
+  </si>
+  <si>
+    <t>3.3万金币</t>
+  </si>
+  <si>
+    <t>加赠3.3万金币</t>
+  </si>
+  <si>
+    <t>加赠10万金币</t>
+  </si>
+  <si>
+    <t>首充加赠8508888</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -11213,11 +11178,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN492"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="L60" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H258" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q77" sqref="Q77"/>
+      <selection pane="bottomRight" activeCell="H273" sqref="H273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -15253,7 +15218,7 @@
         <v>229</v>
       </c>
       <c r="H70" s="69" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="L70" s="69">
         <v>-4</v>
@@ -15312,7 +15277,7 @@
         <v>230</v>
       </c>
       <c r="H71" s="69" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="L71" s="69">
         <v>-4</v>
@@ -18694,7 +18659,7 @@
         <v>320</v>
       </c>
       <c r="H128" s="69" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="L128" s="69">
         <v>-10</v>
@@ -18753,7 +18718,7 @@
         <v>1144</v>
       </c>
       <c r="H129" s="69" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="L129" s="69">
         <v>-11</v>
@@ -28056,7 +28021,7 @@
         <v>521</v>
       </c>
       <c r="H273" s="74" t="s">
-        <v>1812</v>
+        <v>1888</v>
       </c>
       <c r="L273" s="69">
         <v>-10</v>
@@ -37491,7 +37456,7 @@
         <v>1395</v>
       </c>
       <c r="H414" s="69" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="L414" s="69">
         <v>-4</v>
@@ -42180,10 +42145,10 @@
         <v>1</v>
       </c>
       <c r="G486" s="19" t="s">
-        <v>1864</v>
+        <v>1831</v>
       </c>
       <c r="I486" s="19" t="s">
-        <v>1865</v>
+        <v>1832</v>
       </c>
       <c r="J486" s="19" t="s">
         <v>1486</v>
@@ -42204,7 +42169,7 @@
         <v>1800</v>
       </c>
       <c r="Q486" s="19" t="s">
-        <v>1867</v>
+        <v>1834</v>
       </c>
       <c r="R486" s="39" t="s">
         <v>1488</v>
@@ -42245,13 +42210,13 @@
         <v>1</v>
       </c>
       <c r="G487" s="19" t="s">
-        <v>1868</v>
+        <v>1835</v>
       </c>
       <c r="I487" s="19" t="s">
-        <v>1869</v>
+        <v>1836</v>
       </c>
       <c r="J487" s="19" t="s">
-        <v>1870</v>
+        <v>1837</v>
       </c>
       <c r="L487" s="19">
         <v>-31</v>
@@ -42269,10 +42234,10 @@
         <v>4800</v>
       </c>
       <c r="Q487" s="19" t="s">
-        <v>1866</v>
+        <v>1833</v>
       </c>
       <c r="R487" s="39" t="s">
-        <v>1871</v>
+        <v>1838</v>
       </c>
       <c r="W487" s="19" t="s">
         <v>528</v>
@@ -42310,7 +42275,7 @@
         <v>1</v>
       </c>
       <c r="G488" s="19" t="s">
-        <v>1872</v>
+        <v>1839</v>
       </c>
       <c r="I488" s="19" t="s">
         <v>1485</v>
@@ -42334,10 +42299,10 @@
         <v>9800</v>
       </c>
       <c r="Q488" s="19" t="s">
-        <v>1873</v>
+        <v>1840</v>
       </c>
       <c r="R488" s="39" t="s">
-        <v>1874</v>
+        <v>1841</v>
       </c>
       <c r="W488" s="19" t="s">
         <v>528</v>
@@ -42375,13 +42340,13 @@
         <v>1</v>
       </c>
       <c r="G489" s="19" t="s">
-        <v>1875</v>
+        <v>1842</v>
       </c>
       <c r="I489" s="19" t="s">
-        <v>1869</v>
+        <v>1836</v>
       </c>
       <c r="J489" s="19" t="s">
-        <v>1876</v>
+        <v>1843</v>
       </c>
       <c r="L489" s="19">
         <v>-31</v>
@@ -42399,10 +42364,10 @@
         <v>19800</v>
       </c>
       <c r="Q489" s="19" t="s">
-        <v>1877</v>
+        <v>1844</v>
       </c>
       <c r="R489" s="39" t="s">
-        <v>1878</v>
+        <v>1845</v>
       </c>
       <c r="W489" s="19" t="s">
         <v>528</v>
@@ -42443,10 +42408,10 @@
         <v>1492</v>
       </c>
       <c r="I490" s="19" t="s">
-        <v>1879</v>
+        <v>1846</v>
       </c>
       <c r="J490" s="19" t="s">
-        <v>1880</v>
+        <v>1847</v>
       </c>
       <c r="L490" s="19">
         <v>-31</v>
@@ -42467,7 +42432,7 @@
         <v>1499</v>
       </c>
       <c r="R490" s="39" t="s">
-        <v>1881</v>
+        <v>1848</v>
       </c>
       <c r="W490" s="19" t="s">
         <v>528</v>
@@ -42505,13 +42470,13 @@
         <v>1</v>
       </c>
       <c r="G491" s="19" t="s">
-        <v>1882</v>
+        <v>1849</v>
       </c>
       <c r="I491" s="19" t="s">
         <v>1485</v>
       </c>
       <c r="J491" s="19" t="s">
-        <v>1883</v>
+        <v>1850</v>
       </c>
       <c r="L491" s="19">
         <v>-31</v>
@@ -42529,10 +42494,10 @@
         <v>49800</v>
       </c>
       <c r="Q491" s="19" t="s">
-        <v>1884</v>
+        <v>1851</v>
       </c>
       <c r="R491" s="39" t="s">
-        <v>1885</v>
+        <v>1852</v>
       </c>
       <c r="W491" s="19" t="s">
         <v>528</v>
@@ -42576,7 +42541,7 @@
         <v>1485</v>
       </c>
       <c r="J492" s="19" t="s">
-        <v>1886</v>
+        <v>1853</v>
       </c>
       <c r="L492" s="19">
         <v>-31</v>
@@ -42588,16 +42553,16 @@
         <v>0</v>
       </c>
       <c r="O492" s="19" t="s">
-        <v>1887</v>
+        <v>1854</v>
       </c>
       <c r="P492" s="19">
         <v>99800</v>
       </c>
       <c r="Q492" s="19" t="s">
-        <v>1888</v>
+        <v>1855</v>
       </c>
       <c r="R492" s="39" t="s">
-        <v>1889</v>
+        <v>1856</v>
       </c>
       <c r="W492" s="19" t="s">
         <v>1695</v>
@@ -43588,8 +43553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -43667,7 +43632,7 @@
         <v>29</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>30</v>
@@ -43750,10 +43715,10 @@
         <v>3</v>
       </c>
       <c r="P2" s="33" t="s">
-        <v>1819</v>
+        <v>1857</v>
       </c>
       <c r="Q2" s="33" t="s">
-        <v>1820</v>
+        <v>1858</v>
       </c>
       <c r="S2" s="33" t="s">
         <v>1081</v>
@@ -43818,10 +43783,10 @@
         <v>4</v>
       </c>
       <c r="P3" s="33" t="s">
-        <v>1821</v>
+        <v>1859</v>
       </c>
       <c r="Q3" s="33" t="s">
-        <v>1822</v>
+        <v>1860</v>
       </c>
       <c r="S3" s="33" t="s">
         <v>1081</v>
@@ -43886,10 +43851,10 @@
         <v>5</v>
       </c>
       <c r="P4" s="33" t="s">
-        <v>1823</v>
+        <v>1861</v>
       </c>
       <c r="Q4" s="33" t="s">
-        <v>1824</v>
+        <v>1862</v>
       </c>
       <c r="S4" s="33" t="s">
         <v>1081</v>
@@ -43954,10 +43919,10 @@
         <v>6</v>
       </c>
       <c r="P5" s="33" t="s">
-        <v>1851</v>
+        <v>1863</v>
       </c>
       <c r="Q5" s="33" t="s">
-        <v>1852</v>
+        <v>1864</v>
       </c>
       <c r="S5" s="33" t="s">
         <v>1081</v>
@@ -44022,10 +43987,10 @@
         <v>7</v>
       </c>
       <c r="P6" s="33" t="s">
-        <v>1825</v>
+        <v>1865</v>
       </c>
       <c r="Q6" s="33" t="s">
-        <v>1826</v>
+        <v>1866</v>
       </c>
       <c r="S6" s="33" t="s">
         <v>1081</v>
@@ -44090,10 +44055,10 @@
         <v>9</v>
       </c>
       <c r="P7" s="33" t="s">
-        <v>1853</v>
+        <v>1867</v>
       </c>
       <c r="Q7" s="33" t="s">
-        <v>1854</v>
+        <v>1868</v>
       </c>
       <c r="S7" s="33" t="s">
         <v>1081</v>
@@ -44155,10 +44120,10 @@
         <v>0</v>
       </c>
       <c r="P8" s="33" t="s">
-        <v>1827</v>
+        <v>1869</v>
       </c>
       <c r="Q8" s="33" t="s">
-        <v>1828</v>
+        <v>1870</v>
       </c>
       <c r="S8" s="33" t="s">
         <v>1081</v>
@@ -44222,10 +44187,10 @@
         <v>2</v>
       </c>
       <c r="P9" s="35" t="s">
-        <v>1830</v>
+        <v>1819</v>
       </c>
       <c r="Q9" s="35" t="s">
-        <v>1831</v>
+        <v>1820</v>
       </c>
       <c r="R9" s="34"/>
       <c r="S9" s="34"/>
@@ -44295,10 +44260,10 @@
         <v>1</v>
       </c>
       <c r="P10" s="35" t="s">
-        <v>1833</v>
+        <v>1822</v>
       </c>
       <c r="Q10" s="35" t="s">
-        <v>1834</v>
+        <v>1823</v>
       </c>
       <c r="R10" s="34"/>
       <c r="S10" s="34"/>
@@ -44366,10 +44331,10 @@
         <v>0</v>
       </c>
       <c r="P11" s="33" t="s">
-        <v>1821</v>
+        <v>1859</v>
       </c>
       <c r="Q11" s="33" t="s">
-        <v>1822</v>
+        <v>1860</v>
       </c>
       <c r="S11" s="33" t="s">
         <v>1081</v>
@@ -44434,10 +44399,10 @@
         <v>9</v>
       </c>
       <c r="P12" s="33" t="s">
-        <v>1835</v>
+        <v>1871</v>
       </c>
       <c r="Q12" s="33" t="s">
-        <v>1855</v>
+        <v>1872</v>
       </c>
       <c r="S12" s="33" t="s">
         <v>1081</v>
@@ -44502,10 +44467,10 @@
         <v>10</v>
       </c>
       <c r="P13" s="33" t="s">
-        <v>1836</v>
+        <v>1873</v>
       </c>
       <c r="Q13" s="33" t="s">
-        <v>1837</v>
+        <v>1874</v>
       </c>
       <c r="S13" s="33" t="s">
         <v>1081</v>
@@ -44570,10 +44535,10 @@
         <v>11</v>
       </c>
       <c r="P14" s="33" t="s">
-        <v>1838</v>
+        <v>1875</v>
       </c>
       <c r="Q14" s="33" t="s">
-        <v>1839</v>
+        <v>1876</v>
       </c>
       <c r="S14" s="33" t="s">
         <v>1088</v>
@@ -44639,10 +44604,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="35" t="s">
-        <v>1849</v>
+        <v>1827</v>
       </c>
       <c r="Q15" s="35" t="s">
-        <v>1842</v>
+        <v>1826</v>
       </c>
       <c r="R15" s="34"/>
       <c r="S15" s="35"/>
@@ -44713,10 +44678,10 @@
         <v>3</v>
       </c>
       <c r="P16" s="33" t="s">
-        <v>1843</v>
+        <v>1877</v>
       </c>
       <c r="Q16" s="33" t="s">
-        <v>1844</v>
+        <v>1878</v>
       </c>
       <c r="R16" s="12"/>
       <c r="S16" s="33" t="s">
@@ -44781,10 +44746,10 @@
         <v>4</v>
       </c>
       <c r="P17" s="33" t="s">
-        <v>1856</v>
+        <v>1879</v>
       </c>
       <c r="Q17" s="33" t="s">
-        <v>1857</v>
+        <v>1880</v>
       </c>
       <c r="R17" s="12"/>
       <c r="S17" s="33" t="s">
@@ -44849,10 +44814,10 @@
         <v>5</v>
       </c>
       <c r="P18" s="33" t="s">
-        <v>1845</v>
+        <v>1881</v>
       </c>
       <c r="Q18" s="33" t="s">
-        <v>1858</v>
+        <v>1882</v>
       </c>
       <c r="R18" s="12"/>
       <c r="S18" s="33" t="s">
@@ -44917,10 +44882,10 @@
         <v>6</v>
       </c>
       <c r="P19" s="33" t="s">
-        <v>1859</v>
+        <v>1883</v>
       </c>
       <c r="Q19" s="33" t="s">
-        <v>1860</v>
+        <v>1884</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="33" t="s">
@@ -44985,10 +44950,10 @@
         <v>7</v>
       </c>
       <c r="P20" s="33" t="s">
-        <v>1846</v>
+        <v>1885</v>
       </c>
       <c r="Q20" s="33" t="s">
-        <v>1847</v>
+        <v>1886</v>
       </c>
       <c r="S20" s="33" t="s">
         <v>939</v>
@@ -45052,10 +45017,10 @@
         <v>0</v>
       </c>
       <c r="P21" s="33" t="s">
-        <v>1848</v>
+        <v>901</v>
       </c>
       <c r="Q21" s="33" t="s">
-        <v>1861</v>
+        <v>1887</v>
       </c>
       <c r="R21" s="11"/>
       <c r="S21" s="33" t="s">
@@ -45125,10 +45090,10 @@
         <v>2</v>
       </c>
       <c r="P22" s="35" t="s">
+        <v>1818</v>
+      </c>
+      <c r="Q22" s="35" t="s">
         <v>1829</v>
-      </c>
-      <c r="Q22" s="35" t="s">
-        <v>1862</v>
       </c>
       <c r="R22" s="34"/>
       <c r="S22" s="35"/>
@@ -45196,10 +45161,10 @@
         <v>1</v>
       </c>
       <c r="P23" s="35" t="s">
-        <v>1832</v>
+        <v>1821</v>
       </c>
       <c r="Q23" s="35" t="s">
-        <v>1834</v>
+        <v>1823</v>
       </c>
       <c r="R23" s="34"/>
       <c r="S23" s="35"/>
@@ -45269,10 +45234,10 @@
         <v>0</v>
       </c>
       <c r="P24" s="35" t="s">
-        <v>1840</v>
+        <v>1824</v>
       </c>
       <c r="Q24" s="35" t="s">
-        <v>1841</v>
+        <v>1825</v>
       </c>
       <c r="R24" s="34"/>
       <c r="S24" s="35"/>
@@ -45343,10 +45308,10 @@
         <v>8</v>
       </c>
       <c r="P25" s="33" t="s">
-        <v>1850</v>
+        <v>1828</v>
       </c>
       <c r="Q25" s="33" t="s">
-        <v>1863</v>
+        <v>1830</v>
       </c>
       <c r="S25" s="33" t="s">
         <v>940</v>

--- a/config_12.22/shoping_config_xiaomi.xlsx
+++ b/config_12.22/shoping_config_xiaomi.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.22\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4053" uniqueCount="1889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4053" uniqueCount="1881">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -4185,34 +4185,6 @@
   </si>
   <si>
     <r>
-      <t>30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万鲸币</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>79840</t>
     </r>
     <r>
@@ -4532,34 +4504,6 @@
   </si>
   <si>
     <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万鲸币</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>1500</t>
     </r>
     <r>
@@ -4583,34 +4527,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>00,</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万鲸币</t>
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -4644,34 +4560,6 @@
   </si>
   <si>
     <r>
-      <t>30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万鲸币</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>5000</t>
     </r>
     <r>
@@ -4695,62 +4583,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>00,</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万鲸币</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万鲸币</t>
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -4784,34 +4616,6 @@
   </si>
   <si>
     <r>
-      <t>98</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万鲸币</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>49800</t>
     </r>
     <r>
@@ -4835,34 +4639,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>00,</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>498</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万鲸币</t>
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -4895,10 +4671,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>1亿鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>shop</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -5168,10 +4940,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"鲸币宝箱抽奖券",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>1,1,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -5554,10 +5322,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"鲸币宝箱抽奖券",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>钻石宝箱</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -6243,10 +6007,6 @@
   </si>
   <si>
     <t>{type="permission_class",class_value = "031_gqfd_gift" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"60万鲸币",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -6531,10 +6291,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"鲸币宝箱抽奖券",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"prop_cjlb_1",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -6555,10 +6311,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"鲸币宝箱抽奖券",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"prop_cjlb_2",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -6575,10 +6327,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"鲸币宝箱抽奖券",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>白银宝箱</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8298,6 +8046,27 @@
   <si>
     <t>首充加赠8508888</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币宝箱抽奖券",</t>
+  </si>
+  <si>
+    <t>150万金币</t>
+  </si>
+  <si>
+    <t>300万金币</t>
+  </si>
+  <si>
+    <t>500万金币</t>
+  </si>
+  <si>
+    <t>980万金币</t>
+  </si>
+  <si>
+    <t>4980万金币</t>
+  </si>
+  <si>
+    <t>1亿金币</t>
   </si>
 </sst>
 </file>
@@ -9144,16 +8913,16 @@
         <v>3</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>1421</v>
+        <v>1409</v>
       </c>
       <c r="E4" s="51" t="s">
-        <v>1422</v>
+        <v>1410</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>1423</v>
+        <v>1411</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>1424</v>
+        <v>1412</v>
       </c>
       <c r="H4" s="12">
         <v>0</v>
@@ -9210,8 +8979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F2:F28"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9303,7 +9072,7 @@
         <v>28</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>29</v>
@@ -9397,14 +9166,14 @@
         <v>1</v>
       </c>
       <c r="T2" s="33" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="U2" s="33" t="s">
         <v>1022</v>
       </c>
       <c r="V2" s="11"/>
       <c r="W2" s="33" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="X2" s="11" t="s">
         <v>47</v>
@@ -9413,7 +9182,7 @@
         <v>633</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="AC2" s="11">
         <v>1</v>
@@ -9477,14 +9246,14 @@
         <v>2</v>
       </c>
       <c r="T3" s="33" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="U3" s="33" t="s">
         <v>1024</v>
       </c>
       <c r="V3" s="11"/>
       <c r="W3" s="33" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="X3" s="11" t="s">
         <v>49</v>
@@ -9557,14 +9326,14 @@
         <v>3</v>
       </c>
       <c r="T4" s="33" t="s">
+        <v>1045</v>
+      </c>
+      <c r="U4" s="33" t="s">
         <v>1046</v>
-      </c>
-      <c r="U4" s="33" t="s">
-        <v>1047</v>
       </c>
       <c r="V4" s="11"/>
       <c r="W4" s="33" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="X4" s="11" t="s">
         <v>50</v>
@@ -9640,11 +9409,11 @@
         <v>1027</v>
       </c>
       <c r="U5" s="33" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="V5" s="11"/>
       <c r="W5" s="33" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="X5" s="11" t="s">
         <v>51</v>
@@ -9717,14 +9486,14 @@
         <v>5</v>
       </c>
       <c r="T6" s="33" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="U6" s="33" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="V6" s="11"/>
       <c r="W6" s="33" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="X6" s="11" t="s">
         <v>52</v>
@@ -9800,11 +9569,11 @@
         <v>1030</v>
       </c>
       <c r="U7" s="33" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="V7" s="11"/>
       <c r="W7" s="33" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="X7" s="11" t="s">
         <v>53</v>
@@ -9877,14 +9646,14 @@
         <v>8</v>
       </c>
       <c r="T8" s="33" t="s">
+        <v>1050</v>
+      </c>
+      <c r="U8" s="33" t="s">
         <v>1051</v>
-      </c>
-      <c r="U8" s="33" t="s">
-        <v>1052</v>
       </c>
       <c r="V8" s="11"/>
       <c r="W8" s="33" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="X8" s="11" t="s">
         <v>54</v>
@@ -9927,7 +9696,7 @@
         <v>43</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="K9" s="11" t="s">
         <v>44</v>
@@ -9957,13 +9726,13 @@
         <v>9</v>
       </c>
       <c r="T9" s="33" t="s">
+        <v>1052</v>
+      </c>
+      <c r="U9" s="33" t="s">
+        <v>1052</v>
+      </c>
+      <c r="W9" s="33" t="s">
         <v>1053</v>
-      </c>
-      <c r="U9" s="33" t="s">
-        <v>1053</v>
-      </c>
-      <c r="W9" s="33" t="s">
-        <v>1054</v>
       </c>
       <c r="X9" s="11" t="s">
         <v>55</v>
@@ -10005,7 +9774,7 @@
         <v>43</v>
       </c>
       <c r="J10" s="33" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>44</v>
@@ -10035,13 +9804,13 @@
         <v>10</v>
       </c>
       <c r="T10" s="33" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="U10" s="33" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="W10" s="33" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="X10" s="11" t="s">
         <v>56</v>
@@ -10491,7 +10260,7 @@
         <v>43</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>44</v>
@@ -10521,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="U16" s="2">
         <v>66</v>
@@ -10565,7 +10334,7 @@
         <v>78</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>44</v>
@@ -10595,10 +10364,10 @@
         <v>1</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>1059</v>
+        <v>1844</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>1059</v>
+        <v>1844</v>
       </c>
       <c r="W17" s="2" t="s">
         <v>46</v>
@@ -10639,7 +10408,7 @@
         <v>78</v>
       </c>
       <c r="J18" s="33" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>44</v>
@@ -10669,10 +10438,10 @@
         <v>2</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>1061</v>
+        <v>1875</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>1061</v>
+        <v>1875</v>
       </c>
       <c r="W18" s="2" t="s">
         <v>46</v>
@@ -10713,7 +10482,7 @@
         <v>78</v>
       </c>
       <c r="J19" s="33" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>44</v>
@@ -10743,10 +10512,10 @@
         <v>3</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>1038</v>
+        <v>1876</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>1063</v>
+        <v>1876</v>
       </c>
       <c r="W19" s="2" t="s">
         <v>46</v>
@@ -10787,7 +10556,7 @@
         <v>78</v>
       </c>
       <c r="J20" s="33" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>44</v>
@@ -10817,10 +10586,10 @@
         <v>4</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>1065</v>
+        <v>1877</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>1066</v>
+        <v>1877</v>
       </c>
       <c r="W20" s="2" t="s">
         <v>46</v>
@@ -10861,7 +10630,7 @@
         <v>78</v>
       </c>
       <c r="J21" s="33" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>44</v>
@@ -10891,10 +10660,10 @@
         <v>5</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>1068</v>
+        <v>1878</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>1068</v>
+        <v>1878</v>
       </c>
       <c r="W21" s="2" t="s">
         <v>46</v>
@@ -10935,7 +10704,7 @@
         <v>78</v>
       </c>
       <c r="J22" s="33" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>44</v>
@@ -10965,10 +10734,10 @@
         <v>6</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>1070</v>
+        <v>1879</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>1070</v>
+        <v>1879</v>
       </c>
       <c r="W22" s="2" t="s">
         <v>46</v>
@@ -11009,7 +10778,7 @@
         <v>78</v>
       </c>
       <c r="J23" s="33" t="s">
-        <v>1071</v>
+        <v>1063</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>44</v>
@@ -11039,10 +10808,10 @@
         <v>7</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>1072</v>
+        <v>1880</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>1072</v>
+        <v>1880</v>
       </c>
       <c r="W23" s="2" t="s">
         <v>46</v>
@@ -11079,25 +10848,25 @@
       <c r="E24" s="46"/>
       <c r="F24" s="11"/>
       <c r="G24" s="2" t="s">
-        <v>1073</v>
+        <v>1064</v>
       </c>
       <c r="H24" s="11">
         <v>19800</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>1074</v>
+        <v>1065</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>1381</v>
+        <v>1369</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>1075</v>
+        <v>1066</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>1076</v>
+        <v>1067</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>1077</v>
+        <v>1068</v>
       </c>
       <c r="N24" s="2">
         <v>1</v>
@@ -11118,16 +10887,16 @@
         <v>6</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>1078</v>
+        <v>1069</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>1078</v>
+        <v>1069</v>
       </c>
       <c r="W24" s="33" t="s">
         <v>1032</v>
       </c>
       <c r="X24" s="3" t="s">
-        <v>1079</v>
+        <v>1070</v>
       </c>
       <c r="Y24" s="11" t="s">
         <v>641</v>
@@ -11178,11 +10947,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN492"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H258" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H204" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H273" sqref="H273"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -11245,13 +11014,13 @@
         <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1141</v>
+        <v>1131</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1163</v>
+        <v>1153</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>83</v>
@@ -14976,7 +14745,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>1142</v>
+        <v>1132</v>
       </c>
       <c r="J66" s="5" t="s">
         <v>944</v>
@@ -15041,7 +14810,7 @@
         <v>223</v>
       </c>
       <c r="H67" s="69" t="s">
-        <v>1809</v>
+        <v>1794</v>
       </c>
       <c r="L67" s="69">
         <v>-4</v>
@@ -15062,7 +14831,7 @@
         <v>78</v>
       </c>
       <c r="R67" s="69" t="s">
-        <v>1382</v>
+        <v>1370</v>
       </c>
       <c r="W67" s="69" t="s">
         <v>525</v>
@@ -15100,7 +14869,7 @@
         <v>225</v>
       </c>
       <c r="H68" s="69" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
       <c r="L68" s="69">
         <v>-4</v>
@@ -15121,7 +14890,7 @@
         <v>78</v>
       </c>
       <c r="R68" s="69" t="s">
-        <v>1420</v>
+        <v>1408</v>
       </c>
       <c r="W68" s="69" t="s">
         <v>525</v>
@@ -15159,7 +14928,7 @@
         <v>227</v>
       </c>
       <c r="H69" s="69" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
       <c r="L69" s="69">
         <v>-4</v>
@@ -15180,7 +14949,7 @@
         <v>78</v>
       </c>
       <c r="R69" s="69" t="s">
-        <v>1383</v>
+        <v>1371</v>
       </c>
       <c r="W69" s="69" t="s">
         <v>525</v>
@@ -15218,7 +14987,7 @@
         <v>229</v>
       </c>
       <c r="H70" s="69" t="s">
-        <v>1812</v>
+        <v>1797</v>
       </c>
       <c r="L70" s="69">
         <v>-4</v>
@@ -15239,7 +15008,7 @@
         <v>78</v>
       </c>
       <c r="R70" s="69" t="s">
-        <v>1384</v>
+        <v>1372</v>
       </c>
       <c r="W70" s="69" t="s">
         <v>525</v>
@@ -15277,7 +15046,7 @@
         <v>230</v>
       </c>
       <c r="H71" s="69" t="s">
-        <v>1813</v>
+        <v>1798</v>
       </c>
       <c r="L71" s="69">
         <v>-4</v>
@@ -15298,7 +15067,7 @@
         <v>78</v>
       </c>
       <c r="R71" s="69" t="s">
-        <v>1385</v>
+        <v>1373</v>
       </c>
       <c r="W71" s="69" t="s">
         <v>525</v>
@@ -15631,7 +15400,7 @@
         <v>236</v>
       </c>
       <c r="J77" s="19" t="s">
-        <v>1740</v>
+        <v>1725</v>
       </c>
       <c r="L77" s="19">
         <v>-20</v>
@@ -15652,7 +15421,7 @@
         <v>488</v>
       </c>
       <c r="R77" s="39" t="s">
-        <v>1728</v>
+        <v>1713</v>
       </c>
       <c r="W77" s="19" t="s">
         <v>525</v>
@@ -15670,10 +15439,10 @@
         <v>78</v>
       </c>
       <c r="AC77" s="19" t="s">
-        <v>1729</v>
+        <v>1714</v>
       </c>
       <c r="AD77" s="39" t="s">
-        <v>1730</v>
+        <v>1715</v>
       </c>
       <c r="AH77" s="19">
         <v>1</v>
@@ -15696,7 +15465,7 @@
         <v>237</v>
       </c>
       <c r="J78" s="19" t="s">
-        <v>1739</v>
+        <v>1724</v>
       </c>
       <c r="L78" s="19">
         <v>-20</v>
@@ -15717,7 +15486,7 @@
         <v>488</v>
       </c>
       <c r="R78" s="39" t="s">
-        <v>1731</v>
+        <v>1716</v>
       </c>
       <c r="W78" s="19" t="s">
         <v>525</v>
@@ -15735,10 +15504,10 @@
         <v>78</v>
       </c>
       <c r="AC78" s="19" t="s">
-        <v>1732</v>
+        <v>1717</v>
       </c>
       <c r="AD78" s="39" t="s">
-        <v>1733</v>
+        <v>1718</v>
       </c>
       <c r="AH78" s="19">
         <v>1</v>
@@ -15758,7 +15527,7 @@
         <v>1</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>1143</v>
+        <v>1133</v>
       </c>
       <c r="J79" s="5" t="s">
         <v>811</v>
@@ -15894,7 +15663,7 @@
         <v>240</v>
       </c>
       <c r="J81" s="19" t="s">
-        <v>1734</v>
+        <v>1719</v>
       </c>
       <c r="L81" s="19">
         <v>-20</v>
@@ -15915,7 +15684,7 @@
         <v>488</v>
       </c>
       <c r="R81" s="39" t="s">
-        <v>1735</v>
+        <v>1720</v>
       </c>
       <c r="W81" s="19" t="s">
         <v>525</v>
@@ -15930,13 +15699,13 @@
         <v>2552233600</v>
       </c>
       <c r="AB81" s="19" t="s">
-        <v>1736</v>
+        <v>1721</v>
       </c>
       <c r="AC81" s="19" t="s">
-        <v>1737</v>
+        <v>1722</v>
       </c>
       <c r="AD81" s="39" t="s">
-        <v>1738</v>
+        <v>1723</v>
       </c>
       <c r="AH81" s="19">
         <v>1</v>
@@ -16145,10 +15914,10 @@
         <v>4800</v>
       </c>
       <c r="Q85" s="5" t="s">
-        <v>1324</v>
+        <v>1313</v>
       </c>
       <c r="R85" s="5" t="s">
-        <v>1327</v>
+        <v>1316</v>
       </c>
       <c r="W85" s="5" t="s">
         <v>527</v>
@@ -16251,10 +16020,10 @@
         <v>9600</v>
       </c>
       <c r="Q87" s="5" t="s">
-        <v>1325</v>
+        <v>1314</v>
       </c>
       <c r="R87" s="5" t="s">
-        <v>1328</v>
+        <v>1317</v>
       </c>
       <c r="W87" s="5" t="s">
         <v>527</v>
@@ -18659,7 +18428,7 @@
         <v>320</v>
       </c>
       <c r="H128" s="69" t="s">
-        <v>1814</v>
+        <v>1799</v>
       </c>
       <c r="L128" s="69">
         <v>-10</v>
@@ -18680,7 +18449,7 @@
         <v>78</v>
       </c>
       <c r="R128" s="69" t="s">
-        <v>1387</v>
+        <v>1375</v>
       </c>
       <c r="W128" s="69" t="s">
         <v>525</v>
@@ -18715,10 +18484,10 @@
         <v>0</v>
       </c>
       <c r="G129" s="69" t="s">
-        <v>1144</v>
+        <v>1134</v>
       </c>
       <c r="H129" s="69" t="s">
-        <v>1815</v>
+        <v>1800</v>
       </c>
       <c r="L129" s="69">
         <v>-11</v>
@@ -18739,7 +18508,7 @@
         <v>78</v>
       </c>
       <c r="R129" s="69" t="s">
-        <v>1386</v>
+        <v>1374</v>
       </c>
       <c r="W129" s="69" t="s">
         <v>525</v>
@@ -19326,7 +19095,7 @@
         <v>1</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>1145</v>
+        <v>1135</v>
       </c>
       <c r="H139" s="8"/>
       <c r="I139" s="8"/>
@@ -19387,7 +19156,7 @@
         <v>1</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>1146</v>
+        <v>1136</v>
       </c>
       <c r="H140" s="8"/>
       <c r="I140" s="8"/>
@@ -21214,7 +20983,7 @@
         <v>1</v>
       </c>
       <c r="G169" s="19" t="s">
-        <v>1147</v>
+        <v>1137</v>
       </c>
       <c r="J169" s="19" t="s">
         <v>993</v>
@@ -21338,13 +21107,13 @@
         <v>1</v>
       </c>
       <c r="G171" s="43" t="s">
-        <v>1741</v>
+        <v>1726</v>
       </c>
       <c r="I171" s="43" t="s">
-        <v>1742</v>
+        <v>1727</v>
       </c>
       <c r="J171" s="43" t="s">
-        <v>1743</v>
+        <v>1728</v>
       </c>
       <c r="L171" s="43">
         <v>-28</v>
@@ -21362,13 +21131,13 @@
         <v>100</v>
       </c>
       <c r="Q171" s="43" t="s">
-        <v>1744</v>
+        <v>1729</v>
       </c>
       <c r="R171" s="66" t="s">
-        <v>1745</v>
+        <v>1730</v>
       </c>
       <c r="W171" s="43" t="s">
-        <v>1746</v>
+        <v>1731</v>
       </c>
       <c r="X171" s="43">
         <v>9999999</v>
@@ -21406,13 +21175,13 @@
         <v>1</v>
       </c>
       <c r="G172" s="43" t="s">
-        <v>1741</v>
+        <v>1726</v>
       </c>
       <c r="I172" s="43" t="s">
-        <v>1164</v>
+        <v>1154</v>
       </c>
       <c r="J172" s="43" t="s">
-        <v>1747</v>
+        <v>1732</v>
       </c>
       <c r="L172" s="43">
         <v>-28</v>
@@ -21430,10 +21199,10 @@
         <v>300</v>
       </c>
       <c r="Q172" s="43" t="s">
-        <v>1744</v>
+        <v>1729</v>
       </c>
       <c r="R172" s="66" t="s">
-        <v>1748</v>
+        <v>1733</v>
       </c>
       <c r="W172" s="43" t="s">
         <v>528</v>
@@ -21474,13 +21243,13 @@
         <v>1</v>
       </c>
       <c r="G173" s="43" t="s">
-        <v>1741</v>
+        <v>1726</v>
       </c>
       <c r="I173" s="43" t="s">
-        <v>1749</v>
+        <v>1734</v>
       </c>
       <c r="J173" s="43" t="s">
-        <v>1750</v>
+        <v>1735</v>
       </c>
       <c r="L173" s="43">
         <v>-28</v>
@@ -21498,10 +21267,10 @@
         <v>600</v>
       </c>
       <c r="Q173" s="43" t="s">
-        <v>1744</v>
+        <v>1729</v>
       </c>
       <c r="R173" s="66" t="s">
-        <v>1751</v>
+        <v>1736</v>
       </c>
       <c r="W173" s="43" t="s">
         <v>528</v>
@@ -21542,13 +21311,13 @@
         <v>1</v>
       </c>
       <c r="G174" s="43" t="s">
-        <v>1741</v>
+        <v>1726</v>
       </c>
       <c r="I174" s="43" t="s">
-        <v>1752</v>
+        <v>1737</v>
       </c>
       <c r="J174" s="43" t="s">
-        <v>1753</v>
+        <v>1738</v>
       </c>
       <c r="L174" s="43">
         <v>-28</v>
@@ -21566,10 +21335,10 @@
         <v>600</v>
       </c>
       <c r="Q174" s="43" t="s">
-        <v>1744</v>
+        <v>1729</v>
       </c>
       <c r="R174" s="66" t="s">
-        <v>1754</v>
+        <v>1739</v>
       </c>
       <c r="W174" s="43" t="s">
         <v>528</v>
@@ -21610,13 +21379,13 @@
         <v>1</v>
       </c>
       <c r="G175" s="43" t="s">
+        <v>1726</v>
+      </c>
+      <c r="I175" s="43" t="s">
+        <v>1740</v>
+      </c>
+      <c r="J175" s="43" t="s">
         <v>1741</v>
-      </c>
-      <c r="I175" s="43" t="s">
-        <v>1755</v>
-      </c>
-      <c r="J175" s="43" t="s">
-        <v>1756</v>
       </c>
       <c r="L175" s="43">
         <v>-28</v>
@@ -21634,10 +21403,10 @@
         <v>1000</v>
       </c>
       <c r="Q175" s="43" t="s">
-        <v>1757</v>
+        <v>1742</v>
       </c>
       <c r="R175" s="66" t="s">
-        <v>1758</v>
+        <v>1743</v>
       </c>
       <c r="W175" s="43" t="s">
         <v>528</v>
@@ -21678,13 +21447,13 @@
         <v>1</v>
       </c>
       <c r="G176" s="43" t="s">
-        <v>1741</v>
+        <v>1726</v>
       </c>
       <c r="I176" s="43" t="s">
-        <v>1759</v>
+        <v>1744</v>
       </c>
       <c r="J176" s="43" t="s">
-        <v>1760</v>
+        <v>1745</v>
       </c>
       <c r="L176" s="43">
         <v>-28</v>
@@ -21702,10 +21471,10 @@
         <v>1800</v>
       </c>
       <c r="Q176" s="43" t="s">
-        <v>1757</v>
+        <v>1742</v>
       </c>
       <c r="R176" s="66" t="s">
-        <v>1761</v>
+        <v>1746</v>
       </c>
       <c r="W176" s="43" t="s">
         <v>528</v>
@@ -21746,13 +21515,13 @@
         <v>1</v>
       </c>
       <c r="G177" s="43" t="s">
-        <v>1741</v>
+        <v>1726</v>
       </c>
       <c r="I177" s="43" t="s">
-        <v>1762</v>
+        <v>1747</v>
       </c>
       <c r="J177" s="43" t="s">
-        <v>1763</v>
+        <v>1748</v>
       </c>
       <c r="L177" s="43">
         <v>-28</v>
@@ -21770,10 +21539,10 @@
         <v>1800</v>
       </c>
       <c r="Q177" s="43" t="s">
-        <v>1757</v>
+        <v>1742</v>
       </c>
       <c r="R177" s="66" t="s">
-        <v>1764</v>
+        <v>1749</v>
       </c>
       <c r="W177" s="43" t="s">
         <v>528</v>
@@ -21814,13 +21583,13 @@
         <v>1</v>
       </c>
       <c r="G178" s="43" t="s">
-        <v>1741</v>
+        <v>1726</v>
       </c>
       <c r="I178" s="43" t="s">
-        <v>1765</v>
+        <v>1750</v>
       </c>
       <c r="J178" s="43" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
       <c r="L178" s="43">
         <v>-28</v>
@@ -21838,10 +21607,10 @@
         <v>4800</v>
       </c>
       <c r="Q178" s="43" t="s">
-        <v>1757</v>
+        <v>1742</v>
       </c>
       <c r="R178" s="66" t="s">
-        <v>1767</v>
+        <v>1752</v>
       </c>
       <c r="W178" s="43" t="s">
         <v>528</v>
@@ -21882,13 +21651,13 @@
         <v>1</v>
       </c>
       <c r="G179" s="43" t="s">
-        <v>1741</v>
+        <v>1726</v>
       </c>
       <c r="I179" s="43" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
       <c r="J179" s="43" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
       <c r="L179" s="43">
         <v>-28</v>
@@ -21906,10 +21675,10 @@
         <v>9800</v>
       </c>
       <c r="Q179" s="43" t="s">
-        <v>1757</v>
+        <v>1742</v>
       </c>
       <c r="R179" s="66" t="s">
-        <v>1770</v>
+        <v>1755</v>
       </c>
       <c r="W179" s="43" t="s">
         <v>528</v>
@@ -21950,13 +21719,13 @@
         <v>1</v>
       </c>
       <c r="G180" s="43" t="s">
-        <v>1741</v>
+        <v>1726</v>
       </c>
       <c r="I180" s="43" t="s">
-        <v>1771</v>
+        <v>1756</v>
       </c>
       <c r="J180" s="43" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
       <c r="L180" s="43">
         <v>-28</v>
@@ -21974,10 +21743,10 @@
         <v>4800</v>
       </c>
       <c r="Q180" s="43" t="s">
-        <v>1757</v>
+        <v>1742</v>
       </c>
       <c r="R180" s="66" t="s">
-        <v>1767</v>
+        <v>1752</v>
       </c>
       <c r="W180" s="43" t="s">
         <v>528</v>
@@ -22018,13 +21787,13 @@
         <v>1</v>
       </c>
       <c r="G181" s="43" t="s">
-        <v>1741</v>
+        <v>1726</v>
       </c>
       <c r="I181" s="43" t="s">
-        <v>1772</v>
+        <v>1757</v>
       </c>
       <c r="J181" s="43" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
       <c r="L181" s="43">
         <v>-28</v>
@@ -22042,10 +21811,10 @@
         <v>9800</v>
       </c>
       <c r="Q181" s="43" t="s">
-        <v>1757</v>
+        <v>1742</v>
       </c>
       <c r="R181" s="66" t="s">
-        <v>1770</v>
+        <v>1755</v>
       </c>
       <c r="W181" s="43" t="s">
         <v>528</v>
@@ -22086,13 +21855,13 @@
         <v>1</v>
       </c>
       <c r="G182" s="43" t="s">
-        <v>1741</v>
+        <v>1726</v>
       </c>
       <c r="I182" s="43" t="s">
-        <v>1773</v>
+        <v>1758</v>
       </c>
       <c r="J182" s="43" t="s">
-        <v>1774</v>
+        <v>1759</v>
       </c>
       <c r="L182" s="43">
         <v>-28</v>
@@ -22110,10 +21879,10 @@
         <v>19800</v>
       </c>
       <c r="Q182" s="43" t="s">
-        <v>1757</v>
+        <v>1742</v>
       </c>
       <c r="R182" s="66" t="s">
-        <v>1775</v>
+        <v>1760</v>
       </c>
       <c r="W182" s="43" t="s">
         <v>528</v>
@@ -22154,13 +21923,13 @@
         <v>1</v>
       </c>
       <c r="G183" s="43" t="s">
-        <v>1741</v>
+        <v>1726</v>
       </c>
       <c r="I183" s="43" t="s">
-        <v>1776</v>
+        <v>1761</v>
       </c>
       <c r="J183" s="43" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
       <c r="L183" s="43">
         <v>-28</v>
@@ -22178,10 +21947,10 @@
         <v>9800</v>
       </c>
       <c r="Q183" s="43" t="s">
-        <v>1757</v>
+        <v>1742</v>
       </c>
       <c r="R183" s="66" t="s">
-        <v>1770</v>
+        <v>1755</v>
       </c>
       <c r="W183" s="43" t="s">
         <v>528</v>
@@ -22222,13 +21991,13 @@
         <v>1</v>
       </c>
       <c r="G184" s="43" t="s">
-        <v>1741</v>
+        <v>1726</v>
       </c>
       <c r="I184" s="43" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
       <c r="J184" s="43" t="s">
-        <v>1774</v>
+        <v>1759</v>
       </c>
       <c r="L184" s="43">
         <v>-28</v>
@@ -22246,10 +22015,10 @@
         <v>19800</v>
       </c>
       <c r="Q184" s="43" t="s">
-        <v>1757</v>
+        <v>1742</v>
       </c>
       <c r="R184" s="66" t="s">
-        <v>1775</v>
+        <v>1760</v>
       </c>
       <c r="W184" s="43" t="s">
         <v>528</v>
@@ -22290,13 +22059,13 @@
         <v>1</v>
       </c>
       <c r="G185" s="43" t="s">
-        <v>1741</v>
+        <v>1726</v>
       </c>
       <c r="I185" s="43" t="s">
-        <v>1778</v>
+        <v>1763</v>
       </c>
       <c r="J185" s="43" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
       <c r="L185" s="43">
         <v>-28</v>
@@ -22314,10 +22083,10 @@
         <v>49800</v>
       </c>
       <c r="Q185" s="43" t="s">
-        <v>1757</v>
+        <v>1742</v>
       </c>
       <c r="R185" s="66" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
       <c r="W185" s="43" t="s">
         <v>528</v>
@@ -26777,7 +26546,7 @@
         <v>1</v>
       </c>
       <c r="G254" s="5" t="s">
-        <v>1148</v>
+        <v>1138</v>
       </c>
       <c r="J254" s="5" t="s">
         <v>934</v>
@@ -26972,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="G257" s="5" t="s">
-        <v>1149</v>
+        <v>1139</v>
       </c>
       <c r="J257" s="5" t="s">
         <v>869</v>
@@ -27495,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="G265" s="5" t="s">
-        <v>1150</v>
+        <v>1140</v>
       </c>
       <c r="J265" s="5" t="s">
         <v>875</v>
@@ -27755,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="G269" s="5" t="s">
-        <v>1151</v>
+        <v>1141</v>
       </c>
       <c r="J269" s="5" t="s">
         <v>877</v>
@@ -28021,7 +27790,7 @@
         <v>521</v>
       </c>
       <c r="H273" s="74" t="s">
-        <v>1888</v>
+        <v>1873</v>
       </c>
       <c r="L273" s="69">
         <v>-10</v>
@@ -28042,7 +27811,7 @@
         <v>78</v>
       </c>
       <c r="R273" s="69" t="s">
-        <v>1388</v>
+        <v>1376</v>
       </c>
       <c r="W273" s="69" t="s">
         <v>525</v>
@@ -28281,7 +28050,7 @@
         <v>0</v>
       </c>
       <c r="G277" s="5" t="s">
-        <v>1152</v>
+        <v>1142</v>
       </c>
       <c r="J277" s="5" t="s">
         <v>881</v>
@@ -28346,7 +28115,7 @@
         <v>0</v>
       </c>
       <c r="G278" s="5" t="s">
-        <v>1153</v>
+        <v>1143</v>
       </c>
       <c r="J278" s="5" t="s">
         <v>882</v>
@@ -28411,7 +28180,7 @@
         <v>0</v>
       </c>
       <c r="G279" s="5" t="s">
-        <v>1154</v>
+        <v>1144</v>
       </c>
       <c r="J279" s="5" t="s">
         <v>883</v>
@@ -28476,7 +28245,7 @@
         <v>0</v>
       </c>
       <c r="G280" s="5" t="s">
-        <v>1155</v>
+        <v>1145</v>
       </c>
       <c r="J280" s="5" t="s">
         <v>880</v>
@@ -30965,10 +30734,10 @@
         <v>1</v>
       </c>
       <c r="G320" s="5" t="s">
-        <v>1156</v>
+        <v>1146</v>
       </c>
       <c r="J320" s="5" t="s">
-        <v>1326</v>
+        <v>1315</v>
       </c>
       <c r="L320" s="5">
         <v>-25</v>
@@ -31021,7 +30790,7 @@
         <v>1</v>
       </c>
       <c r="G321" s="5" t="s">
-        <v>1157</v>
+        <v>1147</v>
       </c>
       <c r="J321" s="5" t="s">
         <v>907</v>
@@ -31083,7 +30852,7 @@
         <v>1</v>
       </c>
       <c r="G322" s="5" t="s">
-        <v>1158</v>
+        <v>1148</v>
       </c>
       <c r="J322" s="5" t="s">
         <v>624</v>
@@ -31145,10 +30914,10 @@
         <v>1</v>
       </c>
       <c r="G323" s="43" t="s">
-        <v>1781</v>
+        <v>1766</v>
       </c>
       <c r="J323" s="43" t="s">
-        <v>1782</v>
+        <v>1767</v>
       </c>
       <c r="L323" s="43">
         <v>-28</v>
@@ -31166,13 +30935,13 @@
         <v>600</v>
       </c>
       <c r="Q323" s="43" t="s">
-        <v>1783</v>
+        <v>1768</v>
       </c>
       <c r="R323" s="66" t="s">
-        <v>1784</v>
+        <v>1769</v>
       </c>
       <c r="W323" s="43" t="s">
-        <v>1785</v>
+        <v>1770</v>
       </c>
       <c r="X323" s="43">
         <v>9999999</v>
@@ -31210,10 +30979,10 @@
         <v>1</v>
       </c>
       <c r="G324" s="43" t="s">
-        <v>1786</v>
+        <v>1771</v>
       </c>
       <c r="J324" s="43" t="s">
-        <v>1787</v>
+        <v>1772</v>
       </c>
       <c r="L324" s="43">
         <v>-28</v>
@@ -31231,10 +31000,10 @@
         <v>4800</v>
       </c>
       <c r="Q324" s="43" t="s">
-        <v>1788</v>
+        <v>1773</v>
       </c>
       <c r="R324" s="66" t="s">
-        <v>1789</v>
+        <v>1774</v>
       </c>
       <c r="W324" s="43" t="s">
         <v>528</v>
@@ -31275,10 +31044,10 @@
         <v>1</v>
       </c>
       <c r="G325" s="43" t="s">
-        <v>1790</v>
+        <v>1775</v>
       </c>
       <c r="J325" s="43" t="s">
-        <v>1791</v>
+        <v>1776</v>
       </c>
       <c r="L325" s="43">
         <v>-28</v>
@@ -31296,10 +31065,10 @@
         <v>9800</v>
       </c>
       <c r="Q325" s="43" t="s">
-        <v>1783</v>
+        <v>1768</v>
       </c>
       <c r="R325" s="66" t="s">
-        <v>1792</v>
+        <v>1777</v>
       </c>
       <c r="W325" s="43" t="s">
         <v>528</v>
@@ -31340,7 +31109,7 @@
         <v>1</v>
       </c>
       <c r="G326" s="40" t="s">
-        <v>1159</v>
+        <v>1149</v>
       </c>
       <c r="J326" s="40" t="s">
         <v>968</v>
@@ -31399,7 +31168,7 @@
         <v>1</v>
       </c>
       <c r="G327" s="43" t="s">
-        <v>1160</v>
+        <v>1150</v>
       </c>
       <c r="J327" s="43" t="s">
         <v>986</v>
@@ -31464,12 +31233,12 @@
         <v>1</v>
       </c>
       <c r="G328" s="43" t="s">
-        <v>1662</v>
+        <v>1647</v>
       </c>
       <c r="H328" s="43"/>
       <c r="I328" s="43"/>
       <c r="J328" s="43" t="s">
-        <v>1663</v>
+        <v>1648</v>
       </c>
       <c r="K328" s="43"/>
       <c r="L328" s="43">
@@ -31482,13 +31251,13 @@
         <v>0</v>
       </c>
       <c r="O328" s="43" t="s">
-        <v>1664</v>
+        <v>1649</v>
       </c>
       <c r="P328" s="43">
         <v>600</v>
       </c>
       <c r="Q328" s="43" t="s">
-        <v>1665</v>
+        <v>1650</v>
       </c>
       <c r="R328" s="66" t="s">
         <v>987</v>
@@ -31498,7 +31267,7 @@
       <c r="U328" s="43"/>
       <c r="V328" s="43"/>
       <c r="W328" s="43" t="s">
-        <v>1666</v>
+        <v>1651</v>
       </c>
       <c r="X328" s="43">
         <v>99999999</v>
@@ -31552,7 +31321,7 @@
       <c r="H329" s="43"/>
       <c r="I329" s="43"/>
       <c r="J329" s="43" t="s">
-        <v>1667</v>
+        <v>1652</v>
       </c>
       <c r="K329" s="43"/>
       <c r="L329" s="43">
@@ -31565,23 +31334,23 @@
         <v>0</v>
       </c>
       <c r="O329" s="43" t="s">
-        <v>1664</v>
+        <v>1649</v>
       </c>
       <c r="P329" s="43">
         <v>2800</v>
       </c>
       <c r="Q329" s="43" t="s">
-        <v>1668</v>
+        <v>1653</v>
       </c>
       <c r="R329" s="66" t="s">
-        <v>1669</v>
+        <v>1654</v>
       </c>
       <c r="S329" s="43"/>
       <c r="T329" s="43"/>
       <c r="U329" s="43"/>
       <c r="V329" s="43"/>
       <c r="W329" s="43" t="s">
-        <v>1666</v>
+        <v>1651</v>
       </c>
       <c r="X329" s="43">
         <v>99999999</v>
@@ -31635,7 +31404,7 @@
       <c r="H330" s="43"/>
       <c r="I330" s="43"/>
       <c r="J330" s="43" t="s">
-        <v>1670</v>
+        <v>1655</v>
       </c>
       <c r="K330" s="43"/>
       <c r="L330" s="43">
@@ -31648,23 +31417,23 @@
         <v>0</v>
       </c>
       <c r="O330" s="43" t="s">
-        <v>1664</v>
+        <v>1649</v>
       </c>
       <c r="P330" s="43">
         <v>4800</v>
       </c>
       <c r="Q330" s="43" t="s">
-        <v>1671</v>
+        <v>1656</v>
       </c>
       <c r="R330" s="66" t="s">
-        <v>1672</v>
+        <v>1657</v>
       </c>
       <c r="S330" s="43"/>
       <c r="T330" s="43"/>
       <c r="U330" s="43"/>
       <c r="V330" s="43"/>
       <c r="W330" s="43" t="s">
-        <v>1666</v>
+        <v>1651</v>
       </c>
       <c r="X330" s="43">
         <v>99999999</v>
@@ -31718,7 +31487,7 @@
       <c r="H331" s="43"/>
       <c r="I331" s="43"/>
       <c r="J331" s="43" t="s">
-        <v>1673</v>
+        <v>1658</v>
       </c>
       <c r="K331" s="43"/>
       <c r="L331" s="43">
@@ -31731,23 +31500,23 @@
         <v>0</v>
       </c>
       <c r="O331" s="43" t="s">
-        <v>1664</v>
+        <v>1649</v>
       </c>
       <c r="P331" s="43">
         <v>9900</v>
       </c>
       <c r="Q331" s="43" t="s">
-        <v>1671</v>
+        <v>1656</v>
       </c>
       <c r="R331" s="66" t="s">
-        <v>1674</v>
+        <v>1659</v>
       </c>
       <c r="S331" s="43"/>
       <c r="T331" s="43"/>
       <c r="U331" s="43"/>
       <c r="V331" s="43"/>
       <c r="W331" s="43" t="s">
-        <v>1666</v>
+        <v>1651</v>
       </c>
       <c r="X331" s="43">
         <v>99999999</v>
@@ -31801,7 +31570,7 @@
       <c r="H332" s="43"/>
       <c r="I332" s="43"/>
       <c r="J332" s="43" t="s">
-        <v>1675</v>
+        <v>1660</v>
       </c>
       <c r="K332" s="43"/>
       <c r="L332" s="43">
@@ -31820,17 +31589,17 @@
         <v>19800</v>
       </c>
       <c r="Q332" s="43" t="s">
-        <v>1671</v>
+        <v>1656</v>
       </c>
       <c r="R332" s="66" t="s">
-        <v>1676</v>
+        <v>1661</v>
       </c>
       <c r="S332" s="43"/>
       <c r="T332" s="43"/>
       <c r="U332" s="43"/>
       <c r="V332" s="43"/>
       <c r="W332" s="43" t="s">
-        <v>1666</v>
+        <v>1651</v>
       </c>
       <c r="X332" s="43">
         <v>99999999</v>
@@ -31884,7 +31653,7 @@
       <c r="H333" s="43"/>
       <c r="I333" s="43"/>
       <c r="J333" s="43" t="s">
-        <v>1661</v>
+        <v>1646</v>
       </c>
       <c r="K333" s="43"/>
       <c r="L333" s="43">
@@ -31897,23 +31666,23 @@
         <v>0</v>
       </c>
       <c r="O333" s="43" t="s">
-        <v>1664</v>
+        <v>1649</v>
       </c>
       <c r="P333" s="43">
         <v>29800</v>
       </c>
       <c r="Q333" s="43" t="s">
-        <v>1671</v>
+        <v>1656</v>
       </c>
       <c r="R333" s="66" t="s">
-        <v>1677</v>
+        <v>1662</v>
       </c>
       <c r="S333" s="43"/>
       <c r="T333" s="43"/>
       <c r="U333" s="43"/>
       <c r="V333" s="43"/>
       <c r="W333" s="43" t="s">
-        <v>1666</v>
+        <v>1651</v>
       </c>
       <c r="X333" s="43">
         <v>99999999</v>
@@ -31967,7 +31736,7 @@
       <c r="H334" s="43"/>
       <c r="I334" s="43"/>
       <c r="J334" s="43" t="s">
-        <v>1678</v>
+        <v>1663</v>
       </c>
       <c r="K334" s="43"/>
       <c r="L334" s="43">
@@ -31980,23 +31749,23 @@
         <v>0</v>
       </c>
       <c r="O334" s="43" t="s">
-        <v>1679</v>
+        <v>1664</v>
       </c>
       <c r="P334" s="43">
         <v>39800</v>
       </c>
       <c r="Q334" s="43" t="s">
-        <v>1671</v>
+        <v>1656</v>
       </c>
       <c r="R334" s="66" t="s">
-        <v>1680</v>
+        <v>1665</v>
       </c>
       <c r="S334" s="43"/>
       <c r="T334" s="43"/>
       <c r="U334" s="43"/>
       <c r="V334" s="43"/>
       <c r="W334" s="43" t="s">
-        <v>1681</v>
+        <v>1666</v>
       </c>
       <c r="X334" s="43">
         <v>99999999</v>
@@ -32050,7 +31819,7 @@
       <c r="H335" s="43"/>
       <c r="I335" s="43"/>
       <c r="J335" s="43" t="s">
-        <v>1682</v>
+        <v>1667</v>
       </c>
       <c r="K335" s="43"/>
       <c r="L335" s="43">
@@ -32063,23 +31832,23 @@
         <v>0</v>
       </c>
       <c r="O335" s="43" t="s">
-        <v>1660</v>
+        <v>1645</v>
       </c>
       <c r="P335" s="43">
         <v>49800</v>
       </c>
       <c r="Q335" s="43" t="s">
-        <v>1671</v>
+        <v>1656</v>
       </c>
       <c r="R335" s="66" t="s">
-        <v>1683</v>
+        <v>1668</v>
       </c>
       <c r="S335" s="43"/>
       <c r="T335" s="43"/>
       <c r="U335" s="43"/>
       <c r="V335" s="43"/>
       <c r="W335" s="43" t="s">
-        <v>1666</v>
+        <v>1651</v>
       </c>
       <c r="X335" s="43">
         <v>99999999</v>
@@ -32133,7 +31902,7 @@
       <c r="H336" s="43"/>
       <c r="I336" s="43"/>
       <c r="J336" s="43" t="s">
-        <v>1684</v>
+        <v>1669</v>
       </c>
       <c r="K336" s="43"/>
       <c r="L336" s="43">
@@ -32146,23 +31915,23 @@
         <v>0</v>
       </c>
       <c r="O336" s="43" t="s">
-        <v>1664</v>
+        <v>1649</v>
       </c>
       <c r="P336" s="43">
         <v>59800</v>
       </c>
       <c r="Q336" s="43" t="s">
-        <v>1671</v>
+        <v>1656</v>
       </c>
       <c r="R336" s="66" t="s">
-        <v>1685</v>
+        <v>1670</v>
       </c>
       <c r="S336" s="43"/>
       <c r="T336" s="43"/>
       <c r="U336" s="43"/>
       <c r="V336" s="43"/>
       <c r="W336" s="43" t="s">
-        <v>1686</v>
+        <v>1671</v>
       </c>
       <c r="X336" s="43">
         <v>99999999</v>
@@ -32216,7 +31985,7 @@
       <c r="H337" s="43"/>
       <c r="I337" s="43"/>
       <c r="J337" s="43" t="s">
-        <v>1687</v>
+        <v>1672</v>
       </c>
       <c r="K337" s="43"/>
       <c r="L337" s="43">
@@ -32229,23 +31998,23 @@
         <v>0</v>
       </c>
       <c r="O337" s="43" t="s">
-        <v>1664</v>
+        <v>1649</v>
       </c>
       <c r="P337" s="43">
         <v>69800</v>
       </c>
       <c r="Q337" s="43" t="s">
-        <v>1659</v>
+        <v>1644</v>
       </c>
       <c r="R337" s="66" t="s">
-        <v>1688</v>
+        <v>1673</v>
       </c>
       <c r="S337" s="43"/>
       <c r="T337" s="43"/>
       <c r="U337" s="43"/>
       <c r="V337" s="43"/>
       <c r="W337" s="43" t="s">
-        <v>1681</v>
+        <v>1666</v>
       </c>
       <c r="X337" s="43">
         <v>99999999</v>
@@ -32291,7 +32060,7 @@
         <v>1</v>
       </c>
       <c r="G338" s="19" t="s">
-        <v>1161</v>
+        <v>1151</v>
       </c>
       <c r="J338" s="19" t="s">
         <v>1005</v>
@@ -32447,7 +32216,7 @@
         <v>1</v>
       </c>
       <c r="G340" s="19" t="s">
-        <v>1162</v>
+        <v>1152</v>
       </c>
       <c r="H340" s="19"/>
       <c r="I340" s="19"/>
@@ -32529,12 +32298,12 @@
         <v>1</v>
       </c>
       <c r="G341" s="6" t="s">
-        <v>1165</v>
+        <v>1155</v>
       </c>
       <c r="H341" s="6"/>
       <c r="I341" s="6"/>
       <c r="J341" s="5" t="s">
-        <v>1166</v>
+        <v>1156</v>
       </c>
       <c r="L341" s="5">
         <v>-31</v>
@@ -32546,19 +32315,19 @@
         <v>0</v>
       </c>
       <c r="O341" s="5" t="s">
-        <v>1167</v>
+        <v>1157</v>
       </c>
       <c r="P341" s="5">
         <v>600</v>
       </c>
       <c r="Q341" s="5" t="s">
-        <v>1168</v>
+        <v>1158</v>
       </c>
       <c r="R341" s="10" t="s">
-        <v>1169</v>
+        <v>1159</v>
       </c>
       <c r="W341" s="5" t="s">
-        <v>1170</v>
+        <v>1160</v>
       </c>
       <c r="X341" s="5">
         <v>9999999</v>
@@ -32573,10 +32342,10 @@
         <v>26</v>
       </c>
       <c r="AB341" s="5" t="s">
-        <v>1171</v>
+        <v>1161</v>
       </c>
       <c r="AC341" s="5" t="s">
-        <v>1172</v>
+        <v>1162</v>
       </c>
       <c r="AH341" s="5">
         <v>1</v>
@@ -32602,10 +32371,10 @@
         <v>1</v>
       </c>
       <c r="G342" s="6" t="s">
-        <v>1173</v>
+        <v>1163</v>
       </c>
       <c r="J342" s="5" t="s">
-        <v>1174</v>
+        <v>1164</v>
       </c>
       <c r="L342" s="5">
         <v>-31</v>
@@ -32617,19 +32386,19 @@
         <v>0</v>
       </c>
       <c r="O342" s="5" t="s">
-        <v>1167</v>
+        <v>1157</v>
       </c>
       <c r="P342" s="5">
         <v>600</v>
       </c>
       <c r="Q342" s="5" t="s">
-        <v>1168</v>
+        <v>1158</v>
       </c>
       <c r="R342" s="10" t="s">
-        <v>1092</v>
+        <v>1083</v>
       </c>
       <c r="W342" s="5" t="s">
-        <v>1170</v>
+        <v>1160</v>
       </c>
       <c r="X342" s="5">
         <v>9999999</v>
@@ -32644,10 +32413,10 @@
         <v>27</v>
       </c>
       <c r="AB342" s="5" t="s">
-        <v>1171</v>
+        <v>1161</v>
       </c>
       <c r="AC342" s="5" t="s">
-        <v>1175</v>
+        <v>1165</v>
       </c>
       <c r="AH342" s="5">
         <v>1</v>
@@ -32673,10 +32442,10 @@
         <v>1</v>
       </c>
       <c r="G343" s="6" t="s">
-        <v>1176</v>
+        <v>1166</v>
       </c>
       <c r="J343" s="5" t="s">
-        <v>1177</v>
+        <v>1167</v>
       </c>
       <c r="L343" s="5">
         <v>-31</v>
@@ -32688,19 +32457,19 @@
         <v>0</v>
       </c>
       <c r="O343" s="5" t="s">
-        <v>1167</v>
+        <v>1157</v>
       </c>
       <c r="P343" s="5">
         <v>600</v>
       </c>
       <c r="Q343" s="5" t="s">
-        <v>1168</v>
+        <v>1158</v>
       </c>
       <c r="R343" s="10" t="s">
-        <v>1093</v>
+        <v>1084</v>
       </c>
       <c r="W343" s="5" t="s">
-        <v>1170</v>
+        <v>1160</v>
       </c>
       <c r="X343" s="5">
         <v>9999999</v>
@@ -32715,10 +32484,10 @@
         <v>28</v>
       </c>
       <c r="AB343" s="5" t="s">
-        <v>1171</v>
+        <v>1161</v>
       </c>
       <c r="AC343" s="5" t="s">
-        <v>1178</v>
+        <v>1168</v>
       </c>
       <c r="AH343" s="5">
         <v>1</v>
@@ -32744,10 +32513,10 @@
         <v>1</v>
       </c>
       <c r="G344" s="6" t="s">
-        <v>1179</v>
+        <v>1169</v>
       </c>
       <c r="J344" s="5" t="s">
-        <v>1180</v>
+        <v>1170</v>
       </c>
       <c r="L344" s="5">
         <v>-31</v>
@@ -32759,19 +32528,19 @@
         <v>0</v>
       </c>
       <c r="O344" s="5" t="s">
-        <v>1167</v>
+        <v>1157</v>
       </c>
       <c r="P344" s="5">
         <v>4800</v>
       </c>
       <c r="Q344" s="5" t="s">
-        <v>1168</v>
+        <v>1158</v>
       </c>
       <c r="R344" s="10" t="s">
-        <v>1181</v>
+        <v>1171</v>
       </c>
       <c r="W344" s="5" t="s">
-        <v>1170</v>
+        <v>1160</v>
       </c>
       <c r="X344" s="5">
         <v>9999999</v>
@@ -32786,10 +32555,10 @@
         <v>29</v>
       </c>
       <c r="AB344" s="5" t="s">
-        <v>1171</v>
+        <v>1161</v>
       </c>
       <c r="AC344" s="5" t="s">
-        <v>1182</v>
+        <v>1172</v>
       </c>
       <c r="AH344" s="5">
         <v>1</v>
@@ -32815,10 +32584,10 @@
         <v>1</v>
       </c>
       <c r="G345" s="6" t="s">
-        <v>1094</v>
+        <v>1085</v>
       </c>
       <c r="J345" s="5" t="s">
-        <v>1183</v>
+        <v>1173</v>
       </c>
       <c r="L345" s="5">
         <v>-31</v>
@@ -32830,19 +32599,19 @@
         <v>0</v>
       </c>
       <c r="O345" s="5" t="s">
-        <v>1167</v>
+        <v>1157</v>
       </c>
       <c r="P345" s="5">
         <v>4800</v>
       </c>
       <c r="Q345" s="5" t="s">
-        <v>1168</v>
+        <v>1158</v>
       </c>
       <c r="R345" s="10" t="s">
-        <v>1095</v>
+        <v>1086</v>
       </c>
       <c r="W345" s="5" t="s">
-        <v>1170</v>
+        <v>1160</v>
       </c>
       <c r="X345" s="5">
         <v>9999999</v>
@@ -32857,10 +32626,10 @@
         <v>30</v>
       </c>
       <c r="AB345" s="5" t="s">
-        <v>1171</v>
+        <v>1161</v>
       </c>
       <c r="AC345" s="5" t="s">
-        <v>1184</v>
+        <v>1174</v>
       </c>
       <c r="AH345" s="5">
         <v>1</v>
@@ -32886,10 +32655,10 @@
         <v>1</v>
       </c>
       <c r="G346" s="6" t="s">
-        <v>1096</v>
+        <v>1087</v>
       </c>
       <c r="J346" s="5" t="s">
-        <v>1185</v>
+        <v>1175</v>
       </c>
       <c r="L346" s="5">
         <v>-31</v>
@@ -32901,19 +32670,19 @@
         <v>0</v>
       </c>
       <c r="O346" s="5" t="s">
-        <v>1167</v>
+        <v>1157</v>
       </c>
       <c r="P346" s="5">
         <v>4800</v>
       </c>
       <c r="Q346" s="5" t="s">
-        <v>1168</v>
+        <v>1158</v>
       </c>
       <c r="R346" s="10" t="s">
-        <v>1097</v>
+        <v>1088</v>
       </c>
       <c r="W346" s="5" t="s">
-        <v>1170</v>
+        <v>1160</v>
       </c>
       <c r="X346" s="5">
         <v>9999999</v>
@@ -32928,10 +32697,10 @@
         <v>31</v>
       </c>
       <c r="AB346" s="5" t="s">
-        <v>1171</v>
+        <v>1161</v>
       </c>
       <c r="AC346" s="5" t="s">
-        <v>1186</v>
+        <v>1176</v>
       </c>
       <c r="AH346" s="5">
         <v>1</v>
@@ -32957,10 +32726,10 @@
         <v>1</v>
       </c>
       <c r="G347" s="6" t="s">
-        <v>1098</v>
+        <v>1089</v>
       </c>
       <c r="J347" s="5" t="s">
-        <v>1187</v>
+        <v>1177</v>
       </c>
       <c r="L347" s="5">
         <v>-31</v>
@@ -32972,19 +32741,19 @@
         <v>0</v>
       </c>
       <c r="O347" s="5" t="s">
-        <v>1167</v>
+        <v>1157</v>
       </c>
       <c r="P347" s="5">
         <v>9800</v>
       </c>
       <c r="Q347" s="5" t="s">
-        <v>1168</v>
+        <v>1158</v>
       </c>
       <c r="R347" s="10" t="s">
-        <v>1188</v>
+        <v>1178</v>
       </c>
       <c r="W347" s="5" t="s">
-        <v>1170</v>
+        <v>1160</v>
       </c>
       <c r="X347" s="5">
         <v>9999999</v>
@@ -32999,10 +32768,10 @@
         <v>32</v>
       </c>
       <c r="AB347" s="5" t="s">
-        <v>1171</v>
+        <v>1161</v>
       </c>
       <c r="AC347" s="5" t="s">
-        <v>1189</v>
+        <v>1179</v>
       </c>
       <c r="AH347" s="5">
         <v>1</v>
@@ -33028,10 +32797,10 @@
         <v>1</v>
       </c>
       <c r="G348" s="6" t="s">
-        <v>1099</v>
+        <v>1090</v>
       </c>
       <c r="J348" s="5" t="s">
-        <v>1190</v>
+        <v>1180</v>
       </c>
       <c r="L348" s="5">
         <v>-31</v>
@@ -33043,19 +32812,19 @@
         <v>0</v>
       </c>
       <c r="O348" s="5" t="s">
-        <v>1167</v>
+        <v>1157</v>
       </c>
       <c r="P348" s="5">
         <v>9800</v>
       </c>
       <c r="Q348" s="5" t="s">
-        <v>1168</v>
+        <v>1158</v>
       </c>
       <c r="R348" s="10" t="s">
-        <v>1191</v>
+        <v>1181</v>
       </c>
       <c r="W348" s="5" t="s">
-        <v>1170</v>
+        <v>1160</v>
       </c>
       <c r="X348" s="5">
         <v>9999999</v>
@@ -33070,10 +32839,10 @@
         <v>33</v>
       </c>
       <c r="AB348" s="5" t="s">
-        <v>1171</v>
+        <v>1161</v>
       </c>
       <c r="AC348" s="5" t="s">
-        <v>1192</v>
+        <v>1182</v>
       </c>
       <c r="AH348" s="5">
         <v>1</v>
@@ -33099,10 +32868,10 @@
         <v>1</v>
       </c>
       <c r="G349" s="6" t="s">
-        <v>1100</v>
+        <v>1091</v>
       </c>
       <c r="J349" s="5" t="s">
-        <v>1193</v>
+        <v>1183</v>
       </c>
       <c r="L349" s="5">
         <v>-31</v>
@@ -33120,13 +32889,13 @@
         <v>9800</v>
       </c>
       <c r="Q349" s="5" t="s">
-        <v>1168</v>
+        <v>1158</v>
       </c>
       <c r="R349" s="10" t="s">
-        <v>1194</v>
+        <v>1184</v>
       </c>
       <c r="W349" s="5" t="s">
-        <v>1170</v>
+        <v>1160</v>
       </c>
       <c r="X349" s="5">
         <v>9999999</v>
@@ -33141,10 +32910,10 @@
         <v>34</v>
       </c>
       <c r="AB349" s="5" t="s">
-        <v>1171</v>
+        <v>1161</v>
       </c>
       <c r="AC349" s="5" t="s">
-        <v>1101</v>
+        <v>1092</v>
       </c>
       <c r="AH349" s="5">
         <v>1</v>
@@ -33170,10 +32939,10 @@
         <v>1</v>
       </c>
       <c r="G350" s="6" t="s">
-        <v>1102</v>
+        <v>1093</v>
       </c>
       <c r="J350" s="5" t="s">
-        <v>1195</v>
+        <v>1185</v>
       </c>
       <c r="L350" s="5">
         <v>-31</v>
@@ -33194,10 +32963,10 @@
         <v>965</v>
       </c>
       <c r="R350" s="10" t="s">
-        <v>1196</v>
+        <v>1186</v>
       </c>
       <c r="W350" s="5" t="s">
-        <v>1170</v>
+        <v>1160</v>
       </c>
       <c r="X350" s="5">
         <v>9999999</v>
@@ -33215,7 +32984,7 @@
         <v>446</v>
       </c>
       <c r="AC350" s="5" t="s">
-        <v>1197</v>
+        <v>1187</v>
       </c>
       <c r="AH350" s="5">
         <v>1</v>
@@ -33241,10 +33010,10 @@
         <v>1</v>
       </c>
       <c r="G351" s="6" t="s">
-        <v>1103</v>
+        <v>1094</v>
       </c>
       <c r="J351" s="5" t="s">
-        <v>1198</v>
+        <v>1188</v>
       </c>
       <c r="L351" s="5">
         <v>-31</v>
@@ -33256,7 +33025,7 @@
         <v>0</v>
       </c>
       <c r="O351" s="5" t="s">
-        <v>1167</v>
+        <v>1157</v>
       </c>
       <c r="P351" s="5">
         <v>19800</v>
@@ -33265,10 +33034,10 @@
         <v>965</v>
       </c>
       <c r="R351" s="10" t="s">
-        <v>1104</v>
+        <v>1095</v>
       </c>
       <c r="W351" s="5" t="s">
-        <v>1170</v>
+        <v>1160</v>
       </c>
       <c r="X351" s="5">
         <v>9999999</v>
@@ -33286,7 +33055,7 @@
         <v>446</v>
       </c>
       <c r="AC351" s="5" t="s">
-        <v>1199</v>
+        <v>1189</v>
       </c>
       <c r="AH351" s="5">
         <v>1</v>
@@ -33312,10 +33081,10 @@
         <v>1</v>
       </c>
       <c r="G352" s="6" t="s">
-        <v>1105</v>
+        <v>1096</v>
       </c>
       <c r="J352" s="5" t="s">
-        <v>1106</v>
+        <v>1097</v>
       </c>
       <c r="L352" s="5">
         <v>-31</v>
@@ -33336,7 +33105,7 @@
         <v>965</v>
       </c>
       <c r="R352" s="10" t="s">
-        <v>1200</v>
+        <v>1190</v>
       </c>
       <c r="W352" s="5" t="s">
         <v>567</v>
@@ -33354,10 +33123,10 @@
         <v>37</v>
       </c>
       <c r="AB352" s="5" t="s">
-        <v>1171</v>
+        <v>1161</v>
       </c>
       <c r="AC352" s="5" t="s">
-        <v>1107</v>
+        <v>1098</v>
       </c>
       <c r="AH352" s="5">
         <v>1</v>
@@ -33383,13 +33152,13 @@
         <v>0</v>
       </c>
       <c r="G353" s="5" t="s">
-        <v>1201</v>
+        <v>1191</v>
       </c>
       <c r="I353" s="5" t="s">
-        <v>1109</v>
+        <v>1100</v>
       </c>
       <c r="J353" s="5" t="s">
-        <v>1110</v>
+        <v>1874</v>
       </c>
       <c r="L353" s="5">
         <v>-31</v>
@@ -33407,13 +33176,13 @@
         <v>600</v>
       </c>
       <c r="Q353" s="5" t="s">
-        <v>1202</v>
+        <v>1192</v>
       </c>
       <c r="R353" s="10" t="s">
-        <v>1203</v>
+        <v>1193</v>
       </c>
       <c r="W353" s="5" t="s">
-        <v>1204</v>
+        <v>1194</v>
       </c>
       <c r="X353" s="5">
         <v>9999999</v>
@@ -33451,13 +33220,13 @@
         <v>0</v>
       </c>
       <c r="G354" s="5" t="s">
-        <v>1205</v>
+        <v>1195</v>
       </c>
       <c r="I354" s="5" t="s">
-        <v>1109</v>
+        <v>1100</v>
       </c>
       <c r="J354" s="5" t="s">
-        <v>1206</v>
+        <v>1874</v>
       </c>
       <c r="L354" s="5">
         <v>-31</v>
@@ -33469,19 +33238,19 @@
         <v>0</v>
       </c>
       <c r="O354" s="5" t="s">
-        <v>1167</v>
+        <v>1157</v>
       </c>
       <c r="P354" s="5">
         <v>1200</v>
       </c>
       <c r="Q354" s="5" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="R354" s="10" t="s">
-        <v>1203</v>
+        <v>1193</v>
       </c>
       <c r="W354" s="5" t="s">
-        <v>1204</v>
+        <v>1194</v>
       </c>
       <c r="X354" s="5">
         <v>9999999</v>
@@ -33519,13 +33288,13 @@
         <v>0</v>
       </c>
       <c r="G355" s="5" t="s">
-        <v>1207</v>
+        <v>1196</v>
       </c>
       <c r="I355" s="5" t="s">
-        <v>1208</v>
+        <v>1197</v>
       </c>
       <c r="J355" s="5" t="s">
-        <v>1110</v>
+        <v>1874</v>
       </c>
       <c r="L355" s="5">
         <v>-31</v>
@@ -33537,16 +33306,16 @@
         <v>0</v>
       </c>
       <c r="O355" s="5" t="s">
-        <v>1167</v>
+        <v>1157</v>
       </c>
       <c r="P355" s="5">
         <v>1800</v>
       </c>
       <c r="Q355" s="5" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="R355" s="10" t="s">
-        <v>1111</v>
+        <v>1101</v>
       </c>
       <c r="W355" s="5" t="s">
         <v>596</v>
@@ -33587,13 +33356,13 @@
         <v>0</v>
       </c>
       <c r="G356" s="5" t="s">
-        <v>1108</v>
+        <v>1099</v>
       </c>
       <c r="I356" s="5" t="s">
-        <v>1116</v>
+        <v>1106</v>
       </c>
       <c r="J356" s="5" t="s">
-        <v>1110</v>
+        <v>1874</v>
       </c>
       <c r="L356" s="5">
         <v>-31</v>
@@ -33611,13 +33380,13 @@
         <v>4800</v>
       </c>
       <c r="Q356" s="5" t="s">
-        <v>1117</v>
+        <v>1107</v>
       </c>
       <c r="R356" s="10" t="s">
         <v>272</v>
       </c>
       <c r="W356" s="5" t="s">
-        <v>1118</v>
+        <v>1108</v>
       </c>
       <c r="X356" s="5">
         <v>9999999</v>
@@ -33655,13 +33424,13 @@
         <v>0</v>
       </c>
       <c r="G357" s="5" t="s">
-        <v>1205</v>
+        <v>1195</v>
       </c>
       <c r="I357" s="5" t="s">
-        <v>1116</v>
+        <v>1106</v>
       </c>
       <c r="J357" s="5" t="s">
-        <v>1110</v>
+        <v>1874</v>
       </c>
       <c r="L357" s="5">
         <v>-31</v>
@@ -33673,19 +33442,19 @@
         <v>0</v>
       </c>
       <c r="O357" s="5" t="s">
-        <v>1167</v>
+        <v>1157</v>
       </c>
       <c r="P357" s="5">
         <v>9800</v>
       </c>
       <c r="Q357" s="5" t="s">
-        <v>1119</v>
+        <v>1109</v>
       </c>
       <c r="R357" s="10" t="s">
         <v>272</v>
       </c>
       <c r="W357" s="5" t="s">
-        <v>1118</v>
+        <v>1108</v>
       </c>
       <c r="X357" s="5">
         <v>9999999</v>
@@ -33723,13 +33492,13 @@
         <v>0</v>
       </c>
       <c r="G358" s="5" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="I358" s="5" t="s">
-        <v>1116</v>
+        <v>1106</v>
       </c>
       <c r="J358" s="5" t="s">
-        <v>1206</v>
+        <v>1874</v>
       </c>
       <c r="L358" s="5">
         <v>-31</v>
@@ -33741,13 +33510,13 @@
         <v>0</v>
       </c>
       <c r="O358" s="5" t="s">
-        <v>1167</v>
+        <v>1157</v>
       </c>
       <c r="P358" s="5">
         <v>19800</v>
       </c>
       <c r="Q358" s="5" t="s">
-        <v>1120</v>
+        <v>1110</v>
       </c>
       <c r="R358" s="10" t="s">
         <v>272</v>
@@ -33791,13 +33560,13 @@
         <v>0</v>
       </c>
       <c r="G359" s="5" t="s">
-        <v>1108</v>
+        <v>1099</v>
       </c>
       <c r="I359" s="5" t="s">
-        <v>1121</v>
+        <v>1111</v>
       </c>
       <c r="J359" s="5" t="s">
-        <v>1206</v>
+        <v>1874</v>
       </c>
       <c r="L359" s="5">
         <v>-31</v>
@@ -33809,19 +33578,19 @@
         <v>0</v>
       </c>
       <c r="O359" s="5" t="s">
-        <v>1167</v>
+        <v>1157</v>
       </c>
       <c r="P359" s="5">
         <v>9800</v>
       </c>
       <c r="Q359" s="5" t="s">
-        <v>1122</v>
+        <v>1112</v>
       </c>
       <c r="R359" s="10" t="s">
         <v>272</v>
       </c>
       <c r="W359" s="5" t="s">
-        <v>1118</v>
+        <v>1108</v>
       </c>
       <c r="X359" s="5">
         <v>9999999</v>
@@ -33859,13 +33628,13 @@
         <v>0</v>
       </c>
       <c r="G360" s="5" t="s">
-        <v>1112</v>
+        <v>1102</v>
       </c>
       <c r="I360" s="5" t="s">
-        <v>1121</v>
+        <v>1111</v>
       </c>
       <c r="J360" s="5" t="s">
-        <v>1206</v>
+        <v>1874</v>
       </c>
       <c r="L360" s="5">
         <v>-31</v>
@@ -33877,19 +33646,19 @@
         <v>0</v>
       </c>
       <c r="O360" s="5" t="s">
-        <v>1167</v>
+        <v>1157</v>
       </c>
       <c r="P360" s="5">
         <v>19800</v>
       </c>
       <c r="Q360" s="5" t="s">
-        <v>1123</v>
+        <v>1113</v>
       </c>
       <c r="R360" s="10" t="s">
         <v>272</v>
       </c>
       <c r="W360" s="5" t="s">
-        <v>1118</v>
+        <v>1108</v>
       </c>
       <c r="X360" s="5">
         <v>9999999</v>
@@ -33927,13 +33696,13 @@
         <v>0</v>
       </c>
       <c r="G361" s="5" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="I361" s="5" t="s">
-        <v>1121</v>
+        <v>1111</v>
       </c>
       <c r="J361" s="5" t="s">
-        <v>1206</v>
+        <v>1874</v>
       </c>
       <c r="L361" s="5">
         <v>-31</v>
@@ -33945,19 +33714,19 @@
         <v>0</v>
       </c>
       <c r="O361" s="5" t="s">
-        <v>1167</v>
+        <v>1157</v>
       </c>
       <c r="P361" s="5">
         <v>49800</v>
       </c>
       <c r="Q361" s="5" t="s">
-        <v>1124</v>
+        <v>1114</v>
       </c>
       <c r="R361" s="10" t="s">
         <v>272</v>
       </c>
       <c r="W361" s="5" t="s">
-        <v>1209</v>
+        <v>1198</v>
       </c>
       <c r="X361" s="5">
         <v>9999999</v>
@@ -33995,13 +33764,13 @@
         <v>0</v>
       </c>
       <c r="G362" s="5" t="s">
-        <v>1207</v>
+        <v>1196</v>
       </c>
       <c r="I362" s="5" t="s">
-        <v>1109</v>
+        <v>1100</v>
       </c>
       <c r="J362" s="5" t="s">
-        <v>1206</v>
+        <v>1874</v>
       </c>
       <c r="L362" s="5">
         <v>-31</v>
@@ -34019,10 +33788,10 @@
         <v>1800</v>
       </c>
       <c r="Q362" s="5" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="R362" s="10" t="s">
-        <v>1203</v>
+        <v>1193</v>
       </c>
       <c r="W362" s="5" t="s">
         <v>567</v>
@@ -34040,10 +33809,10 @@
         <v>38</v>
       </c>
       <c r="AB362" s="5" t="s">
-        <v>1210</v>
+        <v>1199</v>
       </c>
       <c r="AC362" s="5" t="s">
-        <v>1126</v>
+        <v>1116</v>
       </c>
       <c r="AH362" s="5">
         <v>1</v>
@@ -34069,13 +33838,13 @@
         <v>0</v>
       </c>
       <c r="G363" s="5" t="s">
-        <v>1207</v>
+        <v>1196</v>
       </c>
       <c r="I363" s="5" t="s">
-        <v>1127</v>
+        <v>1117</v>
       </c>
       <c r="J363" s="5" t="s">
-        <v>1206</v>
+        <v>1874</v>
       </c>
       <c r="L363" s="5">
         <v>-31</v>
@@ -34087,19 +33856,19 @@
         <v>0</v>
       </c>
       <c r="O363" s="5" t="s">
-        <v>1167</v>
+        <v>1157</v>
       </c>
       <c r="P363" s="5">
         <v>19800</v>
       </c>
       <c r="Q363" s="5" t="s">
-        <v>1120</v>
+        <v>1110</v>
       </c>
       <c r="R363" s="10" t="s">
         <v>272</v>
       </c>
       <c r="W363" s="5" t="s">
-        <v>1170</v>
+        <v>1160</v>
       </c>
       <c r="X363" s="5">
         <v>9999999</v>
@@ -34114,10 +33883,10 @@
         <v>39</v>
       </c>
       <c r="AB363" s="5" t="s">
-        <v>1210</v>
+        <v>1199</v>
       </c>
       <c r="AC363" s="5" t="s">
-        <v>1128</v>
+        <v>1118</v>
       </c>
       <c r="AH363" s="5">
         <v>1</v>
@@ -34143,13 +33912,13 @@
         <v>0</v>
       </c>
       <c r="G364" s="5" t="s">
-        <v>1207</v>
+        <v>1196</v>
       </c>
       <c r="I364" s="5" t="s">
-        <v>1121</v>
+        <v>1111</v>
       </c>
       <c r="J364" s="5" t="s">
-        <v>1110</v>
+        <v>1874</v>
       </c>
       <c r="L364" s="5">
         <v>-31</v>
@@ -34161,19 +33930,19 @@
         <v>0</v>
       </c>
       <c r="O364" s="5" t="s">
-        <v>1167</v>
+        <v>1157</v>
       </c>
       <c r="P364" s="5">
         <v>49800</v>
       </c>
       <c r="Q364" s="5" t="s">
-        <v>1124</v>
+        <v>1114</v>
       </c>
       <c r="R364" s="10" t="s">
         <v>272</v>
       </c>
       <c r="W364" s="5" t="s">
-        <v>1170</v>
+        <v>1160</v>
       </c>
       <c r="X364" s="5">
         <v>9999999</v>
@@ -34188,10 +33957,10 @@
         <v>40</v>
       </c>
       <c r="AB364" s="5" t="s">
-        <v>1125</v>
+        <v>1115</v>
       </c>
       <c r="AC364" s="5" t="s">
-        <v>1211</v>
+        <v>1200</v>
       </c>
       <c r="AH364" s="5">
         <v>1</v>
@@ -34217,10 +33986,10 @@
         <v>1</v>
       </c>
       <c r="G365" s="5" t="s">
-        <v>1212</v>
+        <v>1201</v>
       </c>
       <c r="J365" s="5" t="s">
-        <v>1129</v>
+        <v>1119</v>
       </c>
       <c r="L365" s="5">
         <v>-31</v>
@@ -34232,16 +34001,16 @@
         <v>0</v>
       </c>
       <c r="O365" s="5" t="s">
-        <v>1167</v>
+        <v>1157</v>
       </c>
       <c r="P365" s="5">
         <v>131400</v>
       </c>
       <c r="Q365" s="5" t="s">
-        <v>1213</v>
+        <v>1202</v>
       </c>
       <c r="R365" s="10" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="W365" s="5" t="s">
         <v>567</v>
@@ -34282,10 +34051,10 @@
         <v>1</v>
       </c>
       <c r="G366" s="5" t="s">
-        <v>1215</v>
+        <v>1204</v>
       </c>
       <c r="J366" s="5" t="s">
-        <v>1216</v>
+        <v>1205</v>
       </c>
       <c r="L366" s="5">
         <v>-31</v>
@@ -34297,16 +34066,16 @@
         <v>0</v>
       </c>
       <c r="O366" s="5" t="s">
-        <v>1167</v>
+        <v>1157</v>
       </c>
       <c r="P366" s="5">
         <v>52000</v>
       </c>
       <c r="Q366" s="5" t="s">
-        <v>1130</v>
+        <v>1120</v>
       </c>
       <c r="R366" s="10" t="s">
-        <v>1217</v>
+        <v>1206</v>
       </c>
       <c r="W366" s="5" t="s">
         <v>567</v>
@@ -34347,10 +34116,10 @@
         <v>1</v>
       </c>
       <c r="G367" s="5" t="s">
-        <v>1218</v>
+        <v>1207</v>
       </c>
       <c r="J367" s="5" t="s">
-        <v>1131</v>
+        <v>1121</v>
       </c>
       <c r="L367" s="5">
         <v>-31</v>
@@ -34362,19 +34131,19 @@
         <v>0</v>
       </c>
       <c r="O367" s="5" t="s">
-        <v>1167</v>
+        <v>1157</v>
       </c>
       <c r="P367" s="5">
         <v>25800</v>
       </c>
       <c r="Q367" s="5" t="s">
-        <v>1130</v>
+        <v>1120</v>
       </c>
       <c r="R367" s="10" t="s">
-        <v>1219</v>
+        <v>1208</v>
       </c>
       <c r="W367" s="5" t="s">
-        <v>1170</v>
+        <v>1160</v>
       </c>
       <c r="X367" s="5">
         <v>9999999</v>
@@ -34412,10 +34181,10 @@
         <v>1</v>
       </c>
       <c r="G368" s="5" t="s">
-        <v>1220</v>
+        <v>1209</v>
       </c>
       <c r="J368" s="5" t="s">
-        <v>1132</v>
+        <v>1122</v>
       </c>
       <c r="L368" s="5">
         <v>-31</v>
@@ -34427,16 +34196,16 @@
         <v>0</v>
       </c>
       <c r="O368" s="5" t="s">
-        <v>1167</v>
+        <v>1157</v>
       </c>
       <c r="P368" s="5">
         <v>14700</v>
       </c>
       <c r="Q368" s="5" t="s">
-        <v>1213</v>
+        <v>1202</v>
       </c>
       <c r="R368" s="10" t="s">
-        <v>1221</v>
+        <v>1210</v>
       </c>
       <c r="W368" s="5" t="s">
         <v>567</v>
@@ -34477,10 +34246,10 @@
         <v>1</v>
       </c>
       <c r="G369" s="5" t="s">
-        <v>1222</v>
+        <v>1211</v>
       </c>
       <c r="J369" s="5" t="s">
-        <v>1133</v>
+        <v>1123</v>
       </c>
       <c r="L369" s="5">
         <v>-31</v>
@@ -34498,13 +34267,13 @@
         <v>5200</v>
       </c>
       <c r="Q369" s="5" t="s">
-        <v>1130</v>
+        <v>1120</v>
       </c>
       <c r="R369" s="10" t="s">
-        <v>1134</v>
+        <v>1124</v>
       </c>
       <c r="W369" s="5" t="s">
-        <v>1170</v>
+        <v>1160</v>
       </c>
       <c r="X369" s="5">
         <v>9999999</v>
@@ -34542,10 +34311,10 @@
         <v>1</v>
       </c>
       <c r="G370" s="5" t="s">
-        <v>1135</v>
+        <v>1125</v>
       </c>
       <c r="J370" s="5" t="s">
-        <v>1223</v>
+        <v>1212</v>
       </c>
       <c r="L370" s="5">
         <v>-31</v>
@@ -34563,7 +34332,7 @@
         <v>1800</v>
       </c>
       <c r="Q370" s="5" t="s">
-        <v>1224</v>
+        <v>1213</v>
       </c>
       <c r="R370" s="10" t="s">
         <v>732</v>
@@ -34604,10 +34373,10 @@
         <v>1</v>
       </c>
       <c r="G371" s="5" t="s">
-        <v>1225</v>
+        <v>1214</v>
       </c>
       <c r="J371" s="5" t="s">
-        <v>1136</v>
+        <v>1126</v>
       </c>
       <c r="L371" s="5">
         <v>-31</v>
@@ -34625,10 +34394,10 @@
         <v>4800</v>
       </c>
       <c r="Q371" s="5" t="s">
-        <v>1224</v>
+        <v>1213</v>
       </c>
       <c r="R371" s="10" t="s">
-        <v>1226</v>
+        <v>1215</v>
       </c>
       <c r="W371" s="5" t="s">
         <v>597</v>
@@ -34666,10 +34435,10 @@
         <v>1</v>
       </c>
       <c r="G372" s="5" t="s">
-        <v>1137</v>
+        <v>1127</v>
       </c>
       <c r="J372" s="5" t="s">
-        <v>1227</v>
+        <v>1216</v>
       </c>
       <c r="L372" s="5">
         <v>-31</v>
@@ -34687,7 +34456,7 @@
         <v>9800</v>
       </c>
       <c r="Q372" s="5" t="s">
-        <v>1224</v>
+        <v>1213</v>
       </c>
       <c r="R372" s="10" t="s">
         <v>736</v>
@@ -34728,10 +34497,10 @@
         <v>1</v>
       </c>
       <c r="G373" s="5" t="s">
-        <v>1138</v>
+        <v>1128</v>
       </c>
       <c r="J373" s="5" t="s">
-        <v>1228</v>
+        <v>1217</v>
       </c>
       <c r="L373" s="5">
         <v>-31</v>
@@ -34749,13 +34518,13 @@
         <v>19800</v>
       </c>
       <c r="Q373" s="5" t="s">
-        <v>1224</v>
+        <v>1213</v>
       </c>
       <c r="R373" s="10" t="s">
         <v>737</v>
       </c>
       <c r="W373" s="5" t="s">
-        <v>1229</v>
+        <v>1218</v>
       </c>
       <c r="X373" s="5">
         <v>9999999</v>
@@ -34790,13 +34559,13 @@
         <v>1</v>
       </c>
       <c r="G374" s="5" t="s">
-        <v>1139</v>
+        <v>1129</v>
       </c>
       <c r="I374" s="5" t="s">
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="J374" s="5" t="s">
-        <v>1380</v>
+        <v>879</v>
       </c>
       <c r="L374" s="5">
         <v>-31</v>
@@ -34808,7 +34577,7 @@
         <v>0</v>
       </c>
       <c r="O374" s="5" t="s">
-        <v>1167</v>
+        <v>1157</v>
       </c>
       <c r="P374" s="5">
         <v>600</v>
@@ -34817,7 +34586,7 @@
         <v>524</v>
       </c>
       <c r="R374" s="10" t="s">
-        <v>1169</v>
+        <v>1159</v>
       </c>
       <c r="W374" s="5" t="s">
         <v>567</v>
@@ -34858,13 +34627,13 @@
         <v>1</v>
       </c>
       <c r="G375" s="5" t="s">
-        <v>1246</v>
+        <v>1235</v>
       </c>
       <c r="I375" s="5" t="s">
-        <v>1247</v>
+        <v>1236</v>
       </c>
       <c r="J375" s="5" t="s">
-        <v>1248</v>
+        <v>1237</v>
       </c>
       <c r="L375" s="5">
         <v>-31</v>
@@ -34876,19 +34645,19 @@
         <v>0</v>
       </c>
       <c r="O375" s="5" t="s">
-        <v>1249</v>
+        <v>1238</v>
       </c>
       <c r="P375" s="5">
         <v>300</v>
       </c>
       <c r="Q375" s="5" t="s">
-        <v>1250</v>
+        <v>1239</v>
       </c>
       <c r="R375" s="10" t="s">
-        <v>1251</v>
+        <v>1240</v>
       </c>
       <c r="W375" s="5" t="s">
-        <v>1252</v>
+        <v>1241</v>
       </c>
       <c r="X375" s="5">
         <v>9999999</v>
@@ -34926,13 +34695,13 @@
         <v>1</v>
       </c>
       <c r="G376" s="5" t="s">
-        <v>1254</v>
+        <v>1243</v>
       </c>
       <c r="I376" s="5" t="s">
-        <v>1256</v>
+        <v>1245</v>
       </c>
       <c r="J376" s="5" t="s">
-        <v>1257</v>
+        <v>1246</v>
       </c>
       <c r="L376" s="5">
         <v>-31</v>
@@ -34944,19 +34713,19 @@
         <v>0</v>
       </c>
       <c r="O376" s="5" t="s">
+        <v>1238</v>
+      </c>
+      <c r="P376" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q376" s="5" t="s">
+        <v>1248</v>
+      </c>
+      <c r="R376" s="10" t="s">
         <v>1249</v>
       </c>
-      <c r="P376" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q376" s="5" t="s">
-        <v>1259</v>
-      </c>
-      <c r="R376" s="10" t="s">
-        <v>1260</v>
-      </c>
       <c r="W376" s="5" t="s">
-        <v>1261</v>
+        <v>1250</v>
       </c>
       <c r="X376" s="5">
         <v>9999999</v>
@@ -34994,10 +34763,10 @@
         <v>1</v>
       </c>
       <c r="G377" s="5" t="s">
-        <v>1254</v>
+        <v>1243</v>
       </c>
       <c r="I377" s="5" t="s">
-        <v>1256</v>
+        <v>1245</v>
       </c>
       <c r="J377" s="5" t="s">
         <v>971</v>
@@ -35012,19 +34781,19 @@
         <v>0</v>
       </c>
       <c r="O377" s="5" t="s">
-        <v>1249</v>
+        <v>1238</v>
       </c>
       <c r="P377" s="5">
         <v>300</v>
       </c>
       <c r="Q377" s="5" t="s">
-        <v>1258</v>
+        <v>1247</v>
       </c>
       <c r="R377" s="10" t="s">
-        <v>1262</v>
+        <v>1251</v>
       </c>
       <c r="W377" s="5" t="s">
-        <v>1252</v>
+        <v>1241</v>
       </c>
       <c r="X377" s="5">
         <v>9999999</v>
@@ -35062,13 +34831,13 @@
         <v>1</v>
       </c>
       <c r="G378" s="5" t="s">
-        <v>1254</v>
+        <v>1243</v>
       </c>
       <c r="I378" s="5" t="s">
-        <v>1255</v>
+        <v>1244</v>
       </c>
       <c r="J378" s="5" t="s">
-        <v>1263</v>
+        <v>1252</v>
       </c>
       <c r="L378" s="5">
         <v>-31</v>
@@ -35086,13 +34855,13 @@
         <v>600</v>
       </c>
       <c r="Q378" s="5" t="s">
-        <v>1259</v>
+        <v>1248</v>
       </c>
       <c r="R378" s="10" t="s">
-        <v>1264</v>
+        <v>1253</v>
       </c>
       <c r="W378" s="5" t="s">
-        <v>1265</v>
+        <v>1254</v>
       </c>
       <c r="X378" s="5">
         <v>9999999</v>
@@ -35130,10 +34899,10 @@
         <v>1</v>
       </c>
       <c r="G379" s="5" t="s">
-        <v>1253</v>
+        <v>1242</v>
       </c>
       <c r="I379" s="5" t="s">
-        <v>1256</v>
+        <v>1245</v>
       </c>
       <c r="J379" s="5" t="s">
         <v>882</v>
@@ -35148,19 +34917,19 @@
         <v>0</v>
       </c>
       <c r="O379" s="5" t="s">
-        <v>1249</v>
+        <v>1238</v>
       </c>
       <c r="P379" s="5">
         <v>1800</v>
       </c>
       <c r="Q379" s="5" t="s">
-        <v>1259</v>
+        <v>1248</v>
       </c>
       <c r="R379" s="10" t="s">
-        <v>1277</v>
+        <v>1266</v>
       </c>
       <c r="W379" s="5" t="s">
-        <v>1266</v>
+        <v>1255</v>
       </c>
       <c r="X379" s="5">
         <v>9999999</v>
@@ -35198,10 +34967,10 @@
         <v>1</v>
       </c>
       <c r="G380" s="5" t="s">
-        <v>1253</v>
+        <v>1242</v>
       </c>
       <c r="I380" s="5" t="s">
-        <v>1255</v>
+        <v>1244</v>
       </c>
       <c r="J380" s="5" t="s">
         <v>883</v>
@@ -35216,19 +34985,19 @@
         <v>0</v>
       </c>
       <c r="O380" s="5" t="s">
-        <v>1249</v>
+        <v>1238</v>
       </c>
       <c r="P380" s="5">
         <v>4800</v>
       </c>
       <c r="Q380" s="5" t="s">
-        <v>1259</v>
+        <v>1248</v>
       </c>
       <c r="R380" s="10" t="s">
-        <v>1278</v>
+        <v>1267</v>
       </c>
       <c r="W380" s="5" t="s">
-        <v>1267</v>
+        <v>1256</v>
       </c>
       <c r="X380" s="5">
         <v>9999999</v>
@@ -35266,13 +35035,13 @@
         <v>1</v>
       </c>
       <c r="G381" s="5" t="s">
-        <v>1254</v>
+        <v>1243</v>
       </c>
       <c r="I381" s="5" t="s">
-        <v>1268</v>
+        <v>1257</v>
       </c>
       <c r="J381" s="5" t="s">
-        <v>1257</v>
+        <v>1246</v>
       </c>
       <c r="L381" s="5">
         <v>-31</v>
@@ -35290,10 +35059,10 @@
         <v>0</v>
       </c>
       <c r="Q381" s="5" t="s">
-        <v>1259</v>
+        <v>1248</v>
       </c>
       <c r="R381" s="10" t="s">
-        <v>1260</v>
+        <v>1249</v>
       </c>
       <c r="W381" s="5" t="s">
         <v>569</v>
@@ -35334,13 +35103,13 @@
         <v>1</v>
       </c>
       <c r="G382" s="5" t="s">
-        <v>1253</v>
+        <v>1242</v>
       </c>
       <c r="I382" s="5" t="s">
-        <v>1268</v>
+        <v>1257</v>
       </c>
       <c r="J382" s="5" t="s">
-        <v>1223</v>
+        <v>1212</v>
       </c>
       <c r="L382" s="5">
         <v>-31</v>
@@ -35358,13 +35127,13 @@
         <v>1800</v>
       </c>
       <c r="Q382" s="5" t="s">
+        <v>1247</v>
+      </c>
+      <c r="R382" s="10" t="s">
         <v>1258</v>
       </c>
-      <c r="R382" s="10" t="s">
-        <v>1269</v>
-      </c>
       <c r="W382" s="5" t="s">
-        <v>1252</v>
+        <v>1241</v>
       </c>
       <c r="X382" s="5">
         <v>9999999</v>
@@ -35402,13 +35171,13 @@
         <v>1</v>
       </c>
       <c r="G383" s="5" t="s">
-        <v>1254</v>
+        <v>1243</v>
       </c>
       <c r="I383" s="5" t="s">
-        <v>1268</v>
+        <v>1257</v>
       </c>
       <c r="J383" s="5" t="s">
-        <v>1270</v>
+        <v>1259</v>
       </c>
       <c r="L383" s="5">
         <v>-31</v>
@@ -35426,10 +35195,10 @@
         <v>4800</v>
       </c>
       <c r="Q383" s="5" t="s">
-        <v>1259</v>
+        <v>1248</v>
       </c>
       <c r="R383" s="10" t="s">
-        <v>1271</v>
+        <v>1260</v>
       </c>
       <c r="W383" s="5" t="s">
         <v>535</v>
@@ -35470,13 +35239,13 @@
         <v>1</v>
       </c>
       <c r="G384" s="5" t="s">
-        <v>1253</v>
+        <v>1242</v>
       </c>
       <c r="I384" s="5" t="s">
-        <v>1268</v>
+        <v>1257</v>
       </c>
       <c r="J384" s="5" t="s">
-        <v>1272</v>
+        <v>1261</v>
       </c>
       <c r="L384" s="5">
         <v>-31</v>
@@ -35488,13 +35257,13 @@
         <v>0</v>
       </c>
       <c r="O384" s="5" t="s">
-        <v>1249</v>
+        <v>1238</v>
       </c>
       <c r="P384" s="5">
         <v>9800</v>
       </c>
       <c r="Q384" s="5" t="s">
-        <v>1259</v>
+        <v>1248</v>
       </c>
       <c r="R384" s="10" t="s">
         <v>736</v>
@@ -35538,13 +35307,13 @@
         <v>1</v>
       </c>
       <c r="G385" s="5" t="s">
-        <v>1254</v>
+        <v>1243</v>
       </c>
       <c r="I385" s="5" t="s">
-        <v>1268</v>
+        <v>1257</v>
       </c>
       <c r="J385" s="5" t="s">
-        <v>1273</v>
+        <v>1262</v>
       </c>
       <c r="L385" s="5">
         <v>-31</v>
@@ -35556,19 +35325,19 @@
         <v>0</v>
       </c>
       <c r="O385" s="5" t="s">
-        <v>1249</v>
+        <v>1238</v>
       </c>
       <c r="P385" s="5">
         <v>19800</v>
       </c>
       <c r="Q385" s="5" t="s">
-        <v>1258</v>
+        <v>1247</v>
       </c>
       <c r="R385" s="10" t="s">
-        <v>1274</v>
+        <v>1263</v>
       </c>
       <c r="W385" s="5" t="s">
-        <v>1267</v>
+        <v>1256</v>
       </c>
       <c r="X385" s="5">
         <v>9999999</v>
@@ -35606,14 +35375,14 @@
         <v>1</v>
       </c>
       <c r="G386" s="19" t="s">
-        <v>1279</v>
+        <v>1268</v>
       </c>
       <c r="H386" s="49"/>
       <c r="I386" s="19" t="s">
-        <v>1280</v>
+        <v>1269</v>
       </c>
       <c r="J386" s="19" t="s">
-        <v>1281</v>
+        <v>1270</v>
       </c>
       <c r="L386" s="19">
         <v>-31</v>
@@ -35631,10 +35400,10 @@
         <v>1800</v>
       </c>
       <c r="Q386" s="19" t="s">
-        <v>1282</v>
+        <v>1271</v>
       </c>
       <c r="R386" s="39" t="s">
-        <v>1283</v>
+        <v>1272</v>
       </c>
       <c r="W386" s="19" t="s">
         <v>535</v>
@@ -35675,14 +35444,14 @@
         <v>1</v>
       </c>
       <c r="G387" s="19" t="s">
-        <v>1284</v>
+        <v>1273</v>
       </c>
       <c r="H387" s="49"/>
       <c r="I387" s="19" t="s">
-        <v>1285</v>
+        <v>1274</v>
       </c>
       <c r="J387" s="19" t="s">
-        <v>1286</v>
+        <v>1275</v>
       </c>
       <c r="L387" s="19">
         <v>-31</v>
@@ -35694,16 +35463,16 @@
         <v>0</v>
       </c>
       <c r="O387" s="19" t="s">
-        <v>1287</v>
+        <v>1276</v>
       </c>
       <c r="P387" s="19">
         <v>3000</v>
       </c>
       <c r="Q387" s="19" t="s">
-        <v>1288</v>
+        <v>1277</v>
       </c>
       <c r="R387" s="39" t="s">
-        <v>1289</v>
+        <v>1278</v>
       </c>
       <c r="W387" s="19" t="s">
         <v>535</v>
@@ -35744,14 +35513,14 @@
         <v>1</v>
       </c>
       <c r="G388" s="19" t="s">
-        <v>1290</v>
+        <v>1279</v>
       </c>
       <c r="H388" s="49"/>
       <c r="I388" s="19" t="s">
-        <v>1291</v>
+        <v>1280</v>
       </c>
       <c r="J388" s="19" t="s">
-        <v>1292</v>
+        <v>1281</v>
       </c>
       <c r="L388" s="19">
         <v>-31</v>
@@ -35763,19 +35532,19 @@
         <v>0</v>
       </c>
       <c r="O388" s="19" t="s">
-        <v>1293</v>
+        <v>1282</v>
       </c>
       <c r="P388" s="19">
         <v>4800</v>
       </c>
       <c r="Q388" s="19" t="s">
-        <v>1294</v>
+        <v>1283</v>
       </c>
       <c r="R388" s="39" t="s">
-        <v>1295</v>
+        <v>1284</v>
       </c>
       <c r="W388" s="19" t="s">
-        <v>1296</v>
+        <v>1285</v>
       </c>
       <c r="X388" s="19">
         <v>9999999</v>
@@ -35813,14 +35582,14 @@
         <v>1</v>
       </c>
       <c r="G389" s="19" t="s">
-        <v>1297</v>
+        <v>1286</v>
       </c>
       <c r="H389" s="65"/>
       <c r="I389" s="19" t="s">
-        <v>1298</v>
+        <v>1287</v>
       </c>
       <c r="J389" s="19" t="s">
-        <v>1299</v>
+        <v>1288</v>
       </c>
       <c r="L389" s="19">
         <v>-31</v>
@@ -35832,16 +35601,16 @@
         <v>0</v>
       </c>
       <c r="O389" s="19" t="s">
-        <v>1300</v>
+        <v>1289</v>
       </c>
       <c r="P389" s="19">
         <v>4800</v>
       </c>
       <c r="Q389" s="19" t="s">
-        <v>1301</v>
+        <v>1290</v>
       </c>
       <c r="R389" s="39" t="s">
-        <v>1295</v>
+        <v>1284</v>
       </c>
       <c r="W389" s="19" t="s">
         <v>535</v>
@@ -35882,14 +35651,14 @@
         <v>1</v>
       </c>
       <c r="G390" s="19" t="s">
-        <v>1284</v>
+        <v>1273</v>
       </c>
       <c r="H390" s="65"/>
       <c r="I390" s="19" t="s">
-        <v>1127</v>
+        <v>1117</v>
       </c>
       <c r="J390" s="19" t="s">
-        <v>1302</v>
+        <v>1291</v>
       </c>
       <c r="L390" s="19">
         <v>-31</v>
@@ -35907,10 +35676,10 @@
         <v>9800</v>
       </c>
       <c r="Q390" s="19" t="s">
-        <v>1303</v>
+        <v>1292</v>
       </c>
       <c r="R390" s="39" t="s">
-        <v>1304</v>
+        <v>1293</v>
       </c>
       <c r="W390" s="19" t="s">
         <v>535</v>
@@ -35951,14 +35720,14 @@
         <v>1</v>
       </c>
       <c r="G391" s="19" t="s">
-        <v>1305</v>
+        <v>1294</v>
       </c>
       <c r="H391" s="65"/>
       <c r="I391" s="19" t="s">
-        <v>1298</v>
+        <v>1287</v>
       </c>
       <c r="J391" s="19" t="s">
-        <v>1306</v>
+        <v>1295</v>
       </c>
       <c r="L391" s="19">
         <v>-31</v>
@@ -35976,10 +35745,10 @@
         <v>19800</v>
       </c>
       <c r="Q391" s="19" t="s">
-        <v>1307</v>
+        <v>1296</v>
       </c>
       <c r="R391" s="39" t="s">
-        <v>1308</v>
+        <v>1297</v>
       </c>
       <c r="W391" s="19" t="s">
         <v>535</v>
@@ -36020,14 +35789,14 @@
         <v>1</v>
       </c>
       <c r="G392" s="19" t="s">
-        <v>1279</v>
+        <v>1268</v>
       </c>
       <c r="H392" s="49"/>
       <c r="I392" s="19" t="s">
-        <v>1309</v>
+        <v>1298</v>
       </c>
       <c r="J392" s="19" t="s">
-        <v>1310</v>
+        <v>1299</v>
       </c>
       <c r="L392" s="19">
         <v>-31</v>
@@ -36045,10 +35814,10 @@
         <v>9800</v>
       </c>
       <c r="Q392" s="19" t="s">
-        <v>1311</v>
+        <v>1300</v>
       </c>
       <c r="R392" s="39" t="s">
-        <v>1312</v>
+        <v>1301</v>
       </c>
       <c r="W392" s="19" t="s">
         <v>535</v>
@@ -36089,14 +35858,14 @@
         <v>1</v>
       </c>
       <c r="G393" s="19" t="s">
-        <v>1284</v>
+        <v>1273</v>
       </c>
       <c r="H393" s="49"/>
       <c r="I393" s="19" t="s">
-        <v>1313</v>
+        <v>1302</v>
       </c>
       <c r="J393" s="19" t="s">
-        <v>1314</v>
+        <v>1303</v>
       </c>
       <c r="L393" s="19">
         <v>-31</v>
@@ -36114,10 +35883,10 @@
         <v>19800</v>
       </c>
       <c r="Q393" s="19" t="s">
-        <v>1315</v>
+        <v>1304</v>
       </c>
       <c r="R393" s="39" t="s">
-        <v>1308</v>
+        <v>1297</v>
       </c>
       <c r="W393" s="19" t="s">
         <v>535</v>
@@ -36158,14 +35927,14 @@
         <v>1</v>
       </c>
       <c r="G394" s="19" t="s">
-        <v>1290</v>
+        <v>1279</v>
       </c>
       <c r="H394" s="49"/>
       <c r="I394" s="19" t="s">
-        <v>1316</v>
+        <v>1305</v>
       </c>
       <c r="J394" s="19" t="s">
-        <v>1317</v>
+        <v>1306</v>
       </c>
       <c r="L394" s="19">
         <v>-31</v>
@@ -36177,16 +35946,16 @@
         <v>0</v>
       </c>
       <c r="O394" s="19" t="s">
-        <v>1318</v>
+        <v>1307</v>
       </c>
       <c r="P394" s="19">
         <v>49800</v>
       </c>
       <c r="Q394" s="19" t="s">
-        <v>1319</v>
+        <v>1308</v>
       </c>
       <c r="R394" s="39" t="s">
-        <v>1320</v>
+        <v>1309</v>
       </c>
       <c r="W394" s="19" t="s">
         <v>535</v>
@@ -36227,10 +35996,10 @@
         <v>1</v>
       </c>
       <c r="G395" s="5" t="s">
-        <v>1329</v>
+        <v>1318</v>
       </c>
       <c r="J395" s="5" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="L395" s="5">
         <v>-31</v>
@@ -36242,16 +36011,16 @@
         <v>0</v>
       </c>
       <c r="O395" s="5" t="s">
-        <v>1331</v>
+        <v>1320</v>
       </c>
       <c r="P395" s="5">
         <v>600</v>
       </c>
       <c r="Q395" s="5" t="s">
-        <v>1333</v>
+        <v>1322</v>
       </c>
       <c r="R395" s="10" t="s">
-        <v>1334</v>
+        <v>1323</v>
       </c>
       <c r="W395" s="5" t="s">
         <v>528</v>
@@ -36289,10 +36058,10 @@
         <v>1</v>
       </c>
       <c r="G396" s="5" t="s">
-        <v>1335</v>
+        <v>1324</v>
       </c>
       <c r="J396" s="5" t="s">
-        <v>1336</v>
+        <v>1325</v>
       </c>
       <c r="L396" s="5">
         <v>-31</v>
@@ -36304,16 +36073,16 @@
         <v>0</v>
       </c>
       <c r="O396" s="5" t="s">
-        <v>1331</v>
+        <v>1320</v>
       </c>
       <c r="P396" s="5">
         <v>2000</v>
       </c>
       <c r="Q396" s="5" t="s">
-        <v>1332</v>
+        <v>1321</v>
       </c>
       <c r="R396" s="10" t="s">
-        <v>1337</v>
+        <v>1326</v>
       </c>
       <c r="W396" s="5" t="s">
         <v>528</v>
@@ -36354,7 +36123,7 @@
         <v>289</v>
       </c>
       <c r="J397" s="5" t="s">
-        <v>1338</v>
+        <v>1327</v>
       </c>
       <c r="L397" s="5">
         <v>-31</v>
@@ -36372,10 +36141,10 @@
         <v>4800</v>
       </c>
       <c r="Q397" s="5" t="s">
-        <v>1332</v>
+        <v>1321</v>
       </c>
       <c r="R397" s="10" t="s">
-        <v>1339</v>
+        <v>1328</v>
       </c>
       <c r="W397" s="5" t="s">
         <v>528</v>
@@ -36416,7 +36185,7 @@
         <v>292</v>
       </c>
       <c r="J398" s="5" t="s">
-        <v>1340</v>
+        <v>1329</v>
       </c>
       <c r="L398" s="5">
         <v>-31</v>
@@ -36434,10 +36203,10 @@
         <v>9800</v>
       </c>
       <c r="Q398" s="5" t="s">
-        <v>1332</v>
+        <v>1321</v>
       </c>
       <c r="R398" s="10" t="s">
-        <v>1341</v>
+        <v>1330</v>
       </c>
       <c r="W398" s="5" t="s">
         <v>528</v>
@@ -36475,10 +36244,10 @@
         <v>1</v>
       </c>
       <c r="G399" s="5" t="s">
-        <v>1342</v>
+        <v>1331</v>
       </c>
       <c r="J399" s="5" t="s">
-        <v>1343</v>
+        <v>1332</v>
       </c>
       <c r="L399" s="5">
         <v>-31</v>
@@ -36490,16 +36259,16 @@
         <v>0</v>
       </c>
       <c r="O399" s="5" t="s">
-        <v>1331</v>
+        <v>1320</v>
       </c>
       <c r="P399" s="5">
         <v>19800</v>
       </c>
       <c r="Q399" s="5" t="s">
+        <v>1322</v>
+      </c>
+      <c r="R399" s="10" t="s">
         <v>1333</v>
-      </c>
-      <c r="R399" s="10" t="s">
-        <v>1344</v>
       </c>
       <c r="W399" s="5" t="s">
         <v>528</v>
@@ -36537,10 +36306,10 @@
         <v>1</v>
       </c>
       <c r="G400" s="5" t="s">
-        <v>1345</v>
+        <v>1334</v>
       </c>
       <c r="J400" s="5" t="s">
-        <v>1346</v>
+        <v>1335</v>
       </c>
       <c r="L400" s="5">
         <v>-31</v>
@@ -36552,16 +36321,16 @@
         <v>0</v>
       </c>
       <c r="O400" s="5" t="s">
-        <v>1331</v>
+        <v>1320</v>
       </c>
       <c r="P400" s="5">
         <v>49800</v>
       </c>
       <c r="Q400" s="5" t="s">
-        <v>1333</v>
+        <v>1322</v>
       </c>
       <c r="R400" s="10" t="s">
-        <v>1347</v>
+        <v>1336</v>
       </c>
       <c r="W400" s="5" t="s">
         <v>528</v>
@@ -36599,10 +36368,10 @@
         <v>1</v>
       </c>
       <c r="G401" s="5" t="s">
-        <v>1348</v>
+        <v>1337</v>
       </c>
       <c r="J401" s="5" t="s">
-        <v>1349</v>
+        <v>1338</v>
       </c>
       <c r="L401" s="5">
         <v>-31</v>
@@ -36620,13 +36389,13 @@
         <v>1800</v>
       </c>
       <c r="Q401" s="5" t="s">
-        <v>1351</v>
+        <v>1340</v>
       </c>
       <c r="R401" s="5" t="s">
-        <v>1352</v>
+        <v>1341</v>
       </c>
       <c r="W401" s="5" t="s">
-        <v>1170</v>
+        <v>1160</v>
       </c>
       <c r="X401" s="5">
         <v>99999999</v>
@@ -36664,10 +36433,10 @@
         <v>1</v>
       </c>
       <c r="G402" s="5" t="s">
-        <v>1353</v>
+        <v>1342</v>
       </c>
       <c r="J402" s="5" t="s">
-        <v>1354</v>
+        <v>1343</v>
       </c>
       <c r="L402" s="5">
         <v>-31</v>
@@ -36679,19 +36448,19 @@
         <v>0</v>
       </c>
       <c r="O402" s="5" t="s">
-        <v>1355</v>
+        <v>1344</v>
       </c>
       <c r="P402" s="5">
         <v>4800</v>
       </c>
       <c r="Q402" s="5" t="s">
-        <v>1350</v>
+        <v>1339</v>
       </c>
       <c r="R402" s="5" t="s">
-        <v>1356</v>
+        <v>1345</v>
       </c>
       <c r="W402" s="5" t="s">
-        <v>1170</v>
+        <v>1160</v>
       </c>
       <c r="X402" s="5">
         <v>99999999</v>
@@ -36729,10 +36498,10 @@
         <v>1</v>
       </c>
       <c r="G403" s="5" t="s">
-        <v>1357</v>
+        <v>1346</v>
       </c>
       <c r="J403" s="5" t="s">
-        <v>1358</v>
+        <v>1347</v>
       </c>
       <c r="L403" s="5">
         <v>-31</v>
@@ -36750,13 +36519,13 @@
         <v>9800</v>
       </c>
       <c r="Q403" s="5" t="s">
-        <v>1360</v>
+        <v>1349</v>
       </c>
       <c r="R403" s="5" t="s">
-        <v>1361</v>
+        <v>1350</v>
       </c>
       <c r="W403" s="5" t="s">
-        <v>1170</v>
+        <v>1160</v>
       </c>
       <c r="X403" s="5">
         <v>99999999</v>
@@ -36794,10 +36563,10 @@
         <v>1</v>
       </c>
       <c r="G404" s="5" t="s">
-        <v>1362</v>
+        <v>1351</v>
       </c>
       <c r="J404" s="5" t="s">
-        <v>1363</v>
+        <v>1352</v>
       </c>
       <c r="L404" s="5">
         <v>-31</v>
@@ -36815,13 +36584,13 @@
         <v>19800</v>
       </c>
       <c r="Q404" s="5" t="s">
-        <v>1359</v>
+        <v>1348</v>
       </c>
       <c r="R404" s="5" t="s">
-        <v>1364</v>
+        <v>1353</v>
       </c>
       <c r="W404" s="5" t="s">
-        <v>1170</v>
+        <v>1160</v>
       </c>
       <c r="X404" s="5">
         <v>99999999</v>
@@ -36859,10 +36628,10 @@
         <v>1</v>
       </c>
       <c r="G405" s="5" t="s">
-        <v>1365</v>
+        <v>1354</v>
       </c>
       <c r="J405" s="5" t="s">
-        <v>1366</v>
+        <v>1355</v>
       </c>
       <c r="L405" s="5">
         <v>-31</v>
@@ -36880,13 +36649,13 @@
         <v>29800</v>
       </c>
       <c r="Q405" s="5" t="s">
-        <v>1367</v>
+        <v>1356</v>
       </c>
       <c r="R405" s="5" t="s">
-        <v>1368</v>
+        <v>1357</v>
       </c>
       <c r="W405" s="5" t="s">
-        <v>1170</v>
+        <v>1160</v>
       </c>
       <c r="X405" s="5">
         <v>99999999</v>
@@ -36924,10 +36693,10 @@
         <v>1</v>
       </c>
       <c r="G406" s="5" t="s">
-        <v>1369</v>
+        <v>1358</v>
       </c>
       <c r="J406" s="5" t="s">
-        <v>1370</v>
+        <v>1359</v>
       </c>
       <c r="L406" s="5">
         <v>-31</v>
@@ -36945,13 +36714,13 @@
         <v>49800</v>
       </c>
       <c r="Q406" s="5" t="s">
-        <v>1372</v>
+        <v>1361</v>
       </c>
       <c r="R406" s="5" t="s">
-        <v>1373</v>
+        <v>1362</v>
       </c>
       <c r="W406" s="5" t="s">
-        <v>1374</v>
+        <v>1363</v>
       </c>
       <c r="X406" s="5">
         <v>99999999</v>
@@ -36989,10 +36758,10 @@
         <v>1</v>
       </c>
       <c r="G407" s="5" t="s">
-        <v>1375</v>
+        <v>1364</v>
       </c>
       <c r="J407" s="5" t="s">
-        <v>1376</v>
+        <v>1365</v>
       </c>
       <c r="L407" s="5">
         <v>-31</v>
@@ -37004,19 +36773,19 @@
         <v>0</v>
       </c>
       <c r="O407" s="5" t="s">
-        <v>1377</v>
+        <v>1366</v>
       </c>
       <c r="P407" s="5">
         <v>99800</v>
       </c>
       <c r="Q407" s="5" t="s">
-        <v>1371</v>
+        <v>1360</v>
       </c>
       <c r="R407" s="5" t="s">
-        <v>1378</v>
+        <v>1367</v>
       </c>
       <c r="W407" s="5" t="s">
-        <v>1170</v>
+        <v>1160</v>
       </c>
       <c r="X407" s="5">
         <v>99999999</v>
@@ -37054,11 +36823,11 @@
         <v>1</v>
       </c>
       <c r="G408" s="49" t="s">
-        <v>1401</v>
+        <v>1389</v>
       </c>
       <c r="H408" s="5"/>
       <c r="J408" s="49" t="s">
-        <v>1389</v>
+        <v>1377</v>
       </c>
       <c r="L408" s="49">
         <v>-31</v>
@@ -37076,10 +36845,10 @@
         <v>600</v>
       </c>
       <c r="Q408" s="49" t="s">
-        <v>1402</v>
+        <v>1390</v>
       </c>
       <c r="R408" s="50" t="s">
-        <v>1403</v>
+        <v>1391</v>
       </c>
       <c r="W408" s="49" t="s">
         <v>567</v>
@@ -37120,11 +36889,11 @@
         <v>1</v>
       </c>
       <c r="G409" s="49" t="s">
-        <v>1391</v>
+        <v>1379</v>
       </c>
       <c r="H409" s="5"/>
       <c r="J409" s="49" t="s">
-        <v>1404</v>
+        <v>1392</v>
       </c>
       <c r="L409" s="49">
         <v>-31</v>
@@ -37136,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="O409" s="49" t="s">
-        <v>1405</v>
+        <v>1393</v>
       </c>
       <c r="P409" s="49">
         <v>2000</v>
       </c>
       <c r="Q409" s="49" t="s">
-        <v>1390</v>
+        <v>1378</v>
       </c>
       <c r="R409" s="50" t="s">
-        <v>1406</v>
+        <v>1394</v>
       </c>
       <c r="W409" s="49" t="s">
-        <v>1407</v>
+        <v>1395</v>
       </c>
       <c r="X409" s="49">
         <v>99999999</v>
@@ -37186,11 +36955,11 @@
         <v>1</v>
       </c>
       <c r="G410" s="49" t="s">
-        <v>1408</v>
+        <v>1396</v>
       </c>
       <c r="H410" s="5"/>
       <c r="J410" s="49" t="s">
-        <v>1392</v>
+        <v>1380</v>
       </c>
       <c r="L410" s="49">
         <v>-31</v>
@@ -37208,10 +36977,10 @@
         <v>4800</v>
       </c>
       <c r="Q410" s="49" t="s">
-        <v>1390</v>
+        <v>1378</v>
       </c>
       <c r="R410" s="50" t="s">
-        <v>1409</v>
+        <v>1397</v>
       </c>
       <c r="W410" s="49" t="s">
         <v>567</v>
@@ -37252,11 +37021,11 @@
         <v>1</v>
       </c>
       <c r="G411" s="49" t="s">
-        <v>1393</v>
+        <v>1381</v>
       </c>
       <c r="H411" s="5"/>
       <c r="J411" s="49" t="s">
-        <v>1394</v>
+        <v>1382</v>
       </c>
       <c r="L411" s="49">
         <v>-31</v>
@@ -37274,10 +37043,10 @@
         <v>9800</v>
       </c>
       <c r="Q411" s="49" t="s">
-        <v>1410</v>
+        <v>1398</v>
       </c>
       <c r="R411" s="50" t="s">
-        <v>1411</v>
+        <v>1399</v>
       </c>
       <c r="W411" s="49" t="s">
         <v>567</v>
@@ -37318,11 +37087,11 @@
         <v>1</v>
       </c>
       <c r="G412" s="49" t="s">
-        <v>1412</v>
+        <v>1400</v>
       </c>
       <c r="H412" s="5"/>
       <c r="J412" s="49" t="s">
-        <v>1413</v>
+        <v>1401</v>
       </c>
       <c r="L412" s="49">
         <v>-31</v>
@@ -37340,13 +37109,13 @@
         <v>19800</v>
       </c>
       <c r="Q412" s="49" t="s">
+        <v>1390</v>
+      </c>
+      <c r="R412" s="50" t="s">
         <v>1402</v>
       </c>
-      <c r="R412" s="50" t="s">
-        <v>1414</v>
-      </c>
       <c r="W412" s="49" t="s">
-        <v>1415</v>
+        <v>1403</v>
       </c>
       <c r="X412" s="49">
         <v>99999999</v>
@@ -37384,11 +37153,11 @@
         <v>1</v>
       </c>
       <c r="G413" s="49" t="s">
-        <v>1416</v>
+        <v>1404</v>
       </c>
       <c r="H413" s="5"/>
       <c r="J413" s="49" t="s">
-        <v>1417</v>
+        <v>1405</v>
       </c>
       <c r="L413" s="49">
         <v>-31</v>
@@ -37400,19 +37169,19 @@
         <v>0</v>
       </c>
       <c r="O413" s="49" t="s">
-        <v>1405</v>
+        <v>1393</v>
       </c>
       <c r="P413" s="49">
         <v>49800</v>
       </c>
       <c r="Q413" s="49" t="s">
-        <v>1402</v>
+        <v>1390</v>
       </c>
       <c r="R413" s="50" t="s">
-        <v>1418</v>
+        <v>1406</v>
       </c>
       <c r="W413" s="49" t="s">
-        <v>1415</v>
+        <v>1403</v>
       </c>
       <c r="X413" s="49">
         <v>99999999</v>
@@ -37453,10 +37222,10 @@
         <v>0</v>
       </c>
       <c r="G414" s="69" t="s">
-        <v>1395</v>
+        <v>1383</v>
       </c>
       <c r="H414" s="69" t="s">
-        <v>1816</v>
+        <v>1801</v>
       </c>
       <c r="L414" s="69">
         <v>-4</v>
@@ -37477,7 +37246,7 @@
         <v>78</v>
       </c>
       <c r="R414" s="76" t="s">
-        <v>1396</v>
+        <v>1384</v>
       </c>
       <c r="W414" s="69" t="s">
         <v>525</v>
@@ -37509,13 +37278,13 @@
         <v>1</v>
       </c>
       <c r="G415" s="6" t="s">
-        <v>1425</v>
+        <v>1413</v>
       </c>
       <c r="I415" s="6" t="s">
-        <v>1426</v>
+        <v>1414</v>
       </c>
       <c r="J415" s="6" t="s">
-        <v>1427</v>
+        <v>1874</v>
       </c>
       <c r="L415" s="6">
         <v>-31</v>
@@ -37533,13 +37302,13 @@
         <v>600</v>
       </c>
       <c r="Q415" s="5" t="s">
-        <v>1428</v>
+        <v>1415</v>
       </c>
       <c r="R415" s="52" t="s">
-        <v>1429</v>
+        <v>1416</v>
       </c>
       <c r="W415" s="6" t="s">
-        <v>1430</v>
+        <v>1417</v>
       </c>
       <c r="X415" s="14" t="s">
         <v>109</v>
@@ -37577,13 +37346,13 @@
         <v>1</v>
       </c>
       <c r="G416" s="6" t="s">
-        <v>1431</v>
+        <v>1418</v>
       </c>
       <c r="I416" s="6" t="s">
-        <v>1432</v>
+        <v>1419</v>
       </c>
       <c r="J416" s="6" t="s">
-        <v>1433</v>
+        <v>1874</v>
       </c>
       <c r="L416" s="6">
         <v>-31</v>
@@ -37601,13 +37370,13 @@
         <v>1800</v>
       </c>
       <c r="Q416" s="5" t="s">
-        <v>1434</v>
+        <v>1420</v>
       </c>
       <c r="R416" s="52" t="s">
-        <v>1435</v>
+        <v>1421</v>
       </c>
       <c r="W416" s="6" t="s">
-        <v>1430</v>
+        <v>1417</v>
       </c>
       <c r="X416" s="14" t="s">
         <v>109</v>
@@ -37645,13 +37414,13 @@
         <v>1</v>
       </c>
       <c r="G417" s="6" t="s">
-        <v>1436</v>
+        <v>1422</v>
       </c>
       <c r="I417" s="6" t="s">
-        <v>1437</v>
+        <v>1423</v>
       </c>
       <c r="J417" s="6" t="s">
-        <v>1438</v>
+        <v>1874</v>
       </c>
       <c r="L417" s="6">
         <v>-31</v>
@@ -37669,13 +37438,13 @@
         <v>4800</v>
       </c>
       <c r="Q417" s="5" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="R417" s="52" t="s">
-        <v>1435</v>
+        <v>1421</v>
       </c>
       <c r="W417" s="6" t="s">
-        <v>1118</v>
+        <v>1108</v>
       </c>
       <c r="X417" s="14" t="s">
         <v>109</v>
@@ -37713,13 +37482,13 @@
         <v>1</v>
       </c>
       <c r="G418" s="6" t="s">
-        <v>1439</v>
+        <v>1424</v>
       </c>
       <c r="I418" s="6" t="s">
-        <v>1440</v>
+        <v>1425</v>
       </c>
       <c r="J418" s="6" t="s">
-        <v>1427</v>
+        <v>1874</v>
       </c>
       <c r="L418" s="6">
         <v>-31</v>
@@ -37737,13 +37506,13 @@
         <v>9800</v>
       </c>
       <c r="Q418" s="5" t="s">
-        <v>1117</v>
+        <v>1107</v>
       </c>
       <c r="R418" s="52" t="s">
-        <v>1429</v>
+        <v>1416</v>
       </c>
       <c r="W418" s="6" t="s">
-        <v>1118</v>
+        <v>1108</v>
       </c>
       <c r="X418" s="14" t="s">
         <v>109</v>
@@ -37781,13 +37550,13 @@
         <v>1</v>
       </c>
       <c r="G419" s="6" t="s">
-        <v>1441</v>
+        <v>1426</v>
       </c>
       <c r="I419" s="6" t="s">
-        <v>1442</v>
+        <v>1427</v>
       </c>
       <c r="J419" s="6" t="s">
-        <v>1438</v>
+        <v>1874</v>
       </c>
       <c r="L419" s="6">
         <v>-31</v>
@@ -37805,13 +37574,13 @@
         <v>19800</v>
       </c>
       <c r="Q419" s="5" t="s">
-        <v>1119</v>
+        <v>1109</v>
       </c>
       <c r="R419" s="52" t="s">
-        <v>1111</v>
+        <v>1101</v>
       </c>
       <c r="W419" s="6" t="s">
-        <v>1118</v>
+        <v>1108</v>
       </c>
       <c r="X419" s="14" t="s">
         <v>109</v>
@@ -37849,13 +37618,13 @@
         <v>1</v>
       </c>
       <c r="G420" s="6" t="s">
-        <v>1443</v>
+        <v>1428</v>
       </c>
       <c r="I420" s="6" t="s">
-        <v>1442</v>
+        <v>1427</v>
       </c>
       <c r="J420" s="6" t="s">
-        <v>1433</v>
+        <v>1874</v>
       </c>
       <c r="L420" s="6">
         <v>-31</v>
@@ -37873,13 +37642,13 @@
         <v>49800</v>
       </c>
       <c r="Q420" s="5" t="s">
-        <v>1120</v>
+        <v>1110</v>
       </c>
       <c r="R420" s="52" t="s">
-        <v>1429</v>
+        <v>1416</v>
       </c>
       <c r="W420" s="6" t="s">
-        <v>1118</v>
+        <v>1108</v>
       </c>
       <c r="X420" s="14" t="s">
         <v>109</v>
@@ -37917,10 +37686,10 @@
         <v>1</v>
       </c>
       <c r="G421" s="19" t="s">
-        <v>1444</v>
+        <v>1429</v>
       </c>
       <c r="J421" s="19" t="s">
-        <v>1445</v>
+        <v>1430</v>
       </c>
       <c r="L421" s="19">
         <v>-31</v>
@@ -37932,19 +37701,19 @@
         <v>0</v>
       </c>
       <c r="O421" s="19" t="s">
-        <v>1446</v>
+        <v>1431</v>
       </c>
       <c r="P421" s="19">
         <v>1000</v>
       </c>
       <c r="Q421" s="19" t="s">
-        <v>1447</v>
+        <v>1432</v>
       </c>
       <c r="R421" s="39" t="s">
-        <v>1448</v>
+        <v>1433</v>
       </c>
       <c r="W421" s="19" t="s">
-        <v>1449</v>
+        <v>1434</v>
       </c>
       <c r="X421" s="19">
         <v>9999999</v>
@@ -37956,10 +37725,10 @@
         <v>2552233600</v>
       </c>
       <c r="AB421" s="19" t="s">
-        <v>1450</v>
+        <v>1435</v>
       </c>
       <c r="AC421" s="19" t="s">
-        <v>1451</v>
+        <v>1436</v>
       </c>
       <c r="AH421" s="19">
         <v>1</v>
@@ -37985,14 +37754,14 @@
         <v>1</v>
       </c>
       <c r="G422" s="53" t="s">
-        <v>1470</v>
+        <v>1455</v>
       </c>
       <c r="H422" s="6"/>
       <c r="I422" s="53" t="s">
-        <v>1471</v>
+        <v>1456</v>
       </c>
       <c r="J422" s="53" t="s">
-        <v>1472</v>
+        <v>1457</v>
       </c>
       <c r="L422" s="53">
         <v>-31</v>
@@ -38010,10 +37779,10 @@
         <v>2000</v>
       </c>
       <c r="Q422" s="53" t="s">
-        <v>1473</v>
+        <v>1458</v>
       </c>
       <c r="R422" s="54" t="s">
-        <v>1474</v>
+        <v>1459</v>
       </c>
       <c r="W422" s="53" t="s">
         <v>569</v>
@@ -38054,14 +37823,14 @@
         <v>1</v>
       </c>
       <c r="G423" s="53" t="s">
-        <v>1452</v>
+        <v>1437</v>
       </c>
       <c r="H423" s="6"/>
       <c r="I423" s="53" t="s">
-        <v>1471</v>
+        <v>1456</v>
       </c>
       <c r="J423" s="53" t="s">
-        <v>1475</v>
+        <v>1460</v>
       </c>
       <c r="L423" s="53">
         <v>-31</v>
@@ -38079,13 +37848,13 @@
         <v>5800</v>
       </c>
       <c r="Q423" s="53" t="s">
-        <v>1476</v>
+        <v>1461</v>
       </c>
       <c r="R423" s="54" t="s">
-        <v>1477</v>
+        <v>1462</v>
       </c>
       <c r="W423" s="53" t="s">
-        <v>1478</v>
+        <v>1463</v>
       </c>
       <c r="X423" s="53">
         <v>99999999</v>
@@ -38123,14 +37892,14 @@
         <v>1</v>
       </c>
       <c r="G424" s="53" t="s">
-        <v>1479</v>
+        <v>1464</v>
       </c>
       <c r="H424" s="6"/>
       <c r="I424" s="53" t="s">
-        <v>1480</v>
+        <v>1465</v>
       </c>
       <c r="J424" s="53" t="s">
-        <v>1481</v>
+        <v>1466</v>
       </c>
       <c r="L424" s="53">
         <v>-31</v>
@@ -38148,13 +37917,13 @@
         <v>12800</v>
       </c>
       <c r="Q424" s="53" t="s">
-        <v>1482</v>
+        <v>1467</v>
       </c>
       <c r="R424" s="54" t="s">
-        <v>1483</v>
+        <v>1468</v>
       </c>
       <c r="W424" s="53" t="s">
-        <v>1478</v>
+        <v>1463</v>
       </c>
       <c r="X424" s="53">
         <v>99999999</v>
@@ -38192,10 +37961,10 @@
         <v>1</v>
       </c>
       <c r="G425" s="6" t="s">
-        <v>1454</v>
+        <v>1439</v>
       </c>
       <c r="J425" s="6" t="s">
-        <v>1455</v>
+        <v>1440</v>
       </c>
       <c r="L425" s="6">
         <v>-31</v>
@@ -38213,13 +37982,13 @@
         <v>49800</v>
       </c>
       <c r="Q425" s="6" t="s">
-        <v>1456</v>
+        <v>1441</v>
       </c>
       <c r="R425" s="52" t="s">
-        <v>1457</v>
+        <v>1442</v>
       </c>
       <c r="W425" s="6" t="s">
-        <v>1453</v>
+        <v>1438</v>
       </c>
       <c r="X425" s="6">
         <v>9999999</v>
@@ -38248,10 +38017,10 @@
         <v>1</v>
       </c>
       <c r="G426" s="6" t="s">
-        <v>1458</v>
+        <v>1443</v>
       </c>
       <c r="J426" s="6" t="s">
-        <v>1459</v>
+        <v>1444</v>
       </c>
       <c r="L426" s="6">
         <v>-31</v>
@@ -38269,13 +38038,13 @@
         <v>19800</v>
       </c>
       <c r="Q426" s="6" t="s">
-        <v>1460</v>
+        <v>1445</v>
       </c>
       <c r="R426" s="52" t="s">
-        <v>1457</v>
+        <v>1442</v>
       </c>
       <c r="W426" s="6" t="s">
-        <v>1453</v>
+        <v>1438</v>
       </c>
       <c r="X426" s="6">
         <v>9999999</v>
@@ -38304,10 +38073,10 @@
         <v>1</v>
       </c>
       <c r="G427" s="6" t="s">
-        <v>1461</v>
+        <v>1446</v>
       </c>
       <c r="J427" s="6" t="s">
-        <v>1462</v>
+        <v>1447</v>
       </c>
       <c r="L427" s="6">
         <v>-31</v>
@@ -38325,13 +38094,13 @@
         <v>9800</v>
       </c>
       <c r="Q427" s="6" t="s">
-        <v>1463</v>
+        <v>1448</v>
       </c>
       <c r="R427" s="52" t="s">
         <v>656</v>
       </c>
       <c r="W427" s="6" t="s">
-        <v>1453</v>
+        <v>1438</v>
       </c>
       <c r="X427" s="6">
         <v>9999999</v>
@@ -38360,10 +38129,10 @@
         <v>1</v>
       </c>
       <c r="G428" s="6" t="s">
-        <v>1464</v>
+        <v>1449</v>
       </c>
       <c r="J428" s="6" t="s">
-        <v>1465</v>
+        <v>1450</v>
       </c>
       <c r="L428" s="6">
         <v>-31</v>
@@ -38381,13 +38150,13 @@
         <v>9800</v>
       </c>
       <c r="Q428" s="6" t="s">
-        <v>1466</v>
+        <v>1451</v>
       </c>
       <c r="R428" s="52" t="s">
-        <v>1457</v>
+        <v>1442</v>
       </c>
       <c r="W428" s="6" t="s">
-        <v>1449</v>
+        <v>1434</v>
       </c>
       <c r="X428" s="6">
         <v>9999999</v>
@@ -38416,10 +38185,10 @@
         <v>1</v>
       </c>
       <c r="G429" s="6" t="s">
-        <v>1467</v>
+        <v>1452</v>
       </c>
       <c r="J429" s="6" t="s">
-        <v>1468</v>
+        <v>1453</v>
       </c>
       <c r="L429" s="6">
         <v>-31</v>
@@ -38437,13 +38206,13 @@
         <v>4800</v>
       </c>
       <c r="Q429" s="6" t="s">
-        <v>1469</v>
+        <v>1454</v>
       </c>
       <c r="R429" s="52" t="s">
         <v>656</v>
       </c>
       <c r="W429" s="6" t="s">
-        <v>1449</v>
+        <v>1434</v>
       </c>
       <c r="X429" s="6">
         <v>9999999</v>
@@ -38472,13 +38241,13 @@
         <v>1</v>
       </c>
       <c r="G430" s="43" t="s">
-        <v>1793</v>
+        <v>1778</v>
       </c>
       <c r="I430" s="43" t="s">
-        <v>1794</v>
+        <v>1779</v>
       </c>
       <c r="J430" s="43" t="s">
-        <v>1795</v>
+        <v>1780</v>
       </c>
       <c r="L430" s="43">
         <v>-28</v>
@@ -38496,13 +38265,13 @@
         <v>100</v>
       </c>
       <c r="Q430" s="43" t="s">
-        <v>1419</v>
+        <v>1407</v>
       </c>
       <c r="R430" s="66" t="s">
-        <v>1796</v>
+        <v>1781</v>
       </c>
       <c r="W430" s="43" t="s">
-        <v>1797</v>
+        <v>1782</v>
       </c>
       <c r="X430" s="43">
         <v>9999999</v>
@@ -38540,13 +38309,13 @@
         <v>1</v>
       </c>
       <c r="G431" s="43" t="s">
-        <v>1793</v>
+        <v>1778</v>
       </c>
       <c r="I431" s="43" t="s">
-        <v>1798</v>
+        <v>1783</v>
       </c>
       <c r="J431" s="43" t="s">
-        <v>1799</v>
+        <v>1784</v>
       </c>
       <c r="L431" s="43">
         <v>-28</v>
@@ -38564,10 +38333,10 @@
         <v>300</v>
       </c>
       <c r="Q431" s="43" t="s">
-        <v>1419</v>
+        <v>1407</v>
       </c>
       <c r="R431" s="66" t="s">
-        <v>1800</v>
+        <v>1785</v>
       </c>
       <c r="W431" s="43" t="s">
         <v>528</v>
@@ -38608,13 +38377,13 @@
         <v>1</v>
       </c>
       <c r="G432" s="43" t="s">
-        <v>1793</v>
+        <v>1778</v>
       </c>
       <c r="I432" s="43" t="s">
-        <v>1801</v>
+        <v>1786</v>
       </c>
       <c r="J432" s="43" t="s">
-        <v>1802</v>
+        <v>1787</v>
       </c>
       <c r="L432" s="43">
         <v>-28</v>
@@ -38632,10 +38401,10 @@
         <v>600</v>
       </c>
       <c r="Q432" s="43" t="s">
-        <v>1419</v>
+        <v>1407</v>
       </c>
       <c r="R432" s="66" t="s">
-        <v>1803</v>
+        <v>1788</v>
       </c>
       <c r="W432" s="43" t="s">
         <v>528</v>
@@ -38676,13 +38445,13 @@
         <v>1</v>
       </c>
       <c r="G433" s="43" t="s">
-        <v>1793</v>
+        <v>1778</v>
       </c>
       <c r="I433" s="43" t="s">
-        <v>1804</v>
+        <v>1789</v>
       </c>
       <c r="J433" s="43" t="s">
-        <v>1805</v>
+        <v>1790</v>
       </c>
       <c r="L433" s="43">
         <v>-28</v>
@@ -38700,10 +38469,10 @@
         <v>600</v>
       </c>
       <c r="Q433" s="43" t="s">
-        <v>1806</v>
+        <v>1791</v>
       </c>
       <c r="R433" s="66" t="s">
-        <v>1807</v>
+        <v>1792</v>
       </c>
       <c r="W433" s="43" t="s">
         <v>528</v>
@@ -38744,14 +38513,14 @@
         <v>1</v>
       </c>
       <c r="G434" s="55" t="s">
-        <v>1484</v>
+        <v>1469</v>
       </c>
       <c r="H434" s="5"/>
       <c r="I434" s="55" t="s">
-        <v>1485</v>
+        <v>1470</v>
       </c>
       <c r="J434" s="55" t="s">
-        <v>1486</v>
+        <v>1471</v>
       </c>
       <c r="L434" s="55">
         <v>-31</v>
@@ -38769,10 +38538,10 @@
         <v>1800</v>
       </c>
       <c r="Q434" s="55" t="s">
-        <v>1487</v>
+        <v>1472</v>
       </c>
       <c r="R434" s="56" t="s">
-        <v>1488</v>
+        <v>1473</v>
       </c>
       <c r="W434" s="55" t="s">
         <v>528</v>
@@ -38810,14 +38579,14 @@
         <v>1</v>
       </c>
       <c r="G435" s="55" t="s">
-        <v>1489</v>
+        <v>1474</v>
       </c>
       <c r="H435" s="5"/>
       <c r="I435" s="55" t="s">
-        <v>1485</v>
+        <v>1470</v>
       </c>
       <c r="J435" s="55" t="s">
-        <v>1490</v>
+        <v>1475</v>
       </c>
       <c r="L435" s="55">
         <v>-31</v>
@@ -38835,10 +38604,10 @@
         <v>4800</v>
       </c>
       <c r="Q435" s="55" t="s">
-        <v>1487</v>
+        <v>1472</v>
       </c>
       <c r="R435" s="56" t="s">
-        <v>1491</v>
+        <v>1476</v>
       </c>
       <c r="W435" s="55" t="s">
         <v>528</v>
@@ -38876,14 +38645,14 @@
         <v>1</v>
       </c>
       <c r="G436" s="55" t="s">
-        <v>1492</v>
+        <v>1477</v>
       </c>
       <c r="H436" s="5"/>
       <c r="I436" s="55" t="s">
-        <v>1493</v>
+        <v>1478</v>
       </c>
       <c r="J436" s="55" t="s">
-        <v>1494</v>
+        <v>1479</v>
       </c>
       <c r="L436" s="55">
         <v>-31</v>
@@ -38901,10 +38670,10 @@
         <v>9800</v>
       </c>
       <c r="Q436" s="55" t="s">
-        <v>1495</v>
+        <v>1480</v>
       </c>
       <c r="R436" s="56" t="s">
-        <v>1496</v>
+        <v>1481</v>
       </c>
       <c r="W436" s="55" t="s">
         <v>528</v>
@@ -38942,14 +38711,14 @@
         <v>1</v>
       </c>
       <c r="G437" s="55" t="s">
-        <v>1497</v>
+        <v>1482</v>
       </c>
       <c r="H437" s="5"/>
       <c r="I437" s="55" t="s">
-        <v>1485</v>
+        <v>1470</v>
       </c>
       <c r="J437" s="55" t="s">
-        <v>1498</v>
+        <v>1483</v>
       </c>
       <c r="L437" s="55">
         <v>-31</v>
@@ -38967,10 +38736,10 @@
         <v>19800</v>
       </c>
       <c r="Q437" s="55" t="s">
-        <v>1499</v>
+        <v>1484</v>
       </c>
       <c r="R437" s="56" t="s">
-        <v>1500</v>
+        <v>1485</v>
       </c>
       <c r="W437" s="55" t="s">
         <v>528</v>
@@ -39008,14 +38777,14 @@
         <v>1</v>
       </c>
       <c r="G438" s="55" t="s">
-        <v>1501</v>
+        <v>1486</v>
       </c>
       <c r="H438" s="5"/>
       <c r="I438" s="55" t="s">
-        <v>1502</v>
+        <v>1487</v>
       </c>
       <c r="J438" s="55" t="s">
-        <v>1503</v>
+        <v>1488</v>
       </c>
       <c r="L438" s="55">
         <v>-31</v>
@@ -39033,10 +38802,10 @@
         <v>29800</v>
       </c>
       <c r="Q438" s="55" t="s">
-        <v>1499</v>
+        <v>1484</v>
       </c>
       <c r="R438" s="56" t="s">
-        <v>1504</v>
+        <v>1489</v>
       </c>
       <c r="W438" s="55" t="s">
         <v>528</v>
@@ -39074,14 +38843,14 @@
         <v>1</v>
       </c>
       <c r="G439" s="55" t="s">
-        <v>1505</v>
+        <v>1490</v>
       </c>
       <c r="H439" s="5"/>
       <c r="I439" s="55" t="s">
-        <v>1502</v>
+        <v>1487</v>
       </c>
       <c r="J439" s="55" t="s">
-        <v>1506</v>
+        <v>1491</v>
       </c>
       <c r="L439" s="55">
         <v>-31</v>
@@ -39099,10 +38868,10 @@
         <v>49800</v>
       </c>
       <c r="Q439" s="55" t="s">
-        <v>1507</v>
+        <v>1492</v>
       </c>
       <c r="R439" s="56" t="s">
-        <v>1508</v>
+        <v>1493</v>
       </c>
       <c r="W439" s="55" t="s">
         <v>528</v>
@@ -39140,14 +38909,14 @@
         <v>1</v>
       </c>
       <c r="G440" s="55" t="s">
-        <v>1509</v>
+        <v>1494</v>
       </c>
       <c r="H440" s="5"/>
       <c r="I440" s="55" t="s">
-        <v>1502</v>
+        <v>1487</v>
       </c>
       <c r="J440" s="55" t="s">
-        <v>1510</v>
+        <v>1495</v>
       </c>
       <c r="L440" s="55">
         <v>-31</v>
@@ -39165,10 +38934,10 @@
         <v>99800</v>
       </c>
       <c r="Q440" s="55" t="s">
-        <v>1507</v>
+        <v>1492</v>
       </c>
       <c r="R440" s="56" t="s">
-        <v>1511</v>
+        <v>1496</v>
       </c>
       <c r="W440" s="55" t="s">
         <v>528</v>
@@ -39206,11 +38975,11 @@
         <v>1</v>
       </c>
       <c r="G441" s="53" t="s">
-        <v>1512</v>
+        <v>1497</v>
       </c>
       <c r="H441" s="5"/>
       <c r="J441" s="53" t="s">
-        <v>1513</v>
+        <v>1498</v>
       </c>
       <c r="L441" s="53">
         <v>-31</v>
@@ -39228,13 +38997,13 @@
         <v>49800</v>
       </c>
       <c r="Q441" s="53" t="s">
-        <v>1514</v>
+        <v>1499</v>
       </c>
       <c r="R441" s="54" t="s">
-        <v>1515</v>
+        <v>1500</v>
       </c>
       <c r="W441" s="53" t="s">
-        <v>1516</v>
+        <v>1501</v>
       </c>
       <c r="X441" s="53">
         <v>9999999</v>
@@ -39269,11 +39038,11 @@
         <v>1</v>
       </c>
       <c r="G442" s="53" t="s">
-        <v>1517</v>
+        <v>1502</v>
       </c>
       <c r="H442" s="5"/>
       <c r="J442" s="53" t="s">
-        <v>1518</v>
+        <v>1503</v>
       </c>
       <c r="L442" s="53">
         <v>-31</v>
@@ -39291,13 +39060,13 @@
         <v>19800</v>
       </c>
       <c r="Q442" s="53" t="s">
-        <v>1514</v>
+        <v>1499</v>
       </c>
       <c r="R442" s="54" t="s">
-        <v>1519</v>
+        <v>1504</v>
       </c>
       <c r="W442" s="53" t="s">
-        <v>1516</v>
+        <v>1501</v>
       </c>
       <c r="X442" s="53">
         <v>9999999</v>
@@ -39332,11 +39101,11 @@
         <v>1</v>
       </c>
       <c r="G443" s="53" t="s">
-        <v>1520</v>
+        <v>1505</v>
       </c>
       <c r="H443" s="5"/>
       <c r="J443" s="53" t="s">
-        <v>1521</v>
+        <v>1506</v>
       </c>
       <c r="L443" s="53">
         <v>-31</v>
@@ -39354,13 +39123,13 @@
         <v>9800</v>
       </c>
       <c r="Q443" s="53" t="s">
-        <v>1522</v>
+        <v>1507</v>
       </c>
       <c r="R443" s="54" t="s">
-        <v>1523</v>
+        <v>1508</v>
       </c>
       <c r="W443" s="53" t="s">
-        <v>1516</v>
+        <v>1501</v>
       </c>
       <c r="X443" s="53">
         <v>9999999</v>
@@ -39395,11 +39164,11 @@
         <v>1</v>
       </c>
       <c r="G444" s="53" t="s">
-        <v>1524</v>
+        <v>1509</v>
       </c>
       <c r="H444" s="5"/>
       <c r="J444" s="53" t="s">
-        <v>1525</v>
+        <v>1510</v>
       </c>
       <c r="L444" s="53">
         <v>-31</v>
@@ -39417,13 +39186,13 @@
         <v>4800</v>
       </c>
       <c r="Q444" s="53" t="s">
-        <v>1514</v>
+        <v>1499</v>
       </c>
       <c r="R444" s="54" t="s">
-        <v>1526</v>
+        <v>1511</v>
       </c>
       <c r="W444" s="53" t="s">
-        <v>1516</v>
+        <v>1501</v>
       </c>
       <c r="X444" s="53">
         <v>9999999</v>
@@ -39458,11 +39227,11 @@
         <v>1</v>
       </c>
       <c r="G445" s="53" t="s">
-        <v>1527</v>
+        <v>1512</v>
       </c>
       <c r="H445" s="5"/>
       <c r="J445" s="53" t="s">
-        <v>1528</v>
+        <v>1513</v>
       </c>
       <c r="L445" s="53">
         <v>-31</v>
@@ -39480,13 +39249,13 @@
         <v>2000</v>
       </c>
       <c r="Q445" s="53" t="s">
+        <v>1499</v>
+      </c>
+      <c r="R445" s="54" t="s">
         <v>1514</v>
       </c>
-      <c r="R445" s="54" t="s">
-        <v>1529</v>
-      </c>
       <c r="W445" s="53" t="s">
-        <v>1530</v>
+        <v>1515</v>
       </c>
       <c r="X445" s="53">
         <v>9999999</v>
@@ -39521,11 +39290,11 @@
         <v>1</v>
       </c>
       <c r="G446" s="53" t="s">
-        <v>1531</v>
+        <v>1516</v>
       </c>
       <c r="H446" s="5"/>
       <c r="J446" s="53" t="s">
-        <v>1532</v>
+        <v>1517</v>
       </c>
       <c r="L446" s="53">
         <v>-31</v>
@@ -39543,13 +39312,13 @@
         <v>600</v>
       </c>
       <c r="Q446" s="53" t="s">
-        <v>1522</v>
+        <v>1507</v>
       </c>
       <c r="R446" s="54" t="s">
-        <v>1533</v>
+        <v>1518</v>
       </c>
       <c r="W446" s="53" t="s">
-        <v>1530</v>
+        <v>1515</v>
       </c>
       <c r="X446" s="53">
         <v>9999999</v>
@@ -39584,13 +39353,13 @@
         <v>1</v>
       </c>
       <c r="G447" s="59" t="s">
-        <v>1548</v>
+        <v>1533</v>
       </c>
       <c r="I447" s="59" t="s">
-        <v>1549</v>
+        <v>1534</v>
       </c>
       <c r="J447" s="59" t="s">
-        <v>1550</v>
+        <v>1535</v>
       </c>
       <c r="L447" s="59">
         <v>-31</v>
@@ -39608,13 +39377,13 @@
         <v>800</v>
       </c>
       <c r="Q447" s="59" t="s">
-        <v>1551</v>
+        <v>1536</v>
       </c>
       <c r="R447" s="60" t="s">
-        <v>1552</v>
+        <v>1537</v>
       </c>
       <c r="W447" s="5" t="s">
-        <v>1553</v>
+        <v>1538</v>
       </c>
       <c r="X447" s="59">
         <v>9999999</v>
@@ -39652,13 +39421,13 @@
         <v>1</v>
       </c>
       <c r="G448" s="59" t="s">
-        <v>1554</v>
+        <v>1539</v>
       </c>
       <c r="I448" s="59" t="s">
-        <v>1555</v>
+        <v>1540</v>
       </c>
       <c r="J448" s="59" t="s">
-        <v>1556</v>
+        <v>1541</v>
       </c>
       <c r="L448" s="59">
         <v>-31</v>
@@ -39679,10 +39448,10 @@
         <v>995</v>
       </c>
       <c r="R448" s="60" t="s">
-        <v>1557</v>
+        <v>1542</v>
       </c>
       <c r="W448" s="5" t="s">
-        <v>1553</v>
+        <v>1538</v>
       </c>
       <c r="X448" s="59">
         <v>9999999</v>
@@ -39717,13 +39486,13 @@
         <v>1</v>
       </c>
       <c r="G449" s="59" t="s">
-        <v>1558</v>
+        <v>1543</v>
       </c>
       <c r="I449" s="59" t="s">
-        <v>1559</v>
+        <v>1544</v>
       </c>
       <c r="J449" s="59" t="s">
-        <v>1560</v>
+        <v>1545</v>
       </c>
       <c r="L449" s="59">
         <v>-31</v>
@@ -39741,10 +39510,10 @@
         <v>800</v>
       </c>
       <c r="Q449" s="59" t="s">
-        <v>1551</v>
+        <v>1536</v>
       </c>
       <c r="R449" s="60" t="s">
-        <v>1561</v>
+        <v>1546</v>
       </c>
       <c r="W449" s="5" t="s">
         <v>528</v>
@@ -39785,13 +39554,13 @@
         <v>1</v>
       </c>
       <c r="G450" s="61" t="s">
-        <v>1562</v>
+        <v>1547</v>
       </c>
       <c r="I450" s="61" t="s">
-        <v>1563</v>
+        <v>1548</v>
       </c>
       <c r="J450" s="61" t="s">
-        <v>1564</v>
+        <v>1549</v>
       </c>
       <c r="L450" s="61">
         <v>-31</v>
@@ -39809,10 +39578,10 @@
         <v>3800</v>
       </c>
       <c r="Q450" s="61" t="s">
-        <v>1551</v>
+        <v>1536</v>
       </c>
       <c r="R450" s="62" t="s">
-        <v>1565</v>
+        <v>1550</v>
       </c>
       <c r="W450" s="5" t="s">
         <v>528</v>
@@ -39853,13 +39622,13 @@
         <v>1</v>
       </c>
       <c r="G451" s="61" t="s">
-        <v>1566</v>
+        <v>1551</v>
       </c>
       <c r="I451" s="61" t="s">
-        <v>1567</v>
+        <v>1552</v>
       </c>
       <c r="J451" s="61" t="s">
-        <v>1568</v>
+        <v>1553</v>
       </c>
       <c r="L451" s="61">
         <v>-31</v>
@@ -39877,10 +39646,10 @@
         <v>3800</v>
       </c>
       <c r="Q451" s="61" t="s">
-        <v>1551</v>
+        <v>1536</v>
       </c>
       <c r="R451" s="62" t="s">
-        <v>1569</v>
+        <v>1554</v>
       </c>
       <c r="W451" s="5" t="s">
         <v>528</v>
@@ -39918,13 +39687,13 @@
         <v>1</v>
       </c>
       <c r="G452" s="61" t="s">
-        <v>1570</v>
+        <v>1555</v>
       </c>
       <c r="I452" s="61" t="s">
-        <v>1571</v>
+        <v>1556</v>
       </c>
       <c r="J452" s="61" t="s">
-        <v>1572</v>
+        <v>1557</v>
       </c>
       <c r="L452" s="61">
         <v>-31</v>
@@ -39942,10 +39711,10 @@
         <v>3800</v>
       </c>
       <c r="Q452" s="61" t="s">
-        <v>1551</v>
+        <v>1536</v>
       </c>
       <c r="R452" s="62" t="s">
-        <v>1573</v>
+        <v>1558</v>
       </c>
       <c r="W452" s="5" t="s">
         <v>528</v>
@@ -39986,13 +39755,13 @@
         <v>1</v>
       </c>
       <c r="G453" s="59" t="s">
-        <v>1574</v>
+        <v>1559</v>
       </c>
       <c r="I453" s="59" t="s">
-        <v>1575</v>
+        <v>1560</v>
       </c>
       <c r="J453" s="59" t="s">
-        <v>1576</v>
+        <v>1561</v>
       </c>
       <c r="L453" s="59">
         <v>-31</v>
@@ -40010,10 +39779,10 @@
         <v>9800</v>
       </c>
       <c r="Q453" s="59" t="s">
-        <v>1551</v>
+        <v>1536</v>
       </c>
       <c r="R453" s="60" t="s">
-        <v>1577</v>
+        <v>1562</v>
       </c>
       <c r="W453" s="5" t="s">
         <v>528</v>
@@ -40054,13 +39823,13 @@
         <v>1</v>
       </c>
       <c r="G454" s="59" t="s">
-        <v>1578</v>
+        <v>1563</v>
       </c>
       <c r="I454" s="59" t="s">
-        <v>1579</v>
+        <v>1564</v>
       </c>
       <c r="J454" s="59" t="s">
-        <v>1580</v>
+        <v>1565</v>
       </c>
       <c r="L454" s="59">
         <v>-31</v>
@@ -40078,10 +39847,10 @@
         <v>9800</v>
       </c>
       <c r="Q454" s="59" t="s">
-        <v>1551</v>
+        <v>1536</v>
       </c>
       <c r="R454" s="60" t="s">
-        <v>1581</v>
+        <v>1566</v>
       </c>
       <c r="W454" s="5" t="s">
         <v>528</v>
@@ -40119,13 +39888,13 @@
         <v>1</v>
       </c>
       <c r="G455" s="59" t="s">
-        <v>1582</v>
+        <v>1567</v>
       </c>
       <c r="I455" s="59" t="s">
-        <v>1583</v>
+        <v>1568</v>
       </c>
       <c r="J455" s="59" t="s">
-        <v>1584</v>
+        <v>1569</v>
       </c>
       <c r="L455" s="59">
         <v>-31</v>
@@ -40143,10 +39912,10 @@
         <v>9800</v>
       </c>
       <c r="Q455" s="59" t="s">
-        <v>1551</v>
+        <v>1536</v>
       </c>
       <c r="R455" s="60" t="s">
-        <v>1710</v>
+        <v>1695</v>
       </c>
       <c r="W455" s="5" t="s">
         <v>528</v>
@@ -40187,13 +39956,13 @@
         <v>1</v>
       </c>
       <c r="G456" s="61" t="s">
-        <v>1585</v>
+        <v>1570</v>
       </c>
       <c r="I456" s="61" t="s">
-        <v>1586</v>
+        <v>1571</v>
       </c>
       <c r="J456" s="61" t="s">
-        <v>1587</v>
+        <v>1572</v>
       </c>
       <c r="L456" s="61">
         <v>-31</v>
@@ -40211,10 +39980,10 @@
         <v>19800</v>
       </c>
       <c r="Q456" s="61" t="s">
-        <v>1551</v>
+        <v>1536</v>
       </c>
       <c r="R456" s="62" t="s">
-        <v>1588</v>
+        <v>1573</v>
       </c>
       <c r="W456" s="5" t="s">
         <v>528</v>
@@ -40255,13 +40024,13 @@
         <v>1</v>
       </c>
       <c r="G457" s="61" t="s">
-        <v>1589</v>
+        <v>1574</v>
       </c>
       <c r="I457" s="61" t="s">
-        <v>1590</v>
+        <v>1575</v>
       </c>
       <c r="J457" s="61" t="s">
-        <v>1591</v>
+        <v>1576</v>
       </c>
       <c r="L457" s="61">
         <v>-31</v>
@@ -40279,10 +40048,10 @@
         <v>19800</v>
       </c>
       <c r="Q457" s="61" t="s">
-        <v>1551</v>
+        <v>1536</v>
       </c>
       <c r="R457" s="62" t="s">
-        <v>1592</v>
+        <v>1577</v>
       </c>
       <c r="W457" s="5" t="s">
         <v>528</v>
@@ -40320,13 +40089,13 @@
         <v>1</v>
       </c>
       <c r="G458" s="61" t="s">
-        <v>1593</v>
+        <v>1578</v>
       </c>
       <c r="I458" s="61" t="s">
-        <v>1594</v>
+        <v>1579</v>
       </c>
       <c r="J458" s="61" t="s">
-        <v>1595</v>
+        <v>1580</v>
       </c>
       <c r="L458" s="61">
         <v>-31</v>
@@ -40344,10 +40113,10 @@
         <v>19800</v>
       </c>
       <c r="Q458" s="61" t="s">
-        <v>1551</v>
+        <v>1536</v>
       </c>
       <c r="R458" s="62" t="s">
-        <v>1596</v>
+        <v>1581</v>
       </c>
       <c r="W458" s="5" t="s">
         <v>528</v>
@@ -40388,13 +40157,13 @@
         <v>1</v>
       </c>
       <c r="G459" s="59" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="I459" s="59" t="s">
-        <v>1598</v>
+        <v>1583</v>
       </c>
       <c r="J459" s="59" t="s">
-        <v>1599</v>
+        <v>1584</v>
       </c>
       <c r="L459" s="59">
         <v>-31</v>
@@ -40412,10 +40181,10 @@
         <v>49800</v>
       </c>
       <c r="Q459" s="59" t="s">
-        <v>1551</v>
+        <v>1536</v>
       </c>
       <c r="R459" s="60" t="s">
-        <v>1600</v>
+        <v>1585</v>
       </c>
       <c r="W459" s="5" t="s">
         <v>528</v>
@@ -40456,13 +40225,13 @@
         <v>1</v>
       </c>
       <c r="G460" s="59" t="s">
-        <v>1601</v>
+        <v>1586</v>
       </c>
       <c r="I460" s="59" t="s">
-        <v>1602</v>
+        <v>1587</v>
       </c>
       <c r="J460" s="59" t="s">
-        <v>1603</v>
+        <v>1588</v>
       </c>
       <c r="L460" s="59">
         <v>-31</v>
@@ -40483,7 +40252,7 @@
         <v>995</v>
       </c>
       <c r="R460" s="60" t="s">
-        <v>1604</v>
+        <v>1589</v>
       </c>
       <c r="W460" s="5" t="s">
         <v>528</v>
@@ -40521,13 +40290,13 @@
         <v>1</v>
       </c>
       <c r="G461" s="59" t="s">
-        <v>1605</v>
+        <v>1590</v>
       </c>
       <c r="I461" s="59" t="s">
-        <v>1606</v>
+        <v>1591</v>
       </c>
       <c r="J461" s="59" t="s">
-        <v>1607</v>
+        <v>1592</v>
       </c>
       <c r="L461" s="59">
         <v>-31</v>
@@ -40545,10 +40314,10 @@
         <v>49800</v>
       </c>
       <c r="Q461" s="59" t="s">
-        <v>1551</v>
+        <v>1536</v>
       </c>
       <c r="R461" s="60" t="s">
-        <v>1608</v>
+        <v>1593</v>
       </c>
       <c r="W461" s="5" t="s">
         <v>528</v>
@@ -40589,13 +40358,13 @@
         <v>1</v>
       </c>
       <c r="G462" s="61" t="s">
-        <v>1609</v>
+        <v>1594</v>
       </c>
       <c r="I462" s="61" t="s">
-        <v>1610</v>
+        <v>1595</v>
       </c>
       <c r="J462" s="61" t="s">
-        <v>1611</v>
+        <v>1596</v>
       </c>
       <c r="L462" s="61">
         <v>-31</v>
@@ -40613,10 +40382,10 @@
         <v>99800</v>
       </c>
       <c r="Q462" s="61" t="s">
-        <v>1551</v>
+        <v>1536</v>
       </c>
       <c r="R462" s="62" t="s">
-        <v>1612</v>
+        <v>1597</v>
       </c>
       <c r="W462" s="5" t="s">
         <v>528</v>
@@ -40657,13 +40426,13 @@
         <v>1</v>
       </c>
       <c r="G463" s="61" t="s">
-        <v>1613</v>
+        <v>1598</v>
       </c>
       <c r="I463" s="61" t="s">
-        <v>1614</v>
+        <v>1599</v>
       </c>
       <c r="J463" s="61" t="s">
-        <v>1615</v>
+        <v>1600</v>
       </c>
       <c r="L463" s="61">
         <v>-31</v>
@@ -40681,10 +40450,10 @@
         <v>99800</v>
       </c>
       <c r="Q463" s="61" t="s">
-        <v>1551</v>
+        <v>1536</v>
       </c>
       <c r="R463" s="62" t="s">
-        <v>1616</v>
+        <v>1601</v>
       </c>
       <c r="W463" s="5" t="s">
         <v>528</v>
@@ -40722,13 +40491,13 @@
         <v>1</v>
       </c>
       <c r="G464" s="61" t="s">
-        <v>1617</v>
+        <v>1602</v>
       </c>
       <c r="I464" s="61" t="s">
-        <v>1618</v>
+        <v>1603</v>
       </c>
       <c r="J464" s="61" t="s">
-        <v>1619</v>
+        <v>1604</v>
       </c>
       <c r="L464" s="61">
         <v>-31</v>
@@ -40749,7 +40518,7 @@
         <v>995</v>
       </c>
       <c r="R464" s="62" t="s">
-        <v>1620</v>
+        <v>1605</v>
       </c>
       <c r="W464" s="5" t="s">
         <v>528</v>
@@ -40790,13 +40559,13 @@
         <v>1</v>
       </c>
       <c r="G465" s="59" t="s">
-        <v>1621</v>
+        <v>1606</v>
       </c>
       <c r="I465" s="59" t="s">
-        <v>1622</v>
+        <v>1607</v>
       </c>
       <c r="J465" s="59" t="s">
-        <v>1623</v>
+        <v>1608</v>
       </c>
       <c r="L465" s="59">
         <v>-31</v>
@@ -40814,10 +40583,10 @@
         <v>249800</v>
       </c>
       <c r="Q465" s="59" t="s">
-        <v>1551</v>
+        <v>1536</v>
       </c>
       <c r="R465" s="60" t="s">
-        <v>1624</v>
+        <v>1609</v>
       </c>
       <c r="W465" s="5" t="s">
         <v>528</v>
@@ -40858,13 +40627,13 @@
         <v>1</v>
       </c>
       <c r="G466" s="59" t="s">
-        <v>1625</v>
+        <v>1610</v>
       </c>
       <c r="I466" s="59" t="s">
-        <v>1626</v>
+        <v>1611</v>
       </c>
       <c r="J466" s="59" t="s">
-        <v>1627</v>
+        <v>1612</v>
       </c>
       <c r="L466" s="59">
         <v>-31</v>
@@ -40885,7 +40654,7 @@
         <v>995</v>
       </c>
       <c r="R466" s="60" t="s">
-        <v>1628</v>
+        <v>1613</v>
       </c>
       <c r="W466" s="5" t="s">
         <v>528</v>
@@ -40923,13 +40692,13 @@
         <v>1</v>
       </c>
       <c r="G467" s="59" t="s">
-        <v>1629</v>
+        <v>1614</v>
       </c>
       <c r="I467" s="59" t="s">
-        <v>1630</v>
+        <v>1615</v>
       </c>
       <c r="J467" s="59" t="s">
-        <v>1631</v>
+        <v>1616</v>
       </c>
       <c r="L467" s="59">
         <v>-31</v>
@@ -40950,7 +40719,7 @@
         <v>995</v>
       </c>
       <c r="R467" s="60" t="s">
-        <v>1632</v>
+        <v>1617</v>
       </c>
       <c r="W467" s="5" t="s">
         <v>528</v>
@@ -40991,13 +40760,13 @@
         <v>1</v>
       </c>
       <c r="G468" s="63" t="s">
-        <v>1633</v>
+        <v>1618</v>
       </c>
       <c r="I468" s="63" t="s">
-        <v>1635</v>
+        <v>1620</v>
       </c>
       <c r="J468" s="63" t="s">
-        <v>1636</v>
+        <v>1621</v>
       </c>
       <c r="L468" s="63">
         <v>-31</v>
@@ -41015,13 +40784,13 @@
         <v>600</v>
       </c>
       <c r="Q468" s="63" t="s">
-        <v>1551</v>
+        <v>1536</v>
       </c>
       <c r="R468" s="64" t="s">
-        <v>1637</v>
+        <v>1622</v>
       </c>
       <c r="W468" s="63" t="s">
-        <v>1638</v>
+        <v>1623</v>
       </c>
       <c r="X468" s="63">
         <v>9999999</v>
@@ -41056,13 +40825,13 @@
         <v>1</v>
       </c>
       <c r="G469" s="63" t="s">
-        <v>1639</v>
+        <v>1624</v>
       </c>
       <c r="I469" s="63" t="s">
-        <v>1635</v>
+        <v>1620</v>
       </c>
       <c r="J469" s="63" t="s">
-        <v>1640</v>
+        <v>1625</v>
       </c>
       <c r="L469" s="63">
         <v>-31</v>
@@ -41080,13 +40849,13 @@
         <v>3000</v>
       </c>
       <c r="Q469" s="63" t="s">
-        <v>1551</v>
+        <v>1536</v>
       </c>
       <c r="R469" s="64" t="s">
-        <v>1641</v>
+        <v>1626</v>
       </c>
       <c r="W469" s="63" t="s">
-        <v>1638</v>
+        <v>1623</v>
       </c>
       <c r="X469" s="63">
         <v>9999999</v>
@@ -41121,13 +40890,13 @@
         <v>1</v>
       </c>
       <c r="G470" s="63" t="s">
-        <v>1642</v>
+        <v>1627</v>
       </c>
       <c r="I470" s="63" t="s">
-        <v>1635</v>
+        <v>1620</v>
       </c>
       <c r="J470" s="63" t="s">
-        <v>1643</v>
+        <v>1628</v>
       </c>
       <c r="L470" s="63">
         <v>-31</v>
@@ -41145,13 +40914,13 @@
         <v>6800</v>
       </c>
       <c r="Q470" s="63" t="s">
-        <v>1551</v>
+        <v>1536</v>
       </c>
       <c r="R470" s="64" t="s">
-        <v>1644</v>
+        <v>1629</v>
       </c>
       <c r="W470" s="63" t="s">
-        <v>1638</v>
+        <v>1623</v>
       </c>
       <c r="X470" s="63">
         <v>9999999</v>
@@ -41186,13 +40955,13 @@
         <v>1</v>
       </c>
       <c r="G471" s="63" t="s">
-        <v>1645</v>
+        <v>1630</v>
       </c>
       <c r="I471" s="63" t="s">
-        <v>1635</v>
+        <v>1620</v>
       </c>
       <c r="J471" s="63" t="s">
-        <v>1646</v>
+        <v>1631</v>
       </c>
       <c r="L471" s="63">
         <v>-31</v>
@@ -41210,13 +40979,13 @@
         <v>9800</v>
       </c>
       <c r="Q471" s="63" t="s">
-        <v>1551</v>
+        <v>1536</v>
       </c>
       <c r="R471" s="64" t="s">
-        <v>1647</v>
+        <v>1632</v>
       </c>
       <c r="W471" s="63" t="s">
-        <v>1648</v>
+        <v>1633</v>
       </c>
       <c r="X471" s="63">
         <v>9999999</v>
@@ -41251,13 +41020,13 @@
         <v>1</v>
       </c>
       <c r="G472" s="63" t="s">
-        <v>1649</v>
+        <v>1634</v>
       </c>
       <c r="I472" s="63" t="s">
-        <v>1634</v>
+        <v>1619</v>
       </c>
       <c r="J472" s="63" t="s">
-        <v>1650</v>
+        <v>1635</v>
       </c>
       <c r="L472" s="63">
         <v>-31</v>
@@ -41275,13 +41044,13 @@
         <v>19800</v>
       </c>
       <c r="Q472" s="63" t="s">
-        <v>1551</v>
+        <v>1536</v>
       </c>
       <c r="R472" s="64" t="s">
-        <v>1651</v>
+        <v>1636</v>
       </c>
       <c r="W472" s="63" t="s">
-        <v>1648</v>
+        <v>1633</v>
       </c>
       <c r="X472" s="63">
         <v>9999999</v>
@@ -41316,13 +41085,13 @@
         <v>1</v>
       </c>
       <c r="G473" s="63" t="s">
-        <v>1652</v>
+        <v>1637</v>
       </c>
       <c r="I473" s="63" t="s">
-        <v>1635</v>
+        <v>1620</v>
       </c>
       <c r="J473" s="63" t="s">
-        <v>1653</v>
+        <v>1638</v>
       </c>
       <c r="L473" s="63">
         <v>-31</v>
@@ -41340,13 +41109,13 @@
         <v>49800</v>
       </c>
       <c r="Q473" s="63" t="s">
-        <v>1551</v>
+        <v>1536</v>
       </c>
       <c r="R473" s="64" t="s">
-        <v>1654</v>
+        <v>1639</v>
       </c>
       <c r="W473" s="63" t="s">
-        <v>1648</v>
+        <v>1633</v>
       </c>
       <c r="X473" s="63">
         <v>9999999</v>
@@ -41381,14 +41150,14 @@
         <v>1</v>
       </c>
       <c r="G474" s="55" t="s">
-        <v>1655</v>
+        <v>1640</v>
       </c>
       <c r="H474" s="75"/>
       <c r="I474" s="55" t="s">
-        <v>1635</v>
+        <v>1620</v>
       </c>
       <c r="J474" s="55" t="s">
-        <v>1656</v>
+        <v>1641</v>
       </c>
       <c r="L474" s="55">
         <v>-31</v>
@@ -41406,13 +41175,13 @@
         <v>99800</v>
       </c>
       <c r="Q474" s="55" t="s">
-        <v>1551</v>
+        <v>1536</v>
       </c>
       <c r="R474" s="56" t="s">
-        <v>1657</v>
+        <v>1642</v>
       </c>
       <c r="W474" s="63" t="s">
-        <v>1648</v>
+        <v>1633</v>
       </c>
       <c r="X474" s="55">
         <v>9999999</v>
@@ -41447,14 +41216,14 @@
         <v>1</v>
       </c>
       <c r="G475" s="55" t="s">
-        <v>1658</v>
+        <v>1643</v>
       </c>
       <c r="H475" s="75"/>
       <c r="I475" s="55" t="s">
-        <v>1635</v>
+        <v>1620</v>
       </c>
       <c r="J475" s="55" t="s">
-        <v>1712</v>
+        <v>1697</v>
       </c>
       <c r="L475" s="55">
         <v>-31</v>
@@ -41472,13 +41241,13 @@
         <v>249800</v>
       </c>
       <c r="Q475" s="55" t="s">
-        <v>1551</v>
+        <v>1536</v>
       </c>
       <c r="R475" s="56" t="s">
-        <v>1711</v>
+        <v>1696</v>
       </c>
       <c r="W475" s="63" t="s">
-        <v>1648</v>
+        <v>1633</v>
       </c>
       <c r="X475" s="55">
         <v>9999999</v>
@@ -41513,13 +41282,13 @@
         <v>1</v>
       </c>
       <c r="G476" s="67" t="s">
-        <v>1689</v>
+        <v>1674</v>
       </c>
       <c r="I476" s="67" t="s">
-        <v>1690</v>
+        <v>1675</v>
       </c>
       <c r="J476" s="67" t="s">
-        <v>1691</v>
+        <v>1676</v>
       </c>
       <c r="L476" s="67">
         <v>-31</v>
@@ -41537,13 +41306,13 @@
         <v>49800</v>
       </c>
       <c r="Q476" s="67" t="s">
-        <v>1693</v>
+        <v>1678</v>
       </c>
       <c r="R476" s="68" t="s">
-        <v>1694</v>
+        <v>1679</v>
       </c>
       <c r="W476" s="67" t="s">
-        <v>1695</v>
+        <v>1680</v>
       </c>
       <c r="X476" s="67">
         <v>9999999</v>
@@ -41578,13 +41347,13 @@
         <v>1</v>
       </c>
       <c r="G477" s="67" t="s">
-        <v>1696</v>
+        <v>1681</v>
       </c>
       <c r="I477" s="67" t="s">
-        <v>1697</v>
+        <v>1682</v>
       </c>
       <c r="J477" s="67" t="s">
-        <v>1698</v>
+        <v>1683</v>
       </c>
       <c r="L477" s="67">
         <v>-31</v>
@@ -41596,19 +41365,19 @@
         <v>0</v>
       </c>
       <c r="O477" s="67" t="s">
-        <v>1699</v>
+        <v>1684</v>
       </c>
       <c r="P477" s="67">
         <v>19800</v>
       </c>
       <c r="Q477" s="67" t="s">
-        <v>1692</v>
+        <v>1677</v>
       </c>
       <c r="R477" s="68" t="s">
-        <v>1700</v>
+        <v>1685</v>
       </c>
       <c r="W477" s="67" t="s">
-        <v>1701</v>
+        <v>1686</v>
       </c>
       <c r="X477" s="67">
         <v>9999999</v>
@@ -41643,13 +41412,13 @@
         <v>1</v>
       </c>
       <c r="G478" s="67" t="s">
-        <v>1689</v>
+        <v>1674</v>
       </c>
       <c r="I478" s="67" t="s">
-        <v>1702</v>
+        <v>1687</v>
       </c>
       <c r="J478" s="67" t="s">
-        <v>1703</v>
+        <v>1688</v>
       </c>
       <c r="L478" s="67">
         <v>-31</v>
@@ -41661,16 +41430,16 @@
         <v>0</v>
       </c>
       <c r="O478" s="67" t="s">
-        <v>1699</v>
+        <v>1684</v>
       </c>
       <c r="P478" s="67">
         <v>9800</v>
       </c>
       <c r="Q478" s="67" t="s">
-        <v>1704</v>
+        <v>1689</v>
       </c>
       <c r="R478" s="68" t="s">
-        <v>1705</v>
+        <v>1690</v>
       </c>
       <c r="W478" s="67" t="s">
         <v>528</v>
@@ -41708,13 +41477,13 @@
         <v>1</v>
       </c>
       <c r="G479" s="67" t="s">
-        <v>1689</v>
+        <v>1674</v>
       </c>
       <c r="I479" s="67" t="s">
-        <v>1706</v>
+        <v>1691</v>
       </c>
       <c r="J479" s="67" t="s">
-        <v>1707</v>
+        <v>1692</v>
       </c>
       <c r="L479" s="67">
         <v>-31</v>
@@ -41726,19 +41495,19 @@
         <v>0</v>
       </c>
       <c r="O479" s="67" t="s">
-        <v>1699</v>
+        <v>1684</v>
       </c>
       <c r="P479" s="67">
         <v>4800</v>
       </c>
       <c r="Q479" s="67" t="s">
-        <v>1708</v>
+        <v>1693</v>
       </c>
       <c r="R479" s="68" t="s">
-        <v>1709</v>
+        <v>1694</v>
       </c>
       <c r="W479" s="67" t="s">
-        <v>1695</v>
+        <v>1680</v>
       </c>
       <c r="X479" s="67">
         <v>9999999</v>
@@ -41773,10 +41542,10 @@
         <v>1</v>
       </c>
       <c r="G480" s="53" t="s">
-        <v>1713</v>
+        <v>1698</v>
       </c>
       <c r="J480" s="53" t="s">
-        <v>1714</v>
+        <v>1699</v>
       </c>
       <c r="L480" s="53">
         <v>-31</v>
@@ -41794,13 +41563,13 @@
         <v>49800</v>
       </c>
       <c r="Q480" s="53" t="s">
-        <v>1715</v>
+        <v>1700</v>
       </c>
       <c r="R480" s="54" t="s">
-        <v>1716</v>
+        <v>1701</v>
       </c>
       <c r="W480" s="53" t="s">
-        <v>1516</v>
+        <v>1501</v>
       </c>
       <c r="X480" s="53">
         <v>9999999</v>
@@ -41838,7 +41607,7 @@
         <v>356</v>
       </c>
       <c r="J481" s="53" t="s">
-        <v>1717</v>
+        <v>1702</v>
       </c>
       <c r="L481" s="53">
         <v>-31</v>
@@ -41856,13 +41625,13 @@
         <v>19800</v>
       </c>
       <c r="Q481" s="53" t="s">
-        <v>1715</v>
+        <v>1700</v>
       </c>
       <c r="R481" s="54" t="s">
-        <v>1718</v>
+        <v>1703</v>
       </c>
       <c r="W481" s="53" t="s">
-        <v>1719</v>
+        <v>1704</v>
       </c>
       <c r="X481" s="53">
         <v>9999999</v>
@@ -41900,7 +41669,7 @@
         <v>355</v>
       </c>
       <c r="J482" s="53" t="s">
-        <v>1521</v>
+        <v>1506</v>
       </c>
       <c r="L482" s="53">
         <v>-31</v>
@@ -41918,13 +41687,13 @@
         <v>9800</v>
       </c>
       <c r="Q482" s="53" t="s">
-        <v>1715</v>
+        <v>1700</v>
       </c>
       <c r="R482" s="54" t="s">
-        <v>1720</v>
+        <v>1705</v>
       </c>
       <c r="W482" s="53" t="s">
-        <v>1719</v>
+        <v>1704</v>
       </c>
       <c r="X482" s="53">
         <v>9999999</v>
@@ -41962,7 +41731,7 @@
         <v>354</v>
       </c>
       <c r="J483" s="53" t="s">
-        <v>1721</v>
+        <v>1706</v>
       </c>
       <c r="L483" s="53">
         <v>-31</v>
@@ -41980,13 +41749,13 @@
         <v>4800</v>
       </c>
       <c r="Q483" s="53" t="s">
-        <v>1715</v>
+        <v>1700</v>
       </c>
       <c r="R483" s="54" t="s">
-        <v>1722</v>
+        <v>1707</v>
       </c>
       <c r="W483" s="53" t="s">
-        <v>1719</v>
+        <v>1704</v>
       </c>
       <c r="X483" s="53">
         <v>9999999</v>
@@ -42021,10 +41790,10 @@
         <v>1</v>
       </c>
       <c r="G484" s="53" t="s">
-        <v>1723</v>
+        <v>1708</v>
       </c>
       <c r="J484" s="53" t="s">
-        <v>1724</v>
+        <v>1709</v>
       </c>
       <c r="L484" s="53">
         <v>-31</v>
@@ -42042,13 +41811,13 @@
         <v>2000</v>
       </c>
       <c r="Q484" s="53" t="s">
-        <v>1715</v>
+        <v>1700</v>
       </c>
       <c r="R484" s="54" t="s">
-        <v>1725</v>
+        <v>1710</v>
       </c>
       <c r="W484" s="53" t="s">
-        <v>1726</v>
+        <v>1711</v>
       </c>
       <c r="X484" s="53">
         <v>9999999</v>
@@ -42083,10 +41852,10 @@
         <v>1</v>
       </c>
       <c r="G485" s="53" t="s">
-        <v>1727</v>
+        <v>1712</v>
       </c>
       <c r="J485" s="53" t="s">
-        <v>1532</v>
+        <v>1517</v>
       </c>
       <c r="L485" s="53">
         <v>-31</v>
@@ -42104,10 +41873,10 @@
         <v>600</v>
       </c>
       <c r="Q485" s="53" t="s">
-        <v>1715</v>
+        <v>1700</v>
       </c>
       <c r="R485" s="54" t="s">
-        <v>1334</v>
+        <v>1323</v>
       </c>
       <c r="W485" s="53" t="s">
         <v>567</v>
@@ -42145,13 +41914,13 @@
         <v>1</v>
       </c>
       <c r="G486" s="19" t="s">
-        <v>1831</v>
+        <v>1816</v>
       </c>
       <c r="I486" s="19" t="s">
-        <v>1832</v>
+        <v>1817</v>
       </c>
       <c r="J486" s="19" t="s">
-        <v>1486</v>
+        <v>1471</v>
       </c>
       <c r="L486" s="19">
         <v>-31</v>
@@ -42169,10 +41938,10 @@
         <v>1800</v>
       </c>
       <c r="Q486" s="19" t="s">
-        <v>1834</v>
+        <v>1819</v>
       </c>
       <c r="R486" s="39" t="s">
-        <v>1488</v>
+        <v>1473</v>
       </c>
       <c r="W486" s="19" t="s">
         <v>528</v>
@@ -42210,13 +41979,13 @@
         <v>1</v>
       </c>
       <c r="G487" s="19" t="s">
-        <v>1835</v>
+        <v>1820</v>
       </c>
       <c r="I487" s="19" t="s">
-        <v>1836</v>
+        <v>1821</v>
       </c>
       <c r="J487" s="19" t="s">
-        <v>1837</v>
+        <v>1822</v>
       </c>
       <c r="L487" s="19">
         <v>-31</v>
@@ -42234,10 +42003,10 @@
         <v>4800</v>
       </c>
       <c r="Q487" s="19" t="s">
-        <v>1833</v>
+        <v>1818</v>
       </c>
       <c r="R487" s="39" t="s">
-        <v>1838</v>
+        <v>1823</v>
       </c>
       <c r="W487" s="19" t="s">
         <v>528</v>
@@ -42275,13 +42044,13 @@
         <v>1</v>
       </c>
       <c r="G488" s="19" t="s">
-        <v>1839</v>
+        <v>1824</v>
       </c>
       <c r="I488" s="19" t="s">
-        <v>1485</v>
+        <v>1470</v>
       </c>
       <c r="J488" s="19" t="s">
-        <v>1494</v>
+        <v>1479</v>
       </c>
       <c r="L488" s="19">
         <v>-31</v>
@@ -42299,10 +42068,10 @@
         <v>9800</v>
       </c>
       <c r="Q488" s="19" t="s">
-        <v>1840</v>
+        <v>1825</v>
       </c>
       <c r="R488" s="39" t="s">
-        <v>1841</v>
+        <v>1826</v>
       </c>
       <c r="W488" s="19" t="s">
         <v>528</v>
@@ -42340,13 +42109,13 @@
         <v>1</v>
       </c>
       <c r="G489" s="19" t="s">
-        <v>1842</v>
+        <v>1827</v>
       </c>
       <c r="I489" s="19" t="s">
-        <v>1836</v>
+        <v>1821</v>
       </c>
       <c r="J489" s="19" t="s">
-        <v>1843</v>
+        <v>1828</v>
       </c>
       <c r="L489" s="19">
         <v>-31</v>
@@ -42364,10 +42133,10 @@
         <v>19800</v>
       </c>
       <c r="Q489" s="19" t="s">
-        <v>1844</v>
+        <v>1829</v>
       </c>
       <c r="R489" s="39" t="s">
-        <v>1845</v>
+        <v>1830</v>
       </c>
       <c r="W489" s="19" t="s">
         <v>528</v>
@@ -42405,13 +42174,13 @@
         <v>1</v>
       </c>
       <c r="G490" s="19" t="s">
-        <v>1492</v>
+        <v>1477</v>
       </c>
       <c r="I490" s="19" t="s">
-        <v>1846</v>
+        <v>1831</v>
       </c>
       <c r="J490" s="19" t="s">
-        <v>1847</v>
+        <v>1832</v>
       </c>
       <c r="L490" s="19">
         <v>-31</v>
@@ -42429,10 +42198,10 @@
         <v>29800</v>
       </c>
       <c r="Q490" s="19" t="s">
-        <v>1499</v>
+        <v>1484</v>
       </c>
       <c r="R490" s="39" t="s">
-        <v>1848</v>
+        <v>1833</v>
       </c>
       <c r="W490" s="19" t="s">
         <v>528</v>
@@ -42470,13 +42239,13 @@
         <v>1</v>
       </c>
       <c r="G491" s="19" t="s">
-        <v>1849</v>
+        <v>1834</v>
       </c>
       <c r="I491" s="19" t="s">
-        <v>1485</v>
+        <v>1470</v>
       </c>
       <c r="J491" s="19" t="s">
-        <v>1850</v>
+        <v>1835</v>
       </c>
       <c r="L491" s="19">
         <v>-31</v>
@@ -42494,10 +42263,10 @@
         <v>49800</v>
       </c>
       <c r="Q491" s="19" t="s">
-        <v>1851</v>
+        <v>1836</v>
       </c>
       <c r="R491" s="39" t="s">
-        <v>1852</v>
+        <v>1837</v>
       </c>
       <c r="W491" s="19" t="s">
         <v>528</v>
@@ -42535,13 +42304,13 @@
         <v>1</v>
       </c>
       <c r="G492" s="19" t="s">
-        <v>1484</v>
+        <v>1469</v>
       </c>
       <c r="I492" s="19" t="s">
-        <v>1485</v>
+        <v>1470</v>
       </c>
       <c r="J492" s="19" t="s">
-        <v>1853</v>
+        <v>1838</v>
       </c>
       <c r="L492" s="19">
         <v>-31</v>
@@ -42553,19 +42322,19 @@
         <v>0</v>
       </c>
       <c r="O492" s="19" t="s">
-        <v>1854</v>
+        <v>1839</v>
       </c>
       <c r="P492" s="19">
         <v>99800</v>
       </c>
       <c r="Q492" s="19" t="s">
-        <v>1855</v>
+        <v>1840</v>
       </c>
       <c r="R492" s="39" t="s">
-        <v>1856</v>
+        <v>1841</v>
       </c>
       <c r="W492" s="19" t="s">
-        <v>1695</v>
+        <v>1680</v>
       </c>
       <c r="X492" s="19">
         <v>9999999</v>
@@ -42987,7 +42756,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>1230</v>
+        <v>1219</v>
       </c>
       <c r="C27" s="12">
         <v>1</v>
@@ -43001,7 +42770,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>1231</v>
+        <v>1220</v>
       </c>
       <c r="C28" s="12">
         <v>1</v>
@@ -43015,7 +42784,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>1232</v>
+        <v>1221</v>
       </c>
       <c r="C29" s="12">
         <v>1</v>
@@ -43029,7 +42798,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>1233</v>
+        <v>1222</v>
       </c>
       <c r="C30" s="12">
         <v>1</v>
@@ -43043,7 +42812,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>1234</v>
+        <v>1223</v>
       </c>
       <c r="C31" s="12">
         <v>1</v>
@@ -43057,7 +42826,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>1235</v>
+        <v>1224</v>
       </c>
       <c r="C32" s="12">
         <v>1</v>
@@ -43071,7 +42840,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>1236</v>
+        <v>1225</v>
       </c>
       <c r="C33" s="12">
         <v>1</v>
@@ -43085,7 +42854,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>1237</v>
+        <v>1226</v>
       </c>
       <c r="C34" s="12">
         <v>1</v>
@@ -43099,7 +42868,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>1238</v>
+        <v>1227</v>
       </c>
       <c r="C35" s="12">
         <v>1</v>
@@ -43113,7 +42882,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>1239</v>
+        <v>1228</v>
       </c>
       <c r="C36" s="12">
         <v>1</v>
@@ -43127,7 +42896,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>1240</v>
+        <v>1229</v>
       </c>
       <c r="C37" s="12">
         <v>1</v>
@@ -43141,7 +42910,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>1241</v>
+        <v>1230</v>
       </c>
       <c r="C38" s="12">
         <v>1</v>
@@ -43155,7 +42924,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>1242</v>
+        <v>1231</v>
       </c>
       <c r="C39" s="12">
         <v>1</v>
@@ -43169,7 +42938,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>1243</v>
+        <v>1232</v>
       </c>
       <c r="C40" s="12">
         <v>1</v>
@@ -43183,7 +42952,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>1244</v>
+        <v>1233</v>
       </c>
       <c r="C41" s="12">
         <v>1</v>
@@ -43197,7 +42966,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>1245</v>
+        <v>1234</v>
       </c>
       <c r="C42" s="12">
         <v>1</v>
@@ -43211,7 +42980,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>1275</v>
+        <v>1264</v>
       </c>
       <c r="C43" s="12">
         <v>1</v>
@@ -43225,7 +42994,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>1276</v>
+        <v>1265</v>
       </c>
       <c r="C44" s="12">
         <v>1</v>
@@ -43239,7 +43008,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>1321</v>
+        <v>1310</v>
       </c>
       <c r="C45" s="12">
         <v>1</v>
@@ -43253,7 +43022,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>1322</v>
+        <v>1311</v>
       </c>
       <c r="C46" s="12">
         <v>1</v>
@@ -43267,7 +43036,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>1323</v>
+        <v>1312</v>
       </c>
       <c r="C47" s="12">
         <v>1</v>
@@ -43281,7 +43050,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="48" t="s">
-        <v>1379</v>
+        <v>1368</v>
       </c>
       <c r="C48" s="47">
         <v>1</v>
@@ -43295,7 +43064,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="48" t="s">
-        <v>1397</v>
+        <v>1385</v>
       </c>
       <c r="C49" s="47">
         <v>1</v>
@@ -43309,7 +43078,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="48" t="s">
-        <v>1398</v>
+        <v>1386</v>
       </c>
       <c r="C50" s="47">
         <v>1</v>
@@ -43323,7 +43092,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="48" t="s">
-        <v>1399</v>
+        <v>1387</v>
       </c>
       <c r="C51" s="47">
         <v>1</v>
@@ -43337,7 +43106,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="48" t="s">
-        <v>1400</v>
+        <v>1388</v>
       </c>
       <c r="C52" s="47">
         <v>1</v>
@@ -43351,7 +43120,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="58" t="s">
-        <v>1534</v>
+        <v>1519</v>
       </c>
       <c r="C53" s="57">
         <v>1</v>
@@ -43365,7 +43134,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="58" t="s">
-        <v>1535</v>
+        <v>1520</v>
       </c>
       <c r="C54" s="57">
         <v>1</v>
@@ -43379,7 +43148,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="58" t="s">
-        <v>1536</v>
+        <v>1521</v>
       </c>
       <c r="C55" s="57">
         <v>1</v>
@@ -43393,7 +43162,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="58" t="s">
-        <v>1537</v>
+        <v>1522</v>
       </c>
       <c r="C56" s="57">
         <v>1</v>
@@ -43407,7 +43176,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="58" t="s">
-        <v>1538</v>
+        <v>1523</v>
       </c>
       <c r="C57" s="57">
         <v>1</v>
@@ -43421,7 +43190,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="58" t="s">
-        <v>1539</v>
+        <v>1524</v>
       </c>
       <c r="C58" s="57">
         <v>1</v>
@@ -43435,7 +43204,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="58" t="s">
-        <v>1540</v>
+        <v>1525</v>
       </c>
       <c r="C59" s="57">
         <v>1</v>
@@ -43449,7 +43218,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="58" t="s">
-        <v>1541</v>
+        <v>1526</v>
       </c>
       <c r="C60" s="57">
         <v>1</v>
@@ -43463,7 +43232,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="58" t="s">
-        <v>1542</v>
+        <v>1527</v>
       </c>
       <c r="C61" s="57">
         <v>1</v>
@@ -43477,7 +43246,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="58" t="s">
-        <v>1543</v>
+        <v>1528</v>
       </c>
       <c r="C62" s="57">
         <v>1</v>
@@ -43491,7 +43260,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="58" t="s">
-        <v>1544</v>
+        <v>1529</v>
       </c>
       <c r="C63" s="57">
         <v>1</v>
@@ -43505,7 +43274,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="58" t="s">
-        <v>1545</v>
+        <v>1530</v>
       </c>
       <c r="C64" s="57">
         <v>1</v>
@@ -43519,7 +43288,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="58" t="s">
-        <v>1546</v>
+        <v>1531</v>
       </c>
       <c r="C65" s="57">
         <v>1</v>
@@ -43533,7 +43302,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="58" t="s">
-        <v>1547</v>
+        <v>1532</v>
       </c>
       <c r="C66" s="57">
         <v>1</v>
@@ -43632,7 +43401,7 @@
         <v>29</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>1817</v>
+        <v>1802</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>30</v>
@@ -43715,19 +43484,19 @@
         <v>3</v>
       </c>
       <c r="P2" s="33" t="s">
-        <v>1857</v>
+        <v>1842</v>
       </c>
       <c r="Q2" s="33" t="s">
-        <v>1858</v>
+        <v>1843</v>
       </c>
       <c r="S2" s="33" t="s">
-        <v>1081</v>
+        <v>1072</v>
       </c>
       <c r="T2" s="11" t="s">
         <v>47</v>
       </c>
       <c r="U2" s="33" t="s">
-        <v>1082</v>
+        <v>1073</v>
       </c>
       <c r="V2" s="11" t="s">
         <v>407</v>
@@ -43783,19 +43552,19 @@
         <v>4</v>
       </c>
       <c r="P3" s="33" t="s">
-        <v>1859</v>
+        <v>1844</v>
       </c>
       <c r="Q3" s="33" t="s">
-        <v>1860</v>
+        <v>1845</v>
       </c>
       <c r="S3" s="33" t="s">
-        <v>1081</v>
+        <v>1072</v>
       </c>
       <c r="T3" s="11" t="s">
         <v>49</v>
       </c>
       <c r="U3" s="33" t="s">
-        <v>1083</v>
+        <v>1074</v>
       </c>
       <c r="V3" s="11" t="s">
         <v>407</v>
@@ -43851,13 +43620,13 @@
         <v>5</v>
       </c>
       <c r="P4" s="33" t="s">
-        <v>1861</v>
+        <v>1846</v>
       </c>
       <c r="Q4" s="33" t="s">
-        <v>1862</v>
+        <v>1847</v>
       </c>
       <c r="S4" s="33" t="s">
-        <v>1081</v>
+        <v>1072</v>
       </c>
       <c r="T4" s="11" t="s">
         <v>50</v>
@@ -43919,19 +43688,19 @@
         <v>6</v>
       </c>
       <c r="P5" s="33" t="s">
-        <v>1863</v>
+        <v>1848</v>
       </c>
       <c r="Q5" s="33" t="s">
-        <v>1864</v>
+        <v>1849</v>
       </c>
       <c r="S5" s="33" t="s">
-        <v>1081</v>
+        <v>1072</v>
       </c>
       <c r="T5" s="11" t="s">
         <v>51</v>
       </c>
       <c r="U5" s="33" t="s">
-        <v>1084</v>
+        <v>1075</v>
       </c>
       <c r="V5" s="11" t="s">
         <v>407</v>
@@ -43987,13 +43756,13 @@
         <v>7</v>
       </c>
       <c r="P6" s="33" t="s">
-        <v>1865</v>
+        <v>1850</v>
       </c>
       <c r="Q6" s="33" t="s">
-        <v>1866</v>
+        <v>1851</v>
       </c>
       <c r="S6" s="33" t="s">
-        <v>1081</v>
+        <v>1072</v>
       </c>
       <c r="T6" s="11" t="s">
         <v>52</v>
@@ -44055,13 +43824,13 @@
         <v>9</v>
       </c>
       <c r="P7" s="33" t="s">
-        <v>1867</v>
+        <v>1852</v>
       </c>
       <c r="Q7" s="33" t="s">
-        <v>1868</v>
+        <v>1853</v>
       </c>
       <c r="S7" s="33" t="s">
-        <v>1081</v>
+        <v>1072</v>
       </c>
       <c r="T7" s="11" t="s">
         <v>53</v>
@@ -44120,19 +43889,19 @@
         <v>0</v>
       </c>
       <c r="P8" s="33" t="s">
-        <v>1869</v>
+        <v>1854</v>
       </c>
       <c r="Q8" s="33" t="s">
-        <v>1870</v>
+        <v>1855</v>
       </c>
       <c r="S8" s="33" t="s">
-        <v>1081</v>
+        <v>1072</v>
       </c>
       <c r="T8" s="11" t="s">
         <v>47</v>
       </c>
       <c r="U8" s="33" t="s">
-        <v>1082</v>
+        <v>1073</v>
       </c>
       <c r="V8" s="11" t="s">
         <v>407</v>
@@ -44187,10 +43956,10 @@
         <v>2</v>
       </c>
       <c r="P9" s="35" t="s">
-        <v>1819</v>
+        <v>1804</v>
       </c>
       <c r="Q9" s="35" t="s">
-        <v>1820</v>
+        <v>1805</v>
       </c>
       <c r="R9" s="34"/>
       <c r="S9" s="34"/>
@@ -44214,7 +43983,7 @@
       <c r="AA9" s="34"/>
       <c r="AB9" s="34"/>
       <c r="AC9" s="35" t="s">
-        <v>1085</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="10" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -44260,10 +44029,10 @@
         <v>1</v>
       </c>
       <c r="P10" s="35" t="s">
-        <v>1822</v>
+        <v>1807</v>
       </c>
       <c r="Q10" s="35" t="s">
-        <v>1823</v>
+        <v>1808</v>
       </c>
       <c r="R10" s="34"/>
       <c r="S10" s="34"/>
@@ -44287,7 +44056,7 @@
       <c r="AA10" s="34"/>
       <c r="AB10" s="34"/>
       <c r="AC10" s="35" t="s">
-        <v>1086</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="11" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -44331,13 +44100,13 @@
         <v>0</v>
       </c>
       <c r="P11" s="33" t="s">
-        <v>1859</v>
+        <v>1844</v>
       </c>
       <c r="Q11" s="33" t="s">
-        <v>1860</v>
+        <v>1845</v>
       </c>
       <c r="S11" s="33" t="s">
-        <v>1081</v>
+        <v>1072</v>
       </c>
       <c r="T11" s="23" t="s">
         <v>49</v>
@@ -44363,7 +44132,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>1087</v>
+        <v>1078</v>
       </c>
       <c r="D12" s="11">
         <v>109</v>
@@ -44399,13 +44168,13 @@
         <v>9</v>
       </c>
       <c r="P12" s="33" t="s">
-        <v>1871</v>
+        <v>1856</v>
       </c>
       <c r="Q12" s="33" t="s">
-        <v>1872</v>
+        <v>1857</v>
       </c>
       <c r="S12" s="33" t="s">
-        <v>1081</v>
+        <v>1072</v>
       </c>
       <c r="T12" s="11" t="s">
         <v>54</v>
@@ -44467,13 +44236,13 @@
         <v>10</v>
       </c>
       <c r="P13" s="33" t="s">
-        <v>1873</v>
+        <v>1858</v>
       </c>
       <c r="Q13" s="33" t="s">
-        <v>1874</v>
+        <v>1859</v>
       </c>
       <c r="S13" s="33" t="s">
-        <v>1081</v>
+        <v>1072</v>
       </c>
       <c r="T13" s="11" t="s">
         <v>409</v>
@@ -44535,13 +44304,13 @@
         <v>11</v>
       </c>
       <c r="P14" s="33" t="s">
-        <v>1875</v>
+        <v>1860</v>
       </c>
       <c r="Q14" s="33" t="s">
-        <v>1876</v>
+        <v>1861</v>
       </c>
       <c r="S14" s="33" t="s">
-        <v>1088</v>
+        <v>1079</v>
       </c>
       <c r="T14" s="11" t="s">
         <v>410</v>
@@ -44574,7 +44343,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>1089</v>
+        <v>1080</v>
       </c>
       <c r="G15" s="34">
         <v>100</v>
@@ -44604,10 +44373,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="35" t="s">
-        <v>1827</v>
+        <v>1812</v>
       </c>
       <c r="Q15" s="35" t="s">
-        <v>1826</v>
+        <v>1811</v>
       </c>
       <c r="R15" s="34"/>
       <c r="S15" s="35"/>
@@ -44615,7 +44384,7 @@
         <v>100</v>
       </c>
       <c r="U15" s="35" t="s">
-        <v>1082</v>
+        <v>1073</v>
       </c>
       <c r="V15" s="34" t="s">
         <v>407</v>
@@ -44631,7 +44400,7 @@
       <c r="AA15" s="34"/>
       <c r="AB15" s="34"/>
       <c r="AC15" s="35" t="s">
-        <v>1090</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="16" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -44678,20 +44447,20 @@
         <v>3</v>
       </c>
       <c r="P16" s="33" t="s">
-        <v>1877</v>
+        <v>1862</v>
       </c>
       <c r="Q16" s="33" t="s">
-        <v>1878</v>
+        <v>1863</v>
       </c>
       <c r="R16" s="12"/>
       <c r="S16" s="33" t="s">
-        <v>1081</v>
+        <v>1072</v>
       </c>
       <c r="T16" s="11" t="s">
         <v>61</v>
       </c>
       <c r="U16" s="33" t="s">
-        <v>1082</v>
+        <v>1073</v>
       </c>
       <c r="V16" s="11" t="s">
         <v>407</v>
@@ -44746,14 +44515,14 @@
         <v>4</v>
       </c>
       <c r="P17" s="33" t="s">
-        <v>1879</v>
+        <v>1864</v>
       </c>
       <c r="Q17" s="33" t="s">
-        <v>1880</v>
+        <v>1865</v>
       </c>
       <c r="R17" s="12"/>
       <c r="S17" s="33" t="s">
-        <v>1081</v>
+        <v>1072</v>
       </c>
       <c r="T17" s="11" t="s">
         <v>64</v>
@@ -44814,14 +44583,14 @@
         <v>5</v>
       </c>
       <c r="P18" s="33" t="s">
-        <v>1881</v>
+        <v>1866</v>
       </c>
       <c r="Q18" s="33" t="s">
-        <v>1882</v>
+        <v>1867</v>
       </c>
       <c r="R18" s="12"/>
       <c r="S18" s="33" t="s">
-        <v>1081</v>
+        <v>1072</v>
       </c>
       <c r="T18" s="11" t="s">
         <v>67</v>
@@ -44882,14 +44651,14 @@
         <v>6</v>
       </c>
       <c r="P19" s="33" t="s">
-        <v>1883</v>
+        <v>1868</v>
       </c>
       <c r="Q19" s="33" t="s">
-        <v>1884</v>
+        <v>1869</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="33" t="s">
-        <v>1080</v>
+        <v>1071</v>
       </c>
       <c r="T19" s="11" t="s">
         <v>71</v>
@@ -44950,10 +44719,10 @@
         <v>7</v>
       </c>
       <c r="P20" s="33" t="s">
-        <v>1885</v>
+        <v>1870</v>
       </c>
       <c r="Q20" s="33" t="s">
-        <v>1886</v>
+        <v>1871</v>
       </c>
       <c r="S20" s="33" t="s">
         <v>939</v>
@@ -45020,11 +44789,11 @@
         <v>901</v>
       </c>
       <c r="Q21" s="33" t="s">
-        <v>1887</v>
+        <v>1872</v>
       </c>
       <c r="R21" s="11"/>
       <c r="S21" s="33" t="s">
-        <v>1080</v>
+        <v>1071</v>
       </c>
       <c r="T21" s="11" t="s">
         <v>77</v>
@@ -45090,10 +44859,10 @@
         <v>2</v>
       </c>
       <c r="P22" s="35" t="s">
-        <v>1818</v>
+        <v>1803</v>
       </c>
       <c r="Q22" s="35" t="s">
-        <v>1829</v>
+        <v>1814</v>
       </c>
       <c r="R22" s="34"/>
       <c r="S22" s="35"/>
@@ -45101,7 +44870,7 @@
         <v>5000</v>
       </c>
       <c r="U22" s="35" t="s">
-        <v>1084</v>
+        <v>1075</v>
       </c>
       <c r="V22" s="34" t="s">
         <v>407</v>
@@ -45161,10 +44930,10 @@
         <v>1</v>
       </c>
       <c r="P23" s="35" t="s">
-        <v>1821</v>
+        <v>1806</v>
       </c>
       <c r="Q23" s="35" t="s">
-        <v>1823</v>
+        <v>1808</v>
       </c>
       <c r="R23" s="34"/>
       <c r="S23" s="35"/>
@@ -45234,10 +45003,10 @@
         <v>0</v>
       </c>
       <c r="P24" s="35" t="s">
-        <v>1824</v>
+        <v>1809</v>
       </c>
       <c r="Q24" s="35" t="s">
-        <v>1825</v>
+        <v>1810</v>
       </c>
       <c r="R24" s="34"/>
       <c r="S24" s="35"/>
@@ -45245,7 +45014,7 @@
         <v>100</v>
       </c>
       <c r="U24" s="35" t="s">
-        <v>1082</v>
+        <v>1073</v>
       </c>
       <c r="V24" s="34" t="s">
         <v>407</v>
@@ -45261,7 +45030,7 @@
       <c r="AA24" s="34"/>
       <c r="AB24" s="34"/>
       <c r="AC24" s="35" t="s">
-        <v>1091</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="25" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -45308,10 +45077,10 @@
         <v>8</v>
       </c>
       <c r="P25" s="33" t="s">
-        <v>1828</v>
+        <v>1813</v>
       </c>
       <c r="Q25" s="33" t="s">
-        <v>1830</v>
+        <v>1815</v>
       </c>
       <c r="S25" s="33" t="s">
         <v>940</v>
